--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 17 October 2020\IPE materials\Downloads\Thursday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 31 October 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF746B-48EE-407E-B3CF-68EA820FB954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C98F7C-69C5-4ECC-8D98-B88B0D8BB928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -392,13 +392,19 @@
     <t>NA = Not available</t>
   </si>
   <si>
-    <t>Week ending Saturday 17 October 2020</t>
-  </si>
-  <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Industry Subdivision</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 5 November 2020</t>
+    <t>Released at 11.30am (Canberra time) 17 November 2020</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 31 October 2020</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +515,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -550,7 +564,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -619,6 +633,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1379,12 +1397,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1602,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1666,7 +1684,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1828,9 +1846,11 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:78" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:78" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="29"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2041,8 +2061,12 @@
       <c r="AR6" s="25">
         <v>44121</v>
       </c>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
+      <c r="AS6" s="25">
+        <v>44128</v>
+      </c>
+      <c r="AT6" s="25">
+        <v>44135</v>
+      </c>
       <c r="AU6" s="25"/>
       <c r="AV6" s="25"/>
       <c r="AW6" s="25"/>
@@ -2209,6 +2233,12 @@
       <c r="AR7" s="26">
         <v>90.68</v>
       </c>
+      <c r="AS7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT7" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2343,6 +2373,12 @@
       <c r="AR8" s="26">
         <v>93.69</v>
       </c>
+      <c r="AS8" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT8" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2477,6 +2513,12 @@
       <c r="AR9" s="26">
         <v>90.05</v>
       </c>
+      <c r="AS9" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT9" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2611,6 +2653,12 @@
       <c r="AR10" s="26">
         <v>81.5</v>
       </c>
+      <c r="AS10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT10" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2745,6 +2793,12 @@
       <c r="AR11" s="26">
         <v>95.2</v>
       </c>
+      <c r="AS11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT11" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2879,6 +2933,12 @@
       <c r="AR12" s="26">
         <v>100.32</v>
       </c>
+      <c r="AS12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT12" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3013,6 +3073,12 @@
       <c r="AR13" s="26">
         <v>93.94</v>
       </c>
+      <c r="AS13" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT13" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3147,6 +3213,12 @@
       <c r="AR14" s="26">
         <v>97.06</v>
       </c>
+      <c r="AS14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT14" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3281,6 +3353,12 @@
       <c r="AR15" s="26">
         <v>99.56</v>
       </c>
+      <c r="AS15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3415,8 +3493,14 @@
       <c r="AR16" s="26">
         <v>102.97</v>
       </c>
+      <c r="AS16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT16" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3549,8 +3633,14 @@
       <c r="AR17" s="26">
         <v>95.95</v>
       </c>
+      <c r="AS17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT17" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3683,8 +3773,14 @@
       <c r="AR18" s="26">
         <v>89.47</v>
       </c>
+      <c r="AS18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT18" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3817,8 +3913,14 @@
       <c r="AR19" s="26">
         <v>93.56</v>
       </c>
+      <c r="AS19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT19" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3951,8 +4053,14 @@
       <c r="AR20" s="26">
         <v>94.61</v>
       </c>
+      <c r="AS20" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT20" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4085,8 +4193,14 @@
       <c r="AR21" s="26">
         <v>92.96</v>
       </c>
+      <c r="AS21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT21" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4219,8 +4333,14 @@
       <c r="AR22" s="26">
         <v>94.02</v>
       </c>
+      <c r="AS22" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT22" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4353,8 +4473,14 @@
       <c r="AR23" s="26">
         <v>95.52</v>
       </c>
+      <c r="AS23" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT23" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4487,8 +4613,14 @@
       <c r="AR24" s="26">
         <v>104.52</v>
       </c>
+      <c r="AS24" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT24" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4621,8 +4753,14 @@
       <c r="AR25" s="26">
         <v>99.21</v>
       </c>
+      <c r="AS25" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT25" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4755,8 +4893,14 @@
       <c r="AR26" s="26">
         <v>93.44</v>
       </c>
+      <c r="AS26" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT26" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4889,8 +5033,14 @@
       <c r="AR27" s="26">
         <v>99.22</v>
       </c>
+      <c r="AS27" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT27" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5023,8 +5173,14 @@
       <c r="AR28" s="26">
         <v>95.78</v>
       </c>
+      <c r="AS28" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT28" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5157,8 +5313,14 @@
       <c r="AR29" s="26">
         <v>95.24</v>
       </c>
+      <c r="AS29" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT29" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5291,8 +5453,14 @@
       <c r="AR30" s="26">
         <v>97</v>
       </c>
+      <c r="AS30" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT30" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5425,8 +5593,14 @@
       <c r="AR31" s="26">
         <v>94.82</v>
       </c>
+      <c r="AS31" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT31" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -5559,8 +5733,14 @@
       <c r="AR32" s="26">
         <v>105.35</v>
       </c>
+      <c r="AS32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT32" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -5693,8 +5873,14 @@
       <c r="AR33" s="26">
         <v>113.27</v>
       </c>
+      <c r="AS33" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT33" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -5827,8 +6013,14 @@
       <c r="AR34" s="26">
         <v>100.05</v>
       </c>
+      <c r="AS34" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT34" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -5961,8 +6153,14 @@
       <c r="AR35" s="26">
         <v>94.26</v>
       </c>
+      <c r="AS35" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT35" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -6095,8 +6293,14 @@
       <c r="AR36" s="26">
         <v>95.64</v>
       </c>
+      <c r="AS36" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT36" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -6229,8 +6433,14 @@
       <c r="AR37" s="26">
         <v>90.31</v>
       </c>
+      <c r="AS37" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT37" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -6363,8 +6573,14 @@
       <c r="AR38" s="26">
         <v>91.91</v>
       </c>
+      <c r="AS38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT38" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -6497,8 +6713,14 @@
       <c r="AR39" s="26">
         <v>97.29</v>
       </c>
+      <c r="AS39" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT39" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -6631,8 +6853,14 @@
       <c r="AR40" s="26">
         <v>97.44</v>
       </c>
+      <c r="AS40" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT40" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -6765,8 +6993,14 @@
       <c r="AR41" s="26">
         <v>94.54</v>
       </c>
+      <c r="AS41" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT41" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -6899,8 +7133,14 @@
       <c r="AR42" s="26">
         <v>92.45</v>
       </c>
+      <c r="AS42" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT42" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -7033,8 +7273,14 @@
       <c r="AR43" s="26">
         <v>92.33</v>
       </c>
+      <c r="AS43" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT43" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -7167,8 +7413,14 @@
       <c r="AR44" s="26">
         <v>96.44</v>
       </c>
+      <c r="AS44" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT44" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -7301,8 +7553,14 @@
       <c r="AR45" s="26">
         <v>94.76</v>
       </c>
+      <c r="AS45" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT45" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -7435,8 +7693,14 @@
       <c r="AR46" s="26">
         <v>105.38</v>
       </c>
+      <c r="AS46" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT46" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -7569,8 +7833,14 @@
       <c r="AR47" s="26">
         <v>98.9</v>
       </c>
+      <c r="AS47" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT47" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -7703,8 +7973,14 @@
       <c r="AR48" s="26">
         <v>96.94</v>
       </c>
+      <c r="AS48" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT48" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -7837,8 +8113,14 @@
       <c r="AR49" s="26">
         <v>93.03</v>
       </c>
+      <c r="AS49" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT49" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -7971,8 +8253,14 @@
       <c r="AR50" s="26">
         <v>79.66</v>
       </c>
+      <c r="AS50" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT50" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -8105,8 +8393,14 @@
       <c r="AR51" s="26">
         <v>82.35</v>
       </c>
+      <c r="AS51" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT51" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -8239,8 +8533,14 @@
       <c r="AR52" s="26">
         <v>93.36</v>
       </c>
+      <c r="AS52" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT52" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -8373,8 +8673,14 @@
       <c r="AR53" s="26">
         <v>102.98</v>
       </c>
+      <c r="AS53" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT53" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -8507,8 +8813,14 @@
       <c r="AR54" s="26">
         <v>87</v>
       </c>
+      <c r="AS54" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT54" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -8641,8 +8953,14 @@
       <c r="AR55" s="26">
         <v>83.69</v>
       </c>
+      <c r="AS55" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT55" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -8775,8 +9093,14 @@
       <c r="AR56" s="26">
         <v>84.44</v>
       </c>
+      <c r="AS56" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT56" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -8909,8 +9233,14 @@
       <c r="AR57" s="26">
         <v>98.12</v>
       </c>
+      <c r="AS57" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT57" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -9043,8 +9373,14 @@
       <c r="AR58" s="26">
         <v>93.9</v>
       </c>
+      <c r="AS58" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT58" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -9177,8 +9513,14 @@
       <c r="AR59" s="26">
         <v>97.73</v>
       </c>
+      <c r="AS59" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT59" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9311,8 +9653,14 @@
       <c r="AR60" s="26">
         <v>88.46</v>
       </c>
+      <c r="AS60" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT60" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -9445,8 +9793,14 @@
       <c r="AR61" s="26">
         <v>80.05</v>
       </c>
+      <c r="AS61" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT61" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9579,8 +9933,14 @@
       <c r="AR62" s="26">
         <v>90.55</v>
       </c>
+      <c r="AS62" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT62" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -9713,8 +10073,14 @@
       <c r="AR63" s="26">
         <v>88.75</v>
       </c>
+      <c r="AS63" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT63" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9847,8 +10213,14 @@
       <c r="AR64" s="26">
         <v>95.69</v>
       </c>
+      <c r="AS64" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT64" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9981,8 +10353,14 @@
       <c r="AR65" s="26">
         <v>97.4</v>
       </c>
+      <c r="AS65" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT65" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -10115,8 +10493,14 @@
       <c r="AR66" s="26">
         <v>95.64</v>
       </c>
+      <c r="AS66" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT66" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -10249,8 +10633,14 @@
       <c r="AR67" s="26">
         <v>104.23</v>
       </c>
+      <c r="AS67" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT67" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -10383,8 +10773,14 @@
       <c r="AR68" s="26">
         <v>97.16</v>
       </c>
+      <c r="AS68" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT68" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -10517,8 +10913,14 @@
       <c r="AR69" s="26">
         <v>100.97</v>
       </c>
+      <c r="AS69" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT69" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -10651,8 +11053,14 @@
       <c r="AR70" s="26">
         <v>97.53</v>
       </c>
+      <c r="AS70" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT70" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -10785,8 +11193,14 @@
       <c r="AR71" s="26">
         <v>90.56</v>
       </c>
+      <c r="AS71" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT71" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -10919,8 +11333,14 @@
       <c r="AR72" s="26">
         <v>95.04</v>
       </c>
+      <c r="AS72" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT72" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -11053,8 +11473,14 @@
       <c r="AR73" s="26">
         <v>95.43</v>
       </c>
+      <c r="AS73" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT73" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -11187,8 +11613,14 @@
       <c r="AR74" s="26">
         <v>95.46</v>
       </c>
+      <c r="AS74" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT74" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -11321,8 +11753,14 @@
       <c r="AR75" s="26">
         <v>91.54</v>
       </c>
+      <c r="AS75" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT75" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -11455,8 +11893,14 @@
       <c r="AR76" s="26">
         <v>103.87</v>
       </c>
+      <c r="AS76" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT76" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -11589,8 +12033,14 @@
       <c r="AR77" s="26">
         <v>100.27</v>
       </c>
+      <c r="AS77" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT77" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -11723,8 +12173,14 @@
       <c r="AR78" s="26">
         <v>96.86</v>
       </c>
+      <c r="AS78" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT78" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -11857,8 +12313,14 @@
       <c r="AR79" s="26">
         <v>99.8</v>
       </c>
+      <c r="AS79" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT79" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -11991,8 +12453,14 @@
       <c r="AR80" s="26">
         <v>85.87</v>
       </c>
+      <c r="AS80" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT80" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -12125,8 +12593,14 @@
       <c r="AR81" s="26">
         <v>102.46</v>
       </c>
+      <c r="AS81" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT81" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -12259,8 +12733,14 @@
       <c r="AR82" s="26">
         <v>96.64</v>
       </c>
+      <c r="AS82" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT82" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -12393,8 +12873,14 @@
       <c r="AR83" s="26">
         <v>98.45</v>
       </c>
+      <c r="AS83" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT83" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -12527,8 +13013,14 @@
       <c r="AR84" s="26">
         <v>102.09</v>
       </c>
+      <c r="AS84" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT84" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -12661,8 +13153,14 @@
       <c r="AR85" s="26">
         <v>94.54</v>
       </c>
+      <c r="AS85" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT85" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -12795,8 +13293,14 @@
       <c r="AR86" s="26">
         <v>75.72</v>
       </c>
+      <c r="AS86" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT86" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -12929,8 +13433,14 @@
       <c r="AR87" s="26">
         <v>83.66</v>
       </c>
+      <c r="AS87" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT87" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -13063,8 +13573,14 @@
       <c r="AR88" s="26">
         <v>91.32</v>
       </c>
+      <c r="AS88" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT88" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -13197,8 +13713,14 @@
       <c r="AR89" s="26">
         <v>94.84</v>
       </c>
+      <c r="AS89" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT89" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -13331,8 +13853,14 @@
       <c r="AR90" s="26">
         <v>90.94</v>
       </c>
+      <c r="AS90" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT90" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -13465,13 +13993,22 @@
       <c r="AR91" s="26">
         <v>99.66</v>
       </c>
+      <c r="AS91" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT91" s="24" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 31 October 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 14 November 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C98F7C-69C5-4ECC-8D98-B88B0D8BB928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD53A0-C620-4B35-BCC7-BDA194ED3E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'2995e12c-7f92-4103-a2d1-a1d598d57c6f'"</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -395,16 +395,16 @@
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Industry Subdivision</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 17 November 2020</t>
-  </si>
-  <si>
-    <t>Week ending Saturday 31 October 2020</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 1 December 2020</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 14 November 2020</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="5" spans="1:78" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="5"/>
@@ -2067,8 +2067,12 @@
       <c r="AT6" s="25">
         <v>44135</v>
       </c>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
+      <c r="AU6" s="25">
+        <v>44142</v>
+      </c>
+      <c r="AV6" s="25">
+        <v>44149</v>
+      </c>
       <c r="AW6" s="25"/>
       <c r="AX6" s="25"/>
       <c r="AY6" s="25"/>
@@ -2234,10 +2238,16 @@
         <v>90.68</v>
       </c>
       <c r="AS7" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT7" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV7" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
@@ -2374,10 +2384,16 @@
         <v>93.69</v>
       </c>
       <c r="AS8" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT8" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU8" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV8" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
@@ -2514,10 +2530,16 @@
         <v>90.05</v>
       </c>
       <c r="AS9" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT9" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU9" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV9" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
@@ -2654,10 +2676,16 @@
         <v>81.5</v>
       </c>
       <c r="AS10" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT10" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV10" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
@@ -2794,10 +2822,16 @@
         <v>95.2</v>
       </c>
       <c r="AS11" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT11" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU11" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV11" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
@@ -2934,10 +2968,16 @@
         <v>100.32</v>
       </c>
       <c r="AS12" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT12" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU12" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV12" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
@@ -3074,10 +3114,16 @@
         <v>93.94</v>
       </c>
       <c r="AS13" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT13" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV13" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
@@ -3214,10 +3260,16 @@
         <v>97.06</v>
       </c>
       <c r="AS14" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT14" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV14" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
@@ -3354,10 +3406,16 @@
         <v>99.56</v>
       </c>
       <c r="AS15" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT15" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU15" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV15" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
@@ -3494,13 +3552,19 @@
         <v>102.97</v>
       </c>
       <c r="AS16" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT16" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU16" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV16" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3634,13 +3698,19 @@
         <v>95.95</v>
       </c>
       <c r="AS17" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT17" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV17" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3774,13 +3844,19 @@
         <v>89.47</v>
       </c>
       <c r="AS18" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT18" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV18" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3914,13 +3990,19 @@
         <v>93.56</v>
       </c>
       <c r="AS19" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT19" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV19" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4054,13 +4136,19 @@
         <v>94.61</v>
       </c>
       <c r="AS20" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT20" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV20" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4194,13 +4282,19 @@
         <v>92.96</v>
       </c>
       <c r="AS21" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT21" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU21" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV21" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4334,13 +4428,19 @@
         <v>94.02</v>
       </c>
       <c r="AS22" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT22" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU22" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV22" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4474,13 +4574,19 @@
         <v>95.52</v>
       </c>
       <c r="AS23" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT23" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV23" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4614,13 +4720,19 @@
         <v>104.52</v>
       </c>
       <c r="AS24" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT24" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU24" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV24" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4754,13 +4866,19 @@
         <v>99.21</v>
       </c>
       <c r="AS25" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT25" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU25" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV25" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4894,13 +5012,19 @@
         <v>93.44</v>
       </c>
       <c r="AS26" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT26" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV26" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -5034,13 +5158,19 @@
         <v>99.22</v>
       </c>
       <c r="AS27" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT27" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU27" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV27" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5174,13 +5304,19 @@
         <v>95.78</v>
       </c>
       <c r="AS28" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT28" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU28" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV28" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5314,13 +5450,19 @@
         <v>95.24</v>
       </c>
       <c r="AS29" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT29" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU29" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV29" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5454,13 +5596,19 @@
         <v>97</v>
       </c>
       <c r="AS30" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT30" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU30" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV30" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5594,13 +5742,19 @@
         <v>94.82</v>
       </c>
       <c r="AS31" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT31" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU31" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV31" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -5734,13 +5888,19 @@
         <v>105.35</v>
       </c>
       <c r="AS32" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT32" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU32" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV32" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -5874,13 +6034,19 @@
         <v>113.27</v>
       </c>
       <c r="AS33" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT33" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU33" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV33" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -6014,13 +6180,19 @@
         <v>100.05</v>
       </c>
       <c r="AS34" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT34" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV34" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -6154,13 +6326,19 @@
         <v>94.26</v>
       </c>
       <c r="AS35" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT35" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU35" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV35" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -6294,13 +6472,19 @@
         <v>95.64</v>
       </c>
       <c r="AS36" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT36" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU36" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV36" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -6434,13 +6618,19 @@
         <v>90.31</v>
       </c>
       <c r="AS37" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT37" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV37" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -6574,13 +6764,19 @@
         <v>91.91</v>
       </c>
       <c r="AS38" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT38" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU38" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV38" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -6714,13 +6910,19 @@
         <v>97.29</v>
       </c>
       <c r="AS39" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT39" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU39" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV39" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -6854,13 +7056,19 @@
         <v>97.44</v>
       </c>
       <c r="AS40" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT40" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU40" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV40" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -6994,13 +7202,19 @@
         <v>94.54</v>
       </c>
       <c r="AS41" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT41" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU41" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV41" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -7134,13 +7348,19 @@
         <v>92.45</v>
       </c>
       <c r="AS42" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT42" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU42" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV42" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -7274,13 +7494,19 @@
         <v>92.33</v>
       </c>
       <c r="AS43" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT43" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU43" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV43" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -7414,13 +7640,19 @@
         <v>96.44</v>
       </c>
       <c r="AS44" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT44" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU44" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV44" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -7554,13 +7786,19 @@
         <v>94.76</v>
       </c>
       <c r="AS45" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT45" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU45" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV45" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -7694,13 +7932,19 @@
         <v>105.38</v>
       </c>
       <c r="AS46" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT46" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU46" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV46" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -7834,13 +8078,19 @@
         <v>98.9</v>
       </c>
       <c r="AS47" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT47" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV47" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -7974,13 +8224,19 @@
         <v>96.94</v>
       </c>
       <c r="AS48" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT48" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV48" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -8114,13 +8370,19 @@
         <v>93.03</v>
       </c>
       <c r="AS49" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT49" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV49" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -8254,13 +8516,19 @@
         <v>79.66</v>
       </c>
       <c r="AS50" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT50" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV50" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -8394,13 +8662,19 @@
         <v>82.35</v>
       </c>
       <c r="AS51" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT51" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU51" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV51" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -8534,13 +8808,19 @@
         <v>93.36</v>
       </c>
       <c r="AS52" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT52" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU52" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV52" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -8674,13 +8954,19 @@
         <v>102.98</v>
       </c>
       <c r="AS53" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT53" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU53" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV53" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -8814,13 +9100,19 @@
         <v>87</v>
       </c>
       <c r="AS54" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT54" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU54" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV54" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -8954,13 +9246,19 @@
         <v>83.69</v>
       </c>
       <c r="AS55" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT55" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU55" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV55" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -9094,13 +9392,19 @@
         <v>84.44</v>
       </c>
       <c r="AS56" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT56" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU56" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV56" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -9234,13 +9538,19 @@
         <v>98.12</v>
       </c>
       <c r="AS57" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT57" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU57" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV57" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -9374,13 +9684,19 @@
         <v>93.9</v>
       </c>
       <c r="AS58" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT58" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU58" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV58" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -9514,13 +9830,19 @@
         <v>97.73</v>
       </c>
       <c r="AS59" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT59" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU59" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV59" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9654,13 +9976,19 @@
         <v>88.46</v>
       </c>
       <c r="AS60" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT60" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU60" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV60" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -9794,13 +10122,19 @@
         <v>80.05</v>
       </c>
       <c r="AS61" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT61" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU61" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV61" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9934,13 +10268,19 @@
         <v>90.55</v>
       </c>
       <c r="AS62" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT62" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU62" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV62" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -10074,13 +10414,19 @@
         <v>88.75</v>
       </c>
       <c r="AS63" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT63" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU63" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV63" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -10214,13 +10560,19 @@
         <v>95.69</v>
       </c>
       <c r="AS64" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT64" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU64" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV64" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -10354,13 +10706,19 @@
         <v>97.4</v>
       </c>
       <c r="AS65" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT65" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU65" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV65" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -10494,13 +10852,19 @@
         <v>95.64</v>
       </c>
       <c r="AS66" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT66" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU66" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV66" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -10634,13 +10998,19 @@
         <v>104.23</v>
       </c>
       <c r="AS67" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT67" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU67" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV67" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -10774,13 +11144,19 @@
         <v>97.16</v>
       </c>
       <c r="AS68" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT68" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU68" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV68" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -10914,13 +11290,19 @@
         <v>100.97</v>
       </c>
       <c r="AS69" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT69" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU69" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV69" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -11054,13 +11436,19 @@
         <v>97.53</v>
       </c>
       <c r="AS70" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT70" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU70" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV70" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -11194,13 +11582,19 @@
         <v>90.56</v>
       </c>
       <c r="AS71" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT71" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU71" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV71" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -11334,13 +11728,19 @@
         <v>95.04</v>
       </c>
       <c r="AS72" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT72" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV72" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -11474,13 +11874,19 @@
         <v>95.43</v>
       </c>
       <c r="AS73" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT73" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU73" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV73" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -11614,13 +12020,19 @@
         <v>95.46</v>
       </c>
       <c r="AS74" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT74" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU74" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV74" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -11754,13 +12166,19 @@
         <v>91.54</v>
       </c>
       <c r="AS75" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT75" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU75" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV75" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -11894,13 +12312,19 @@
         <v>103.87</v>
       </c>
       <c r="AS76" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT76" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU76" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV76" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -12034,13 +12458,19 @@
         <v>100.27</v>
       </c>
       <c r="AS77" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT77" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU77" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV77" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -12174,13 +12604,19 @@
         <v>96.86</v>
       </c>
       <c r="AS78" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT78" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU78" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV78" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -12314,13 +12750,19 @@
         <v>99.8</v>
       </c>
       <c r="AS79" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT79" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU79" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV79" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -12454,13 +12896,19 @@
         <v>85.87</v>
       </c>
       <c r="AS80" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT80" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU80" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV80" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -12594,13 +13042,19 @@
         <v>102.46</v>
       </c>
       <c r="AS81" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT81" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU81" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV81" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -12734,13 +13188,19 @@
         <v>96.64</v>
       </c>
       <c r="AS82" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT82" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU82" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV82" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -12874,13 +13334,19 @@
         <v>98.45</v>
       </c>
       <c r="AS83" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT83" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU83" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV83" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -13014,13 +13480,19 @@
         <v>102.09</v>
       </c>
       <c r="AS84" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT84" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU84" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV84" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -13154,13 +13626,19 @@
         <v>94.54</v>
       </c>
       <c r="AS85" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT85" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU85" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV85" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -13294,13 +13772,19 @@
         <v>75.72</v>
       </c>
       <c r="AS86" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT86" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU86" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV86" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -13434,13 +13918,19 @@
         <v>83.66</v>
       </c>
       <c r="AS87" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT87" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU87" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV87" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -13574,13 +14064,19 @@
         <v>91.32</v>
       </c>
       <c r="AS88" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT88" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU88" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV88" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -13714,13 +14210,19 @@
         <v>94.84</v>
       </c>
       <c r="AS89" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT89" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU89" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV89" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -13854,13 +14356,19 @@
         <v>90.94</v>
       </c>
       <c r="AS90" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT90" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU90" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV90" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -13994,13 +14502,19 @@
         <v>99.66</v>
       </c>
       <c r="AS91" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AT91" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AU91" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV91" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>115</v>
       </c>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 14 November 2020\IPE materials\Downloads\Wednesday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 28 November 2020\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57162A04-0FC8-4F63-978B-9102BA16C760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACA9D6-9729-402E-A189-843AFB853B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -395,16 +395,19 @@
     <t>NA = Not available</t>
   </si>
   <si>
-    <t>Week ending Saturday 14 November 2020</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 2 December 2020</t>
-  </si>
-  <si>
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Indexes by Industry Subdivision</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 15 December 2020</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 28 November 2020</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -629,6 +632,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1397,12 +1412,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1462,24 +1477,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1516,7 +1531,9 @@
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="22" width="14.7109375" style="24" customWidth="1"/>
-    <col min="23" max="78" width="14.7109375" customWidth="1"/>
+    <col min="23" max="48" width="14.7109375" customWidth="1"/>
+    <col min="49" max="50" width="14.7109375" style="24" customWidth="1"/>
+    <col min="51" max="78" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,8 +1587,8 @@
       <c r="AT1" s="22"/>
       <c r="AU1" s="22"/>
       <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
       <c r="AY1" s="22"/>
       <c r="AZ1" s="22"/>
       <c r="BA1" s="22"/>
@@ -1652,8 +1669,8 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
@@ -1685,7 +1702,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1734,8 +1751,8 @@
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
@@ -1816,8 +1833,8 @@
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
@@ -1848,10 +1865,10 @@
       <c r="BZ4" s="5"/>
     </row>
     <row r="5" spans="1:78" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="A5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="32"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1898,8 +1915,8 @@
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="29"/>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
@@ -2074,8 +2091,12 @@
       <c r="AV6" s="25">
         <v>44149</v>
       </c>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="25"/>
+      <c r="AW6" s="25">
+        <v>44156</v>
+      </c>
+      <c r="AX6" s="25">
+        <v>44163</v>
+      </c>
       <c r="AY6" s="25"/>
       <c r="AZ6" s="25"/>
       <c r="BA6" s="25"/>
@@ -2250,6 +2271,12 @@
       <c r="AV7" s="26">
         <v>93.06</v>
       </c>
+      <c r="AW7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX7" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2396,6 +2423,12 @@
       <c r="AV8" s="26">
         <v>95.22</v>
       </c>
+      <c r="AW8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX8" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2542,6 +2575,12 @@
       <c r="AV9" s="26">
         <v>88.65</v>
       </c>
+      <c r="AW9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX9" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2688,6 +2727,12 @@
       <c r="AV10" s="26">
         <v>82.36</v>
       </c>
+      <c r="AW10" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX10" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2834,6 +2879,12 @@
       <c r="AV11" s="26">
         <v>99.08</v>
       </c>
+      <c r="AW11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX11" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2980,6 +3031,12 @@
       <c r="AV12" s="26">
         <v>100.39</v>
       </c>
+      <c r="AW12" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX12" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3126,6 +3183,12 @@
       <c r="AV13" s="26">
         <v>90.65</v>
       </c>
+      <c r="AW13" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX13" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3272,6 +3335,12 @@
       <c r="AV14" s="26">
         <v>97.19</v>
       </c>
+      <c r="AW14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX14" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3418,6 +3487,12 @@
       <c r="AV15" s="26">
         <v>99.8</v>
       </c>
+      <c r="AW15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX15" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3564,8 +3639,14 @@
       <c r="AV16" s="26">
         <v>101.39</v>
       </c>
+      <c r="AW16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX16" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3710,8 +3791,14 @@
       <c r="AV17" s="26">
         <v>96.24</v>
       </c>
+      <c r="AW17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX17" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3856,8 +3943,14 @@
       <c r="AV18" s="26">
         <v>90.23</v>
       </c>
+      <c r="AW18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX18" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4002,8 +4095,14 @@
       <c r="AV19" s="26">
         <v>97.01</v>
       </c>
+      <c r="AW19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX19" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4148,8 +4247,14 @@
       <c r="AV20" s="26">
         <v>96.79</v>
       </c>
+      <c r="AW20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX20" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4294,8 +4399,14 @@
       <c r="AV21" s="26">
         <v>92.9</v>
       </c>
+      <c r="AW21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX21" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4440,8 +4551,14 @@
       <c r="AV22" s="26">
         <v>94.55</v>
       </c>
+      <c r="AW22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX22" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4586,8 +4703,14 @@
       <c r="AV23" s="26">
         <v>93.38</v>
       </c>
+      <c r="AW23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX23" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4732,8 +4855,14 @@
       <c r="AV24" s="26">
         <v>108.48</v>
       </c>
+      <c r="AW24" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX24" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4878,8 +5007,14 @@
       <c r="AV25" s="26">
         <v>95.87</v>
       </c>
+      <c r="AW25" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX25" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5024,8 +5159,14 @@
       <c r="AV26" s="26">
         <v>94</v>
       </c>
+      <c r="AW26" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX26" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -5170,8 +5311,14 @@
       <c r="AV27" s="26">
         <v>98.96</v>
       </c>
+      <c r="AW27" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX27" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5316,8 +5463,14 @@
       <c r="AV28" s="26">
         <v>97.04</v>
       </c>
+      <c r="AW28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX28" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5462,8 +5615,14 @@
       <c r="AV29" s="26">
         <v>97.21</v>
       </c>
+      <c r="AW29" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX29" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5608,8 +5767,14 @@
       <c r="AV30" s="26">
         <v>97.51</v>
       </c>
+      <c r="AW30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX30" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5754,8 +5919,14 @@
       <c r="AV31" s="26">
         <v>96.8</v>
       </c>
+      <c r="AW31" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX31" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -5900,8 +6071,14 @@
       <c r="AV32" s="26">
         <v>99.43</v>
       </c>
+      <c r="AW32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX32" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6046,8 +6223,14 @@
       <c r="AV33" s="26">
         <v>99.85</v>
       </c>
+      <c r="AW33" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX33" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -6192,8 +6375,14 @@
       <c r="AV34" s="26">
         <v>101.1</v>
       </c>
+      <c r="AW34" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX34" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -6338,8 +6527,14 @@
       <c r="AV35" s="26">
         <v>92.13</v>
       </c>
+      <c r="AW35" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX35" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -6484,8 +6679,14 @@
       <c r="AV36" s="26">
         <v>97.82</v>
       </c>
+      <c r="AW36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX36" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -6630,8 +6831,14 @@
       <c r="AV37" s="26">
         <v>87.72</v>
       </c>
+      <c r="AW37" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX37" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -6776,8 +6983,14 @@
       <c r="AV38" s="26">
         <v>94.55</v>
       </c>
+      <c r="AW38" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX38" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -6922,8 +7135,14 @@
       <c r="AV39" s="26">
         <v>95.06</v>
       </c>
+      <c r="AW39" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX39" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -7068,8 +7287,14 @@
       <c r="AV40" s="26">
         <v>97.47</v>
       </c>
+      <c r="AW40" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX40" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -7214,8 +7439,14 @@
       <c r="AV41" s="26">
         <v>95.15</v>
       </c>
+      <c r="AW41" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX41" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -7360,8 +7591,14 @@
       <c r="AV42" s="26">
         <v>94.13</v>
       </c>
+      <c r="AW42" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX42" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -7506,8 +7743,14 @@
       <c r="AV43" s="26">
         <v>95.51</v>
       </c>
+      <c r="AW43" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX43" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -7652,8 +7895,14 @@
       <c r="AV44" s="26">
         <v>99.72</v>
       </c>
+      <c r="AW44" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX44" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -7798,8 +8047,14 @@
       <c r="AV45" s="26">
         <v>96.03</v>
       </c>
+      <c r="AW45" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX45" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -7944,8 +8199,14 @@
       <c r="AV46" s="26">
         <v>105.39</v>
       </c>
+      <c r="AW46" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX46" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -8090,8 +8351,14 @@
       <c r="AV47" s="26">
         <v>99.47</v>
       </c>
+      <c r="AW47" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX47" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -8236,8 +8503,14 @@
       <c r="AV48" s="26">
         <v>101.42</v>
       </c>
+      <c r="AW48" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX48" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -8382,8 +8655,14 @@
       <c r="AV49" s="26">
         <v>97.82</v>
       </c>
+      <c r="AW49" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX49" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -8528,8 +8807,14 @@
       <c r="AV50" s="26">
         <v>81.569999999999993</v>
       </c>
+      <c r="AW50" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX50" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -8674,8 +8959,14 @@
       <c r="AV51" s="26">
         <v>86.13</v>
       </c>
+      <c r="AW51" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX51" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -8820,8 +9111,14 @@
       <c r="AV52" s="26">
         <v>95.41</v>
       </c>
+      <c r="AW52" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX52" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -8966,8 +9263,14 @@
       <c r="AV53" s="26">
         <v>102.74</v>
       </c>
+      <c r="AW53" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX53" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -9112,8 +9415,14 @@
       <c r="AV54" s="26">
         <v>89.16</v>
       </c>
+      <c r="AW54" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX54" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -9258,8 +9567,14 @@
       <c r="AV55" s="26">
         <v>82.3</v>
       </c>
+      <c r="AW55" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX55" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -9404,8 +9719,14 @@
       <c r="AV56" s="26">
         <v>84.75</v>
       </c>
+      <c r="AW56" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX56" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -9550,8 +9871,14 @@
       <c r="AV57" s="26">
         <v>101.09</v>
       </c>
+      <c r="AW57" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX57" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -9696,8 +10023,14 @@
       <c r="AV58" s="26">
         <v>94.44</v>
       </c>
+      <c r="AW58" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX58" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -9842,8 +10175,14 @@
       <c r="AV59" s="26">
         <v>104.13</v>
       </c>
+      <c r="AW59" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX59" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -9988,8 +10327,14 @@
       <c r="AV60" s="26">
         <v>87.31</v>
       </c>
+      <c r="AW60" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX60" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -10134,8 +10479,14 @@
       <c r="AV61" s="26">
         <v>75.400000000000006</v>
       </c>
+      <c r="AW61" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX61" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -10280,8 +10631,14 @@
       <c r="AV62" s="26">
         <v>88.91</v>
       </c>
+      <c r="AW62" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX62" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -10426,8 +10783,14 @@
       <c r="AV63" s="26">
         <v>83.39</v>
       </c>
+      <c r="AW63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX63" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -10572,8 +10935,14 @@
       <c r="AV64" s="26">
         <v>90.14</v>
       </c>
+      <c r="AW64" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX64" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -10718,8 +11087,14 @@
       <c r="AV65" s="26">
         <v>96.1</v>
       </c>
+      <c r="AW65" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX65" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -10864,8 +11239,14 @@
       <c r="AV66" s="26">
         <v>98.69</v>
       </c>
+      <c r="AW66" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX66" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -11010,8 +11391,14 @@
       <c r="AV67" s="26">
         <v>105.08</v>
       </c>
+      <c r="AW67" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX67" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -11156,8 +11543,14 @@
       <c r="AV68" s="26">
         <v>94.3</v>
       </c>
+      <c r="AW68" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX68" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -11302,8 +11695,14 @@
       <c r="AV69" s="26">
         <v>102.73</v>
       </c>
+      <c r="AW69" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX69" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -11448,8 +11847,14 @@
       <c r="AV70" s="26">
         <v>99.2</v>
       </c>
+      <c r="AW70" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX70" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -11594,8 +11999,14 @@
       <c r="AV71" s="26">
         <v>91.5</v>
       </c>
+      <c r="AW71" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX71" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -11740,8 +12151,14 @@
       <c r="AV72" s="26">
         <v>95.6</v>
       </c>
+      <c r="AW72" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX72" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -11886,8 +12303,14 @@
       <c r="AV73" s="26">
         <v>94.61</v>
       </c>
+      <c r="AW73" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX73" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -12032,8 +12455,14 @@
       <c r="AV74" s="26">
         <v>96.76</v>
       </c>
+      <c r="AW74" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX74" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -12178,8 +12607,14 @@
       <c r="AV75" s="26">
         <v>96.53</v>
       </c>
+      <c r="AW75" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX75" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -12324,8 +12759,14 @@
       <c r="AV76" s="26">
         <v>104.1</v>
       </c>
+      <c r="AW76" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX76" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -12470,8 +12911,14 @@
       <c r="AV77" s="26">
         <v>102.09</v>
       </c>
+      <c r="AW77" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX77" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -12616,8 +13063,14 @@
       <c r="AV78" s="26">
         <v>98.82</v>
       </c>
+      <c r="AW78" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX78" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -12762,8 +13215,14 @@
       <c r="AV79" s="26">
         <v>100.15</v>
       </c>
+      <c r="AW79" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX79" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -12908,8 +13367,14 @@
       <c r="AV80" s="26">
         <v>92.1</v>
       </c>
+      <c r="AW80" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX80" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -13054,8 +13519,14 @@
       <c r="AV81" s="26">
         <v>103.27</v>
       </c>
+      <c r="AW81" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX81" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -13200,8 +13671,14 @@
       <c r="AV82" s="26">
         <v>97.56</v>
       </c>
+      <c r="AW82" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX82" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -13346,8 +13823,14 @@
       <c r="AV83" s="26">
         <v>98.89</v>
       </c>
+      <c r="AW83" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX83" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -13492,8 +13975,14 @@
       <c r="AV84" s="26">
         <v>103.78</v>
       </c>
+      <c r="AW84" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX84" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -13638,8 +14127,14 @@
       <c r="AV85" s="26">
         <v>98.18</v>
       </c>
+      <c r="AW85" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX85" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -13784,8 +14279,14 @@
       <c r="AV86" s="26">
         <v>82.77</v>
       </c>
+      <c r="AW86" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX86" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -13930,8 +14431,14 @@
       <c r="AV87" s="26">
         <v>88.56</v>
       </c>
+      <c r="AW87" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX87" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -14076,8 +14583,14 @@
       <c r="AV88" s="26">
         <v>92.75</v>
       </c>
+      <c r="AW88" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX88" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -14222,8 +14735,14 @@
       <c r="AV89" s="26">
         <v>95.48</v>
       </c>
+      <c r="AW89" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX89" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -14368,8 +14887,14 @@
       <c r="AV90" s="26">
         <v>94.43</v>
       </c>
+      <c r="AW90" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX90" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -14514,8 +15039,14 @@
       <c r="AV91" s="26">
         <v>107</v>
       </c>
+      <c r="AW91" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX91" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>116</v>
       </c>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 28 November 2020\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 2 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ACA9D6-9729-402E-A189-843AFB853B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D0037-91DE-4861-9B25-3882AE21154E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="122">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Further information about these and related statistics is available from the ABS website www.abs.gov.au, or contact the National Information and Referral Service on 1300 135 070.</t>
-  </si>
-  <si>
-    <t>© Commonwealth of Australia 2020</t>
   </si>
   <si>
     <t>Industry</t>
@@ -401,13 +398,16 @@
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 15 December 2020</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Week ending Saturday 28 November 2020</t>
+    <t>Released at 11.30am (Canberra time) 19 January 2021</t>
+  </si>
+  <si>
+    <t>© Commonwealth of Australia 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 2 January 2021</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C19" s="31"/>
     </row>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="5" spans="1:78" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="5"/>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="6" spans="1:78" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2097,11 +2097,21 @@
       <c r="AX6" s="25">
         <v>44163</v>
       </c>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="25"/>
+      <c r="AY6" s="25">
+        <v>44170</v>
+      </c>
+      <c r="AZ6" s="25">
+        <v>44177</v>
+      </c>
+      <c r="BA6" s="25">
+        <v>44184</v>
+      </c>
+      <c r="BB6" s="25">
+        <v>44191</v>
+      </c>
+      <c r="BC6" s="25">
+        <v>44198</v>
+      </c>
       <c r="BD6" s="25"/>
       <c r="BE6" s="25"/>
       <c r="BF6" s="25"/>
@@ -2131,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="26">
         <v>93</v>
@@ -2272,10 +2282,25 @@
         <v>93.06</v>
       </c>
       <c r="AW7" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX7" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC7" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
@@ -2283,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="26">
         <v>93.77</v>
@@ -2424,10 +2449,25 @@
         <v>95.22</v>
       </c>
       <c r="AW8" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX8" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC8" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
@@ -2435,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="26">
         <v>91.38</v>
@@ -2576,10 +2616,25 @@
         <v>88.65</v>
       </c>
       <c r="AW9" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX9" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC9" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
@@ -2587,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="26">
         <v>91.72</v>
@@ -2728,10 +2783,25 @@
         <v>82.36</v>
       </c>
       <c r="AW10" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX10" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC10" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
@@ -2739,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="26">
         <v>83.23</v>
@@ -2880,10 +2950,25 @@
         <v>99.08</v>
       </c>
       <c r="AW11" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX11" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC11" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
@@ -2891,7 +2976,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="26">
         <v>99.77</v>
@@ -3032,10 +3117,25 @@
         <v>100.39</v>
       </c>
       <c r="AW12" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX12" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC12" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
@@ -3043,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="26">
         <v>95.72</v>
@@ -3184,10 +3284,25 @@
         <v>90.65</v>
       </c>
       <c r="AW13" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX13" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC13" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
@@ -3195,7 +3310,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="26">
         <v>95.66</v>
@@ -3336,10 +3451,25 @@
         <v>97.19</v>
       </c>
       <c r="AW14" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX14" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC14" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
@@ -3347,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="26">
         <v>90.09</v>
@@ -3488,10 +3618,25 @@
         <v>99.8</v>
       </c>
       <c r="AW15" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX15" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC15" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
@@ -3499,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="26">
         <v>94.18</v>
@@ -3640,18 +3785,33 @@
         <v>101.39</v>
       </c>
       <c r="AW16" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX16" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC16" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="26">
         <v>94.16</v>
@@ -3792,18 +3952,33 @@
         <v>96.24</v>
       </c>
       <c r="AW17" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX17" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC17" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="26">
         <v>92.32</v>
@@ -3944,18 +4119,33 @@
         <v>90.23</v>
       </c>
       <c r="AW18" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX18" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC18" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="26">
         <v>81.99</v>
@@ -4096,18 +4286,33 @@
         <v>97.01</v>
       </c>
       <c r="AW19" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX19" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC19" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="26">
         <v>81.569999999999993</v>
@@ -4248,18 +4453,33 @@
         <v>96.79</v>
       </c>
       <c r="AW20" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX20" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC20" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="26">
         <v>95.15</v>
@@ -4400,18 +4620,33 @@
         <v>92.9</v>
       </c>
       <c r="AW21" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX21" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC21" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="26">
         <v>91.28</v>
@@ -4552,18 +4787,33 @@
         <v>94.55</v>
       </c>
       <c r="AW22" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX22" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC22" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="26">
         <v>94.44</v>
@@ -4704,18 +4954,33 @@
         <v>93.38</v>
       </c>
       <c r="AW23" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX23" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC23" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="26">
         <v>96.81</v>
@@ -4856,18 +5121,33 @@
         <v>108.48</v>
       </c>
       <c r="AW24" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX24" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC24" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="26">
         <v>88.63</v>
@@ -5008,18 +5288,33 @@
         <v>95.87</v>
       </c>
       <c r="AW25" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX25" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC25" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="26">
         <v>90.78</v>
@@ -5160,18 +5455,33 @@
         <v>94</v>
       </c>
       <c r="AW26" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX26" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC26" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="26">
         <v>93.16</v>
@@ -5312,18 +5622,33 @@
         <v>98.96</v>
       </c>
       <c r="AW27" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX27" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC27" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="26">
         <v>84.74</v>
@@ -5464,18 +5789,33 @@
         <v>97.04</v>
       </c>
       <c r="AW28" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX28" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC28" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="26">
         <v>91.23</v>
@@ -5616,18 +5956,33 @@
         <v>97.21</v>
       </c>
       <c r="AW29" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX29" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC29" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="26">
         <v>92.09</v>
@@ -5768,18 +6123,33 @@
         <v>97.51</v>
       </c>
       <c r="AW30" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX30" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC30" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="26">
         <v>84.21</v>
@@ -5920,18 +6290,33 @@
         <v>96.8</v>
       </c>
       <c r="AW31" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX31" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC31" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="26">
         <v>95.2</v>
@@ -6072,18 +6457,33 @@
         <v>99.43</v>
       </c>
       <c r="AW32" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX32" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC32" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="26">
         <v>83.55</v>
@@ -6224,18 +6624,33 @@
         <v>99.85</v>
       </c>
       <c r="AW33" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX33" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC33" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="26">
         <v>96.2</v>
@@ -6376,18 +6791,33 @@
         <v>101.1</v>
       </c>
       <c r="AW34" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX34" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC34" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="26">
         <v>88.84</v>
@@ -6528,18 +6958,33 @@
         <v>92.13</v>
       </c>
       <c r="AW35" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX35" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC35" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="26">
         <v>86.5</v>
@@ -6680,18 +7125,33 @@
         <v>97.82</v>
       </c>
       <c r="AW36" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX36" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC36" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="26">
         <v>89.73</v>
@@ -6832,18 +7292,33 @@
         <v>87.72</v>
       </c>
       <c r="AW37" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX37" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC37" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="26">
         <v>84.19</v>
@@ -6984,18 +7459,33 @@
         <v>94.55</v>
       </c>
       <c r="AW38" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX38" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC38" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="26">
         <v>93.34</v>
@@ -7136,18 +7626,33 @@
         <v>95.06</v>
       </c>
       <c r="AW39" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX39" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC39" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="26">
         <v>96.21</v>
@@ -7288,18 +7793,33 @@
         <v>97.47</v>
       </c>
       <c r="AW40" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX40" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC40" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="26">
         <v>96.47</v>
@@ -7440,18 +7960,33 @@
         <v>95.15</v>
       </c>
       <c r="AW41" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX41" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC41" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="26">
         <v>94.98</v>
@@ -7592,18 +8127,33 @@
         <v>94.13</v>
       </c>
       <c r="AW42" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX42" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC42" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="26">
         <v>96.06</v>
@@ -7744,18 +8294,33 @@
         <v>95.51</v>
       </c>
       <c r="AW43" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX43" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC43" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="26">
         <v>86.82</v>
@@ -7896,18 +8461,33 @@
         <v>99.72</v>
       </c>
       <c r="AW44" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX44" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC44" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="26">
         <v>101.79</v>
@@ -8048,18 +8628,33 @@
         <v>96.03</v>
       </c>
       <c r="AW45" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX45" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC45" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="26">
         <v>97.58</v>
@@ -8200,18 +8795,33 @@
         <v>105.39</v>
       </c>
       <c r="AW46" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX46" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC46" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="26">
         <v>97.16</v>
@@ -8352,18 +8962,33 @@
         <v>99.47</v>
       </c>
       <c r="AW47" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX47" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC47" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="26">
         <v>102.96</v>
@@ -8504,18 +9129,33 @@
         <v>101.42</v>
       </c>
       <c r="AW48" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX48" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC48" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="26">
         <v>92.7</v>
@@ -8656,18 +9296,33 @@
         <v>97.82</v>
       </c>
       <c r="AW49" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX49" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC49" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="26">
         <v>95.72</v>
@@ -8808,18 +9463,33 @@
         <v>81.569999999999993</v>
       </c>
       <c r="AW50" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX50" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC50" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="26">
         <v>92.77</v>
@@ -8960,18 +9630,33 @@
         <v>86.13</v>
       </c>
       <c r="AW51" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX51" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC51" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="26">
         <v>90.53</v>
@@ -9112,18 +9797,33 @@
         <v>95.41</v>
       </c>
       <c r="AW52" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX52" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC52" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="26">
         <v>98.91</v>
@@ -9264,18 +9964,33 @@
         <v>102.74</v>
       </c>
       <c r="AW53" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX53" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY53" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ53" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA53" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB53" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC53" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="26">
         <v>96.98</v>
@@ -9416,18 +10131,33 @@
         <v>89.16</v>
       </c>
       <c r="AW54" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX54" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC54" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="26">
         <v>99.22</v>
@@ -9568,18 +10298,33 @@
         <v>82.3</v>
       </c>
       <c r="AW55" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX55" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC55" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="26">
         <v>98.33</v>
@@ -9720,18 +10465,33 @@
         <v>84.75</v>
       </c>
       <c r="AW56" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX56" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC56" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="26">
         <v>99.19</v>
@@ -9872,18 +10632,33 @@
         <v>101.09</v>
       </c>
       <c r="AW57" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX57" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC57" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="26">
         <v>96.64</v>
@@ -10024,18 +10799,33 @@
         <v>94.44</v>
       </c>
       <c r="AW58" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX58" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC58" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="26">
         <v>101.14</v>
@@ -10176,18 +10966,33 @@
         <v>104.13</v>
       </c>
       <c r="AW59" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX59" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC59" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="26">
         <v>94.1</v>
@@ -10328,18 +11133,33 @@
         <v>87.31</v>
       </c>
       <c r="AW60" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX60" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC60" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="26">
         <v>92.49</v>
@@ -10480,18 +11300,33 @@
         <v>75.400000000000006</v>
       </c>
       <c r="AW61" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX61" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC61" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="26">
         <v>98.96</v>
@@ -10632,18 +11467,33 @@
         <v>88.91</v>
       </c>
       <c r="AW62" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX62" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC62" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="26">
         <v>94.92</v>
@@ -10784,18 +11634,33 @@
         <v>83.39</v>
       </c>
       <c r="AW63" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX63" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC63" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="26">
         <v>98.94</v>
@@ -10936,18 +11801,33 @@
         <v>90.14</v>
       </c>
       <c r="AW64" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX64" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY64" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ64" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA64" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB64" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC64" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="26">
         <v>94.18</v>
@@ -11088,18 +11968,33 @@
         <v>96.1</v>
       </c>
       <c r="AW65" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX65" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY65" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ65" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA65" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB65" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC65" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="26">
         <v>96.02</v>
@@ -11240,18 +12135,33 @@
         <v>98.69</v>
       </c>
       <c r="AW66" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX66" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY66" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ66" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA66" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB66" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC66" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="26">
         <v>97.7</v>
@@ -11392,18 +12302,33 @@
         <v>105.08</v>
       </c>
       <c r="AW67" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX67" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY67" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ67" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA67" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB67" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC67" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="26">
         <v>97.44</v>
@@ -11544,18 +12469,33 @@
         <v>94.3</v>
       </c>
       <c r="AW68" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX68" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY68" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ68" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA68" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB68" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC68" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="26">
         <v>97.02</v>
@@ -11696,18 +12636,33 @@
         <v>102.73</v>
       </c>
       <c r="AW69" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX69" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY69" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ69" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA69" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB69" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC69" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="26">
         <v>92.05</v>
@@ -11848,18 +12803,33 @@
         <v>99.2</v>
       </c>
       <c r="AW70" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX70" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY70" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ70" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA70" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB70" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC70" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="26">
         <v>93</v>
@@ -12000,18 +12970,33 @@
         <v>91.5</v>
       </c>
       <c r="AW71" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX71" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY71" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ71" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA71" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB71" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC71" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="26">
         <v>91.45</v>
@@ -12152,18 +13137,33 @@
         <v>95.6</v>
       </c>
       <c r="AW72" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX72" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY72" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ72" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA72" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB72" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC72" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="26">
         <v>96.23</v>
@@ -12304,18 +13304,33 @@
         <v>94.61</v>
       </c>
       <c r="AW73" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX73" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY73" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ73" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA73" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB73" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC73" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="26">
         <v>87.05</v>
@@ -12456,18 +13471,33 @@
         <v>96.76</v>
       </c>
       <c r="AW74" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX74" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY74" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ74" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA74" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB74" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC74" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="26">
         <v>88.66</v>
@@ -12608,18 +13638,33 @@
         <v>96.53</v>
       </c>
       <c r="AW75" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX75" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY75" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ75" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA75" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB75" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC75" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="26">
         <v>95.84</v>
@@ -12760,18 +13805,33 @@
         <v>104.1</v>
       </c>
       <c r="AW76" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX76" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY76" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ76" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA76" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB76" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC76" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="26">
         <v>97.2</v>
@@ -12912,18 +13972,33 @@
         <v>102.09</v>
       </c>
       <c r="AW77" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX77" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY77" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ77" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA77" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB77" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC77" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="26">
         <v>87.29</v>
@@ -13064,18 +14139,33 @@
         <v>98.82</v>
       </c>
       <c r="AW78" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX78" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY78" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ78" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA78" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB78" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC78" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="26">
         <v>84.58</v>
@@ -13216,18 +14306,33 @@
         <v>100.15</v>
       </c>
       <c r="AW79" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX79" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY79" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ79" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA79" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB79" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC79" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="26">
         <v>63.27</v>
@@ -13368,18 +14473,33 @@
         <v>92.1</v>
       </c>
       <c r="AW80" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX80" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY80" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ80" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA80" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB80" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC80" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="26">
         <v>95.52</v>
@@ -13520,18 +14640,33 @@
         <v>103.27</v>
       </c>
       <c r="AW81" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX81" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY81" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ81" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA81" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB81" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC81" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="26">
         <v>92.24</v>
@@ -13672,18 +14807,33 @@
         <v>97.56</v>
       </c>
       <c r="AW82" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX82" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY82" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ82" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA82" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB82" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC82" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="26">
         <v>99.59</v>
@@ -13824,18 +14974,33 @@
         <v>98.89</v>
       </c>
       <c r="AW83" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX83" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY83" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ83" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA83" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB83" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC83" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="26">
         <v>92.53</v>
@@ -13976,18 +15141,33 @@
         <v>103.78</v>
       </c>
       <c r="AW84" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX84" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY84" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ84" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA84" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB84" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC84" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="26">
         <v>103.87</v>
@@ -14128,18 +15308,33 @@
         <v>98.18</v>
       </c>
       <c r="AW85" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX85" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY85" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ85" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA85" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB85" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC85" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="26">
         <v>83.81</v>
@@ -14280,18 +15475,33 @@
         <v>82.77</v>
       </c>
       <c r="AW86" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX86" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY86" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ86" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA86" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB86" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC86" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="26">
         <v>89.63</v>
@@ -14432,18 +15642,33 @@
         <v>88.56</v>
       </c>
       <c r="AW87" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX87" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY87" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ87" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA87" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB87" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC87" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="26">
         <v>99.12</v>
@@ -14584,18 +15809,33 @@
         <v>92.75</v>
       </c>
       <c r="AW88" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX88" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY88" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ88" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA88" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB88" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC88" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="26">
         <v>91</v>
@@ -14736,18 +15976,33 @@
         <v>95.48</v>
       </c>
       <c r="AW89" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX89" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY89" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ89" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA89" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB89" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC89" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="26">
         <v>91.73</v>
@@ -14888,18 +16143,33 @@
         <v>94.43</v>
       </c>
       <c r="AW90" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX90" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY90" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ90" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA90" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB90" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC90" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="26">
         <v>91.32</v>
@@ -15040,15 +16310,30 @@
         <v>107</v>
       </c>
       <c r="AW91" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AX91" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="AY91" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ91" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA91" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB91" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC91" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 2 January 2021\IPE materials\Downloads\Wednesday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 16 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D09C3F-81DB-4156-A90D-7A383D19AE32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A35FF-4672-45DF-93E7-207FCC1383EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -386,9 +386,6 @@
     <t>NA = Not available</t>
   </si>
   <si>
-    <t>Week ending Saturday 02 January 2021</t>
-  </si>
-  <si>
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
@@ -401,7 +398,13 @@
     <t>Weekly Payroll Jobs and Wages in Australia - Payroll Jobs Index by Industry Subdivision</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 20 January 2021</t>
+    <t>Released at 11.30am (Canberra time) 2 February 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 16 January 2021</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1394,12 +1397,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="28"/>
     </row>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="2" spans="1:78" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1845,7 +1848,7 @@
     </row>
     <row r="5" spans="1:78" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="5"/>
@@ -1930,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2091,8 +2094,12 @@
       <c r="BC6" s="25">
         <v>44198</v>
       </c>
-      <c r="BD6" s="25"/>
-      <c r="BE6" s="25"/>
+      <c r="BD6" s="25">
+        <v>44205</v>
+      </c>
+      <c r="BE6" s="25">
+        <v>44212</v>
+      </c>
       <c r="BF6" s="25"/>
       <c r="BG6" s="25"/>
       <c r="BH6" s="25"/>
@@ -2281,6 +2288,12 @@
       <c r="BC7" s="26">
         <v>89.22</v>
       </c>
+      <c r="BD7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE7" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2448,6 +2461,12 @@
       <c r="BC8" s="26">
         <v>99.76</v>
       </c>
+      <c r="BD8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE8" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2615,6 +2634,12 @@
       <c r="BC9" s="26">
         <v>81.64</v>
       </c>
+      <c r="BD9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE9" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2782,6 +2807,12 @@
       <c r="BC10" s="26">
         <v>78.98</v>
       </c>
+      <c r="BD10" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE10" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2949,6 +2980,12 @@
       <c r="BC11" s="26">
         <v>84.27</v>
       </c>
+      <c r="BD11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE11" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3116,6 +3153,12 @@
       <c r="BC12" s="26">
         <v>95.99</v>
       </c>
+      <c r="BD12" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE12" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3283,6 +3326,12 @@
       <c r="BC13" s="26">
         <v>85.43</v>
       </c>
+      <c r="BD13" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE13" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3450,6 +3499,12 @@
       <c r="BC14" s="26">
         <v>94.06</v>
       </c>
+      <c r="BD14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE14" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3617,6 +3672,12 @@
       <c r="BC15" s="26">
         <v>95.65</v>
       </c>
+      <c r="BD15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE15" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3784,8 +3845,14 @@
       <c r="BC16" s="26">
         <v>99.7</v>
       </c>
+      <c r="BD16" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE16" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3951,8 +4018,14 @@
       <c r="BC17" s="26">
         <v>90.49</v>
       </c>
+      <c r="BD17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE17" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4118,8 +4191,14 @@
       <c r="BC18" s="26">
         <v>90.47</v>
       </c>
+      <c r="BD18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE18" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4285,8 +4364,14 @@
       <c r="BC19" s="26">
         <v>86.99</v>
       </c>
+      <c r="BD19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE19" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4452,8 +4537,14 @@
       <c r="BC20" s="26">
         <v>80.75</v>
       </c>
+      <c r="BD20" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE20" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4619,8 +4710,14 @@
       <c r="BC21" s="26">
         <v>87.48</v>
       </c>
+      <c r="BD21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE21" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4786,8 +4883,14 @@
       <c r="BC22" s="26">
         <v>85.49</v>
       </c>
+      <c r="BD22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE22" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4953,8 +5056,14 @@
       <c r="BC23" s="26">
         <v>89.68</v>
       </c>
+      <c r="BD23" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE23" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -5120,8 +5229,14 @@
       <c r="BC24" s="26">
         <v>101.73</v>
       </c>
+      <c r="BD24" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE24" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5287,8 +5402,14 @@
       <c r="BC25" s="26">
         <v>91.2</v>
       </c>
+      <c r="BD25" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE25" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5454,8 +5575,14 @@
       <c r="BC26" s="26">
         <v>84.8</v>
       </c>
+      <c r="BD26" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE26" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -5621,8 +5748,14 @@
       <c r="BC27" s="26">
         <v>93.48</v>
       </c>
+      <c r="BD27" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE27" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5788,8 +5921,14 @@
       <c r="BC28" s="26">
         <v>81.97</v>
       </c>
+      <c r="BD28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE28" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5955,8 +6094,14 @@
       <c r="BC29" s="26">
         <v>90.09</v>
       </c>
+      <c r="BD29" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE29" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6122,8 +6267,14 @@
       <c r="BC30" s="26">
         <v>89.5</v>
       </c>
+      <c r="BD30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE30" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -6289,8 +6440,14 @@
       <c r="BC31" s="26">
         <v>81.849999999999994</v>
       </c>
+      <c r="BD31" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE31" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -6456,8 +6613,14 @@
       <c r="BC32" s="26">
         <v>103.62</v>
       </c>
+      <c r="BD32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE32" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6623,8 +6786,14 @@
       <c r="BC33" s="26">
         <v>111.03</v>
       </c>
+      <c r="BD33" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE33" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -6790,8 +6959,14 @@
       <c r="BC34" s="26">
         <v>102.72</v>
       </c>
+      <c r="BD34" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE34" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -6957,8 +7132,14 @@
       <c r="BC35" s="26">
         <v>94.87</v>
       </c>
+      <c r="BD35" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE35" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -7124,8 +7305,14 @@
       <c r="BC36" s="26">
         <v>87.02</v>
       </c>
+      <c r="BD36" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE36" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -7291,8 +7478,14 @@
       <c r="BC37" s="26">
         <v>80.400000000000006</v>
       </c>
+      <c r="BD37" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE37" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -7458,8 +7651,14 @@
       <c r="BC38" s="26">
         <v>81.02</v>
       </c>
+      <c r="BD38" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE38" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -7625,8 +7824,14 @@
       <c r="BC39" s="26">
         <v>91.58</v>
       </c>
+      <c r="BD39" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE39" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -7792,8 +7997,14 @@
       <c r="BC40" s="26">
         <v>94.67</v>
       </c>
+      <c r="BD40" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE40" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -7959,8 +8170,14 @@
       <c r="BC41" s="26">
         <v>91.17</v>
       </c>
+      <c r="BD41" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE41" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -8126,8 +8343,14 @@
       <c r="BC42" s="26">
         <v>92.44</v>
       </c>
+      <c r="BD42" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE42" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -8293,8 +8516,14 @@
       <c r="BC43" s="26">
         <v>94.33</v>
       </c>
+      <c r="BD43" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE43" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -8460,8 +8689,14 @@
       <c r="BC44" s="26">
         <v>92.99</v>
       </c>
+      <c r="BD44" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE44" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -8627,8 +8862,14 @@
       <c r="BC45" s="26">
         <v>95.28</v>
       </c>
+      <c r="BD45" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE45" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -8794,8 +9035,14 @@
       <c r="BC46" s="26">
         <v>104.66</v>
       </c>
+      <c r="BD46" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE46" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -8961,8 +9208,14 @@
       <c r="BC47" s="26">
         <v>99.19</v>
       </c>
+      <c r="BD47" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE47" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -9128,8 +9381,14 @@
       <c r="BC48" s="26">
         <v>101.78</v>
       </c>
+      <c r="BD48" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE48" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -9295,8 +9554,14 @@
       <c r="BC49" s="26">
         <v>97.58</v>
       </c>
+      <c r="BD49" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE49" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -9462,8 +9727,14 @@
       <c r="BC50" s="26">
         <v>81.96</v>
       </c>
+      <c r="BD50" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE50" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -9629,8 +9900,14 @@
       <c r="BC51" s="26">
         <v>82.66</v>
       </c>
+      <c r="BD51" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE51" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -9796,8 +10073,14 @@
       <c r="BC52" s="26">
         <v>88.82</v>
       </c>
+      <c r="BD52" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE52" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -9963,8 +10246,14 @@
       <c r="BC53" s="26">
         <v>102.76</v>
       </c>
+      <c r="BD53" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE53" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -10130,8 +10419,14 @@
       <c r="BC54" s="26">
         <v>85.68</v>
       </c>
+      <c r="BD54" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE54" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -10297,8 +10592,14 @@
       <c r="BC55" s="26">
         <v>80.989999999999995</v>
       </c>
+      <c r="BD55" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE55" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -10464,8 +10765,14 @@
       <c r="BC56" s="26">
         <v>84.9</v>
       </c>
+      <c r="BD56" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE56" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -10631,8 +10938,14 @@
       <c r="BC57" s="26">
         <v>102.45</v>
       </c>
+      <c r="BD57" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE57" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -10798,8 +11111,14 @@
       <c r="BC58" s="26">
         <v>91.36</v>
       </c>
+      <c r="BD58" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE58" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -10965,8 +11284,14 @@
       <c r="BC59" s="26">
         <v>102.09</v>
       </c>
+      <c r="BD59" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE59" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -11132,8 +11457,14 @@
       <c r="BC60" s="26">
         <v>80.510000000000005</v>
       </c>
+      <c r="BD60" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE60" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -11299,8 +11630,14 @@
       <c r="BC61" s="26">
         <v>73.77</v>
       </c>
+      <c r="BD61" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE61" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -11466,8 +11803,14 @@
       <c r="BC62" s="26">
         <v>83.26</v>
       </c>
+      <c r="BD62" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE62" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -11633,8 +11976,14 @@
       <c r="BC63" s="26">
         <v>82.48</v>
       </c>
+      <c r="BD63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE63" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -11800,8 +12149,14 @@
       <c r="BC64" s="26">
         <v>87.1</v>
       </c>
+      <c r="BD64" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE64" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -11967,8 +12322,14 @@
       <c r="BC65" s="26">
         <v>96.18</v>
       </c>
+      <c r="BD65" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE65" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -12134,8 +12495,14 @@
       <c r="BC66" s="26">
         <v>94.42</v>
       </c>
+      <c r="BD66" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE66" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -12301,8 +12668,14 @@
       <c r="BC67" s="26">
         <v>104.83</v>
       </c>
+      <c r="BD67" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE67" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -12468,8 +12841,14 @@
       <c r="BC68" s="26">
         <v>94.42</v>
       </c>
+      <c r="BD68" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE68" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -12635,8 +13014,14 @@
       <c r="BC69" s="26">
         <v>101.29</v>
       </c>
+      <c r="BD69" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE69" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -12802,8 +13187,14 @@
       <c r="BC70" s="26">
         <v>95.33</v>
       </c>
+      <c r="BD70" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE70" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -12969,8 +13360,14 @@
       <c r="BC71" s="26">
         <v>89.14</v>
       </c>
+      <c r="BD71" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE71" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -13136,8 +13533,14 @@
       <c r="BC72" s="26">
         <v>90.49</v>
       </c>
+      <c r="BD72" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE72" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -13303,8 +13706,14 @@
       <c r="BC73" s="26">
         <v>92.8</v>
       </c>
+      <c r="BD73" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE73" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -13470,8 +13879,14 @@
       <c r="BC74" s="26">
         <v>90.34</v>
       </c>
+      <c r="BD74" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE74" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -13637,8 +14052,14 @@
       <c r="BC75" s="26">
         <v>90.05</v>
       </c>
+      <c r="BD75" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE75" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -13804,8 +14225,14 @@
       <c r="BC76" s="26">
         <v>104.64</v>
       </c>
+      <c r="BD76" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE76" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -13971,8 +14398,14 @@
       <c r="BC77" s="26">
         <v>99.68</v>
       </c>
+      <c r="BD77" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE77" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -14138,8 +14571,14 @@
       <c r="BC78" s="26">
         <v>94.82</v>
       </c>
+      <c r="BD78" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE78" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -14305,8 +14744,14 @@
       <c r="BC79" s="26">
         <v>89.59</v>
       </c>
+      <c r="BD79" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE79" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -14472,8 +14917,14 @@
       <c r="BC80" s="26">
         <v>83.38</v>
       </c>
+      <c r="BD80" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE80" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -14639,8 +15090,14 @@
       <c r="BC81" s="26">
         <v>101.11</v>
       </c>
+      <c r="BD81" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE81" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -14806,8 +15263,14 @@
       <c r="BC82" s="26">
         <v>95.94</v>
       </c>
+      <c r="BD82" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE82" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -14973,8 +15436,14 @@
       <c r="BC83" s="26">
         <v>97.73</v>
       </c>
+      <c r="BD83" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE83" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -15140,8 +15609,14 @@
       <c r="BC84" s="26">
         <v>101.25</v>
       </c>
+      <c r="BD84" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE84" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -15307,8 +15782,14 @@
       <c r="BC85" s="26">
         <v>101.5</v>
       </c>
+      <c r="BD85" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE85" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -15474,8 +15955,14 @@
       <c r="BC86" s="26">
         <v>78.290000000000006</v>
       </c>
+      <c r="BD86" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE86" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -15641,8 +16128,14 @@
       <c r="BC87" s="26">
         <v>90.18</v>
       </c>
+      <c r="BD87" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE87" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -15808,8 +16301,14 @@
       <c r="BC88" s="26">
         <v>92.89</v>
       </c>
+      <c r="BD88" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE88" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15975,8 +16474,14 @@
       <c r="BC89" s="26">
         <v>87.21</v>
       </c>
+      <c r="BD89" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE89" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -16142,8 +16647,14 @@
       <c r="BC90" s="26">
         <v>90.99</v>
       </c>
+      <c r="BD90" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE90" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -16309,8 +16820,14 @@
       <c r="BC91" s="26">
         <v>97.02</v>
       </c>
+      <c r="BD91" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE91" s="24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>113</v>
       </c>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 16 January 2021\IPE materials\Downloads\Wednesday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 30 January 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15214D3-67E1-4556-A64F-9A9A3D283C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95258705-BD8F-418B-9292-2F3E25C48689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -392,16 +392,19 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 16 January 2021</t>
-  </si>
-  <si>
     <t>Subdivision</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 3 February 2021</t>
+    <t>Released at 11.30am (Canberra time) 16 February 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 30 January 2021</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1845,7 +1848,7 @@
     </row>
     <row r="5" spans="1:79" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="5"/>
@@ -1930,7 +1933,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2097,8 +2100,12 @@
       <c r="BE6" s="25">
         <v>44212</v>
       </c>
-      <c r="BF6" s="25"/>
-      <c r="BG6" s="25"/>
+      <c r="BF6" s="25">
+        <v>44219</v>
+      </c>
+      <c r="BG6" s="25">
+        <v>44226</v>
+      </c>
       <c r="BH6" s="25"/>
       <c r="BI6" s="25"/>
       <c r="BJ6" s="25"/>
@@ -2291,8 +2298,12 @@
       <c r="BE7" s="26">
         <v>92.81</v>
       </c>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
+      <c r="BF7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG7" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH7" s="26"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
@@ -2486,8 +2497,12 @@
       <c r="BE8" s="26">
         <v>98.88</v>
       </c>
-      <c r="BF8" s="26"/>
-      <c r="BG8" s="26"/>
+      <c r="BF8" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG8" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
       <c r="BJ8" s="26"/>
@@ -2681,8 +2696,12 @@
       <c r="BE9" s="26">
         <v>86.58</v>
       </c>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="26"/>
+      <c r="BF9" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG9" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH9" s="26"/>
       <c r="BI9" s="26"/>
       <c r="BJ9" s="26"/>
@@ -2876,8 +2895,12 @@
       <c r="BE10" s="26">
         <v>85.93</v>
       </c>
-      <c r="BF10" s="26"/>
-      <c r="BG10" s="26"/>
+      <c r="BF10" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG10" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH10" s="26"/>
       <c r="BI10" s="26"/>
       <c r="BJ10" s="26"/>
@@ -3071,8 +3094,12 @@
       <c r="BE11" s="26">
         <v>91.22</v>
       </c>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="26"/>
+      <c r="BF11" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG11" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH11" s="26"/>
       <c r="BI11" s="26"/>
       <c r="BJ11" s="26"/>
@@ -3266,8 +3293,12 @@
       <c r="BE12" s="26">
         <v>95.29</v>
       </c>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
+      <c r="BF12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG12" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH12" s="26"/>
       <c r="BI12" s="26"/>
       <c r="BJ12" s="26"/>
@@ -3461,8 +3492,12 @@
       <c r="BE13" s="26">
         <v>90.07</v>
       </c>
-      <c r="BF13" s="26"/>
-      <c r="BG13" s="26"/>
+      <c r="BF13" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG13" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH13" s="26"/>
       <c r="BI13" s="26"/>
       <c r="BJ13" s="26"/>
@@ -3656,8 +3691,12 @@
       <c r="BE14" s="26">
         <v>95.68</v>
       </c>
-      <c r="BF14" s="26"/>
-      <c r="BG14" s="26"/>
+      <c r="BF14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG14" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH14" s="26"/>
       <c r="BI14" s="26"/>
       <c r="BJ14" s="26"/>
@@ -3851,8 +3890,12 @@
       <c r="BE15" s="26">
         <v>99.48</v>
       </c>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
+      <c r="BF15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG15" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH15" s="26"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
@@ -4046,8 +4089,12 @@
       <c r="BE16" s="26">
         <v>102.43</v>
       </c>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="26"/>
+      <c r="BF16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG16" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
       <c r="BJ16" s="26"/>
@@ -4241,8 +4288,12 @@
       <c r="BE17" s="26">
         <v>93.16</v>
       </c>
-      <c r="BF17" s="26"/>
-      <c r="BG17" s="26"/>
+      <c r="BF17" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG17" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH17" s="26"/>
       <c r="BI17" s="26"/>
       <c r="BJ17" s="26"/>
@@ -4436,8 +4487,12 @@
       <c r="BE18" s="26">
         <v>94.64</v>
       </c>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
+      <c r="BF18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG18" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH18" s="26"/>
       <c r="BI18" s="26"/>
       <c r="BJ18" s="26"/>
@@ -4631,8 +4686,12 @@
       <c r="BE19" s="26">
         <v>95.49</v>
       </c>
-      <c r="BF19" s="26"/>
-      <c r="BG19" s="26"/>
+      <c r="BF19" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG19" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH19" s="26"/>
       <c r="BI19" s="26"/>
       <c r="BJ19" s="26"/>
@@ -4826,8 +4885,12 @@
       <c r="BE20" s="26">
         <v>91.74</v>
       </c>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
+      <c r="BF20" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG20" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH20" s="26"/>
       <c r="BI20" s="26"/>
       <c r="BJ20" s="26"/>
@@ -5021,8 +5084,12 @@
       <c r="BE21" s="26">
         <v>90.19</v>
       </c>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
+      <c r="BF21" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG21" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH21" s="26"/>
       <c r="BI21" s="26"/>
       <c r="BJ21" s="26"/>
@@ -5216,8 +5283,12 @@
       <c r="BE22" s="26">
         <v>91.71</v>
       </c>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
+      <c r="BF22" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG22" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH22" s="26"/>
       <c r="BI22" s="26"/>
       <c r="BJ22" s="26"/>
@@ -5411,8 +5482,12 @@
       <c r="BE23" s="26">
         <v>90.21</v>
       </c>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
+      <c r="BF23" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG23" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH23" s="26"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
@@ -5606,8 +5681,12 @@
       <c r="BE24" s="26">
         <v>101.98</v>
       </c>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
+      <c r="BF24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG24" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH24" s="26"/>
       <c r="BI24" s="26"/>
       <c r="BJ24" s="26"/>
@@ -5801,8 +5880,12 @@
       <c r="BE25" s="26">
         <v>98.53</v>
       </c>
-      <c r="BF25" s="26"/>
-      <c r="BG25" s="26"/>
+      <c r="BF25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG25" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH25" s="26"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
@@ -5996,8 +6079,12 @@
       <c r="BE26" s="26">
         <v>90.93</v>
       </c>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="26"/>
+      <c r="BF26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG26" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH26" s="26"/>
       <c r="BI26" s="26"/>
       <c r="BJ26" s="26"/>
@@ -6191,8 +6278,12 @@
       <c r="BE27" s="26">
         <v>97.68</v>
       </c>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
+      <c r="BF27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG27" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH27" s="26"/>
       <c r="BI27" s="26"/>
       <c r="BJ27" s="26"/>
@@ -6386,8 +6477,12 @@
       <c r="BE28" s="26">
         <v>92.59</v>
       </c>
-      <c r="BF28" s="26"/>
-      <c r="BG28" s="26"/>
+      <c r="BF28" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG28" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH28" s="26"/>
       <c r="BI28" s="26"/>
       <c r="BJ28" s="26"/>
@@ -6581,8 +6676,12 @@
       <c r="BE29" s="26">
         <v>96.04</v>
       </c>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
+      <c r="BF29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG29" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH29" s="26"/>
       <c r="BI29" s="26"/>
       <c r="BJ29" s="26"/>
@@ -6776,8 +6875,12 @@
       <c r="BE30" s="26">
         <v>95.2</v>
       </c>
-      <c r="BF30" s="26"/>
-      <c r="BG30" s="26"/>
+      <c r="BF30" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG30" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH30" s="26"/>
       <c r="BI30" s="26"/>
       <c r="BJ30" s="26"/>
@@ -6971,8 +7074,12 @@
       <c r="BE31" s="26">
         <v>92.42</v>
       </c>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
+      <c r="BF31" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG31" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH31" s="26"/>
       <c r="BI31" s="26"/>
       <c r="BJ31" s="26"/>
@@ -7166,8 +7273,12 @@
       <c r="BE32" s="26">
         <v>102.75</v>
       </c>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
+      <c r="BF32" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG32" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH32" s="26"/>
       <c r="BI32" s="26"/>
       <c r="BJ32" s="26"/>
@@ -7361,8 +7472,12 @@
       <c r="BE33" s="26">
         <v>111.22</v>
       </c>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
+      <c r="BF33" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG33" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH33" s="26"/>
       <c r="BI33" s="26"/>
       <c r="BJ33" s="26"/>
@@ -7556,8 +7671,12 @@
       <c r="BE34" s="26">
         <v>103.33</v>
       </c>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
+      <c r="BF34" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG34" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH34" s="26"/>
       <c r="BI34" s="26"/>
       <c r="BJ34" s="26"/>
@@ -7751,8 +7870,12 @@
       <c r="BE35" s="26">
         <v>97.78</v>
       </c>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="26"/>
+      <c r="BF35" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG35" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH35" s="26"/>
       <c r="BI35" s="26"/>
       <c r="BJ35" s="26"/>
@@ -7946,8 +8069,12 @@
       <c r="BE36" s="26">
         <v>93.86</v>
       </c>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
+      <c r="BF36" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG36" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH36" s="26"/>
       <c r="BI36" s="26"/>
       <c r="BJ36" s="26"/>
@@ -8141,8 +8268,12 @@
       <c r="BE37" s="26">
         <v>85.12</v>
       </c>
-      <c r="BF37" s="26"/>
-      <c r="BG37" s="26"/>
+      <c r="BF37" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG37" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH37" s="26"/>
       <c r="BI37" s="26"/>
       <c r="BJ37" s="26"/>
@@ -8336,8 +8467,12 @@
       <c r="BE38" s="26">
         <v>90.12</v>
       </c>
-      <c r="BF38" s="26"/>
-      <c r="BG38" s="26"/>
+      <c r="BF38" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG38" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH38" s="26"/>
       <c r="BI38" s="26"/>
       <c r="BJ38" s="26"/>
@@ -8531,8 +8666,12 @@
       <c r="BE39" s="26">
         <v>95.55</v>
       </c>
-      <c r="BF39" s="26"/>
-      <c r="BG39" s="26"/>
+      <c r="BF39" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG39" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH39" s="26"/>
       <c r="BI39" s="26"/>
       <c r="BJ39" s="26"/>
@@ -8726,8 +8865,12 @@
       <c r="BE40" s="26">
         <v>97.38</v>
       </c>
-      <c r="BF40" s="26"/>
-      <c r="BG40" s="26"/>
+      <c r="BF40" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG40" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH40" s="26"/>
       <c r="BI40" s="26"/>
       <c r="BJ40" s="26"/>
@@ -8921,8 +9064,12 @@
       <c r="BE41" s="26">
         <v>93.47</v>
       </c>
-      <c r="BF41" s="26"/>
-      <c r="BG41" s="26"/>
+      <c r="BF41" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG41" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH41" s="26"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
@@ -9116,8 +9263,12 @@
       <c r="BE42" s="26">
         <v>93.52</v>
       </c>
-      <c r="BF42" s="26"/>
-      <c r="BG42" s="26"/>
+      <c r="BF42" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG42" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH42" s="26"/>
       <c r="BI42" s="26"/>
       <c r="BJ42" s="26"/>
@@ -9311,8 +9462,12 @@
       <c r="BE43" s="26">
         <v>96.49</v>
       </c>
-      <c r="BF43" s="26"/>
-      <c r="BG43" s="26"/>
+      <c r="BF43" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG43" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH43" s="26"/>
       <c r="BI43" s="26"/>
       <c r="BJ43" s="26"/>
@@ -9506,8 +9661,12 @@
       <c r="BE44" s="26">
         <v>96.59</v>
       </c>
-      <c r="BF44" s="26"/>
-      <c r="BG44" s="26"/>
+      <c r="BF44" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG44" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH44" s="26"/>
       <c r="BI44" s="26"/>
       <c r="BJ44" s="26"/>
@@ -9701,8 +9860,12 @@
       <c r="BE45" s="26">
         <v>96.65</v>
       </c>
-      <c r="BF45" s="26"/>
-      <c r="BG45" s="26"/>
+      <c r="BF45" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG45" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH45" s="26"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
@@ -9896,8 +10059,12 @@
       <c r="BE46" s="26">
         <v>105.26</v>
       </c>
-      <c r="BF46" s="26"/>
-      <c r="BG46" s="26"/>
+      <c r="BF46" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG46" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH46" s="26"/>
       <c r="BI46" s="26"/>
       <c r="BJ46" s="26"/>
@@ -10091,8 +10258,12 @@
       <c r="BE47" s="26">
         <v>98.81</v>
       </c>
-      <c r="BF47" s="26"/>
-      <c r="BG47" s="26"/>
+      <c r="BF47" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG47" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH47" s="26"/>
       <c r="BI47" s="26"/>
       <c r="BJ47" s="26"/>
@@ -10286,8 +10457,12 @@
       <c r="BE48" s="26">
         <v>101.39</v>
       </c>
-      <c r="BF48" s="26"/>
-      <c r="BG48" s="26"/>
+      <c r="BF48" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG48" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH48" s="26"/>
       <c r="BI48" s="26"/>
       <c r="BJ48" s="26"/>
@@ -10481,8 +10656,12 @@
       <c r="BE49" s="26">
         <v>99.54</v>
       </c>
-      <c r="BF49" s="26"/>
-      <c r="BG49" s="26"/>
+      <c r="BF49" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG49" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH49" s="26"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
@@ -10676,8 +10855,12 @@
       <c r="BE50" s="26">
         <v>83.3</v>
       </c>
-      <c r="BF50" s="26"/>
-      <c r="BG50" s="26"/>
+      <c r="BF50" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG50" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH50" s="26"/>
       <c r="BI50" s="26"/>
       <c r="BJ50" s="26"/>
@@ -10871,8 +11054,12 @@
       <c r="BE51" s="26">
         <v>85.58</v>
       </c>
-      <c r="BF51" s="26"/>
-      <c r="BG51" s="26"/>
+      <c r="BF51" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG51" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH51" s="26"/>
       <c r="BI51" s="26"/>
       <c r="BJ51" s="26"/>
@@ -11066,8 +11253,12 @@
       <c r="BE52" s="26">
         <v>90.28</v>
       </c>
-      <c r="BF52" s="26"/>
-      <c r="BG52" s="26"/>
+      <c r="BF52" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG52" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH52" s="26"/>
       <c r="BI52" s="26"/>
       <c r="BJ52" s="26"/>
@@ -11261,8 +11452,12 @@
       <c r="BE53" s="26">
         <v>103.35</v>
       </c>
-      <c r="BF53" s="26"/>
-      <c r="BG53" s="26"/>
+      <c r="BF53" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG53" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH53" s="26"/>
       <c r="BI53" s="26"/>
       <c r="BJ53" s="26"/>
@@ -11456,8 +11651,12 @@
       <c r="BE54" s="26">
         <v>91.62</v>
       </c>
-      <c r="BF54" s="26"/>
-      <c r="BG54" s="26"/>
+      <c r="BF54" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG54" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH54" s="26"/>
       <c r="BI54" s="26"/>
       <c r="BJ54" s="26"/>
@@ -11651,8 +11850,12 @@
       <c r="BE55" s="26">
         <v>81.349999999999994</v>
       </c>
-      <c r="BF55" s="26"/>
-      <c r="BG55" s="26"/>
+      <c r="BF55" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG55" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH55" s="26"/>
       <c r="BI55" s="26"/>
       <c r="BJ55" s="26"/>
@@ -11846,8 +12049,12 @@
       <c r="BE56" s="26">
         <v>82.75</v>
       </c>
-      <c r="BF56" s="26"/>
-      <c r="BG56" s="26"/>
+      <c r="BF56" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG56" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH56" s="26"/>
       <c r="BI56" s="26"/>
       <c r="BJ56" s="26"/>
@@ -12041,8 +12248,12 @@
       <c r="BE57" s="26">
         <v>103.2</v>
       </c>
-      <c r="BF57" s="26"/>
-      <c r="BG57" s="26"/>
+      <c r="BF57" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG57" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH57" s="26"/>
       <c r="BI57" s="26"/>
       <c r="BJ57" s="26"/>
@@ -12236,8 +12447,12 @@
       <c r="BE58" s="26">
         <v>92.17</v>
       </c>
-      <c r="BF58" s="26"/>
-      <c r="BG58" s="26"/>
+      <c r="BF58" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG58" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH58" s="26"/>
       <c r="BI58" s="26"/>
       <c r="BJ58" s="26"/>
@@ -12431,8 +12646,12 @@
       <c r="BE59" s="26">
         <v>101.02</v>
       </c>
-      <c r="BF59" s="26"/>
-      <c r="BG59" s="26"/>
+      <c r="BF59" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG59" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH59" s="26"/>
       <c r="BI59" s="26"/>
       <c r="BJ59" s="26"/>
@@ -12626,8 +12845,12 @@
       <c r="BE60" s="26">
         <v>83.48</v>
       </c>
-      <c r="BF60" s="26"/>
-      <c r="BG60" s="26"/>
+      <c r="BF60" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG60" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH60" s="26"/>
       <c r="BI60" s="26"/>
       <c r="BJ60" s="26"/>
@@ -12821,8 +13044,12 @@
       <c r="BE61" s="26">
         <v>79.89</v>
       </c>
-      <c r="BF61" s="26"/>
-      <c r="BG61" s="26"/>
+      <c r="BF61" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG61" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH61" s="26"/>
       <c r="BI61" s="26"/>
       <c r="BJ61" s="26"/>
@@ -13016,8 +13243,12 @@
       <c r="BE62" s="26">
         <v>85.17</v>
       </c>
-      <c r="BF62" s="26"/>
-      <c r="BG62" s="26"/>
+      <c r="BF62" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG62" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH62" s="26"/>
       <c r="BI62" s="26"/>
       <c r="BJ62" s="26"/>
@@ -13211,8 +13442,12 @@
       <c r="BE63" s="26">
         <v>88.28</v>
       </c>
-      <c r="BF63" s="26"/>
-      <c r="BG63" s="26"/>
+      <c r="BF63" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG63" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH63" s="26"/>
       <c r="BI63" s="26"/>
       <c r="BJ63" s="26"/>
@@ -13406,8 +13641,12 @@
       <c r="BE64" s="26">
         <v>88.72</v>
       </c>
-      <c r="BF64" s="26"/>
-      <c r="BG64" s="26"/>
+      <c r="BF64" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG64" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH64" s="26"/>
       <c r="BI64" s="26"/>
       <c r="BJ64" s="26"/>
@@ -13601,8 +13840,12 @@
       <c r="BE65" s="26">
         <v>97.73</v>
       </c>
-      <c r="BF65" s="26"/>
-      <c r="BG65" s="26"/>
+      <c r="BF65" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG65" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH65" s="26"/>
       <c r="BI65" s="26"/>
       <c r="BJ65" s="26"/>
@@ -13796,8 +14039,12 @@
       <c r="BE66" s="26">
         <v>98.49</v>
       </c>
-      <c r="BF66" s="26"/>
-      <c r="BG66" s="26"/>
+      <c r="BF66" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG66" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH66" s="26"/>
       <c r="BI66" s="26"/>
       <c r="BJ66" s="26"/>
@@ -13991,8 +14238,12 @@
       <c r="BE67" s="26">
         <v>106.87</v>
       </c>
-      <c r="BF67" s="26"/>
-      <c r="BG67" s="26"/>
+      <c r="BF67" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG67" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH67" s="26"/>
       <c r="BI67" s="26"/>
       <c r="BJ67" s="26"/>
@@ -14186,8 +14437,12 @@
       <c r="BE68" s="26">
         <v>96.51</v>
       </c>
-      <c r="BF68" s="26"/>
-      <c r="BG68" s="26"/>
+      <c r="BF68" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG68" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH68" s="26"/>
       <c r="BI68" s="26"/>
       <c r="BJ68" s="26"/>
@@ -14381,8 +14636,12 @@
       <c r="BE69" s="26">
         <v>103.72</v>
       </c>
-      <c r="BF69" s="26"/>
-      <c r="BG69" s="26"/>
+      <c r="BF69" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG69" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH69" s="26"/>
       <c r="BI69" s="26"/>
       <c r="BJ69" s="26"/>
@@ -14576,8 +14835,12 @@
       <c r="BE70" s="26">
         <v>98.84</v>
       </c>
-      <c r="BF70" s="26"/>
-      <c r="BG70" s="26"/>
+      <c r="BF70" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG70" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH70" s="26"/>
       <c r="BI70" s="26"/>
       <c r="BJ70" s="26"/>
@@ -14771,8 +15034,12 @@
       <c r="BE71" s="26">
         <v>91.71</v>
       </c>
-      <c r="BF71" s="26"/>
-      <c r="BG71" s="26"/>
+      <c r="BF71" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG71" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH71" s="26"/>
       <c r="BI71" s="26"/>
       <c r="BJ71" s="26"/>
@@ -14966,8 +15233,12 @@
       <c r="BE72" s="26">
         <v>94.01</v>
       </c>
-      <c r="BF72" s="26"/>
-      <c r="BG72" s="26"/>
+      <c r="BF72" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG72" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH72" s="26"/>
       <c r="BI72" s="26"/>
       <c r="BJ72" s="26"/>
@@ -15161,8 +15432,12 @@
       <c r="BE73" s="26">
         <v>93.87</v>
       </c>
-      <c r="BF73" s="26"/>
-      <c r="BG73" s="26"/>
+      <c r="BF73" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG73" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH73" s="26"/>
       <c r="BI73" s="26"/>
       <c r="BJ73" s="26"/>
@@ -15356,8 +15631,12 @@
       <c r="BE74" s="26">
         <v>94.75</v>
       </c>
-      <c r="BF74" s="26"/>
-      <c r="BG74" s="26"/>
+      <c r="BF74" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG74" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH74" s="26"/>
       <c r="BI74" s="26"/>
       <c r="BJ74" s="26"/>
@@ -15551,8 +15830,12 @@
       <c r="BE75" s="26">
         <v>85.04</v>
       </c>
-      <c r="BF75" s="26"/>
-      <c r="BG75" s="26"/>
+      <c r="BF75" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG75" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH75" s="26"/>
       <c r="BI75" s="26"/>
       <c r="BJ75" s="26"/>
@@ -15746,8 +16029,12 @@
       <c r="BE76" s="26">
         <v>103.63</v>
       </c>
-      <c r="BF76" s="26"/>
-      <c r="BG76" s="26"/>
+      <c r="BF76" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG76" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH76" s="26"/>
       <c r="BI76" s="26"/>
       <c r="BJ76" s="26"/>
@@ -15941,8 +16228,12 @@
       <c r="BE77" s="26">
         <v>100.15</v>
       </c>
-      <c r="BF77" s="26"/>
-      <c r="BG77" s="26"/>
+      <c r="BF77" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG77" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH77" s="26"/>
       <c r="BI77" s="26"/>
       <c r="BJ77" s="26"/>
@@ -16136,8 +16427,12 @@
       <c r="BE78" s="26">
         <v>87.78</v>
       </c>
-      <c r="BF78" s="26"/>
-      <c r="BG78" s="26"/>
+      <c r="BF78" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG78" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH78" s="26"/>
       <c r="BI78" s="26"/>
       <c r="BJ78" s="26"/>
@@ -16331,8 +16626,12 @@
       <c r="BE79" s="26">
         <v>85.69</v>
       </c>
-      <c r="BF79" s="26"/>
-      <c r="BG79" s="26"/>
+      <c r="BF79" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG79" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH79" s="26"/>
       <c r="BI79" s="26"/>
       <c r="BJ79" s="26"/>
@@ -16526,8 +16825,12 @@
       <c r="BE80" s="26">
         <v>77.84</v>
       </c>
-      <c r="BF80" s="26"/>
-      <c r="BG80" s="26"/>
+      <c r="BF80" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG80" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH80" s="26"/>
       <c r="BI80" s="26"/>
       <c r="BJ80" s="26"/>
@@ -16721,8 +17024,12 @@
       <c r="BE81" s="26">
         <v>101.25</v>
       </c>
-      <c r="BF81" s="26"/>
-      <c r="BG81" s="26"/>
+      <c r="BF81" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG81" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH81" s="26"/>
       <c r="BI81" s="26"/>
       <c r="BJ81" s="26"/>
@@ -16916,8 +17223,12 @@
       <c r="BE82" s="26">
         <v>98.19</v>
       </c>
-      <c r="BF82" s="26"/>
-      <c r="BG82" s="26"/>
+      <c r="BF82" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG82" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH82" s="26"/>
       <c r="BI82" s="26"/>
       <c r="BJ82" s="26"/>
@@ -17111,8 +17422,12 @@
       <c r="BE83" s="26">
         <v>97.1</v>
       </c>
-      <c r="BF83" s="26"/>
-      <c r="BG83" s="26"/>
+      <c r="BF83" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG83" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH83" s="26"/>
       <c r="BI83" s="26"/>
       <c r="BJ83" s="26"/>
@@ -17306,8 +17621,12 @@
       <c r="BE84" s="26">
         <v>100.22</v>
       </c>
-      <c r="BF84" s="26"/>
-      <c r="BG84" s="26"/>
+      <c r="BF84" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG84" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH84" s="26"/>
       <c r="BI84" s="26"/>
       <c r="BJ84" s="26"/>
@@ -17501,8 +17820,12 @@
       <c r="BE85" s="26">
         <v>102.05</v>
       </c>
-      <c r="BF85" s="26"/>
-      <c r="BG85" s="26"/>
+      <c r="BF85" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG85" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH85" s="26"/>
       <c r="BI85" s="26"/>
       <c r="BJ85" s="26"/>
@@ -17696,8 +18019,12 @@
       <c r="BE86" s="26">
         <v>81.739999999999995</v>
       </c>
-      <c r="BF86" s="26"/>
-      <c r="BG86" s="26"/>
+      <c r="BF86" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG86" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH86" s="26"/>
       <c r="BI86" s="26"/>
       <c r="BJ86" s="26"/>
@@ -17891,8 +18218,12 @@
       <c r="BE87" s="26">
         <v>91.94</v>
       </c>
-      <c r="BF87" s="26"/>
-      <c r="BG87" s="26"/>
+      <c r="BF87" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG87" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH87" s="26"/>
       <c r="BI87" s="26"/>
       <c r="BJ87" s="26"/>
@@ -18086,8 +18417,12 @@
       <c r="BE88" s="26">
         <v>92.72</v>
       </c>
-      <c r="BF88" s="26"/>
-      <c r="BG88" s="26"/>
+      <c r="BF88" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG88" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH88" s="26"/>
       <c r="BI88" s="26"/>
       <c r="BJ88" s="26"/>
@@ -18281,8 +18616,12 @@
       <c r="BE89" s="26">
         <v>94.46</v>
       </c>
-      <c r="BF89" s="26"/>
-      <c r="BG89" s="26"/>
+      <c r="BF89" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG89" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH89" s="26"/>
       <c r="BI89" s="26"/>
       <c r="BJ89" s="26"/>
@@ -18476,8 +18815,12 @@
       <c r="BE90" s="26">
         <v>92.34</v>
       </c>
-      <c r="BF90" s="26"/>
-      <c r="BG90" s="26"/>
+      <c r="BF90" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG90" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH90" s="26"/>
       <c r="BI90" s="26"/>
       <c r="BJ90" s="26"/>
@@ -18671,8 +19014,12 @@
       <c r="BE91" s="26">
         <v>96.38</v>
       </c>
-      <c r="BF91" s="26"/>
-      <c r="BG91" s="26"/>
+      <c r="BF91" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG91" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="BH91" s="26"/>
       <c r="BI91" s="26"/>
       <c r="BJ91" s="26"/>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 30 January 2021\IPE materials\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 13 February 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95258705-BD8F-418B-9292-2F3E25C48689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7FE4E-8296-4CC4-A8EC-3763DA7EAF55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 16 February 2021</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>Week ending Saturday 30 January 2021</t>
+    <t>Released at 11.30am (Canberra time) 3 March 2021</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Week ending Saturday 13 February 2021</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -629,6 +629,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1462,24 +1465,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1684,7 +1687,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1847,10 +1850,10 @@
       <c r="BZ4" s="5"/>
     </row>
     <row r="5" spans="1:79" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2106,8 +2109,12 @@
       <c r="BG6" s="25">
         <v>44226</v>
       </c>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="25"/>
+      <c r="BH6" s="25">
+        <v>44233</v>
+      </c>
+      <c r="BI6" s="25">
+        <v>44240</v>
+      </c>
       <c r="BJ6" s="25"/>
       <c r="BK6" s="25"/>
       <c r="BL6" s="25"/>
@@ -2298,14 +2305,18 @@
       <c r="BE7" s="26">
         <v>92.81</v>
       </c>
-      <c r="BF7" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG7" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
+      <c r="BF7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI7" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="26"/>
       <c r="BL7" s="26"/>
@@ -2497,14 +2508,18 @@
       <c r="BE8" s="26">
         <v>98.88</v>
       </c>
-      <c r="BF8" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG8" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="26"/>
+      <c r="BF8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI8" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ8" s="26"/>
       <c r="BK8" s="26"/>
       <c r="BL8" s="26"/>
@@ -2696,14 +2711,18 @@
       <c r="BE9" s="26">
         <v>86.58</v>
       </c>
-      <c r="BF9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="26"/>
+      <c r="BF9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI9" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ9" s="26"/>
       <c r="BK9" s="26"/>
       <c r="BL9" s="26"/>
@@ -2895,14 +2914,18 @@
       <c r="BE10" s="26">
         <v>85.93</v>
       </c>
-      <c r="BF10" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG10" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="26"/>
+      <c r="BF10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI10" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ10" s="26"/>
       <c r="BK10" s="26"/>
       <c r="BL10" s="26"/>
@@ -3094,14 +3117,18 @@
       <c r="BE11" s="26">
         <v>91.22</v>
       </c>
-      <c r="BF11" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG11" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
+      <c r="BF11" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG11" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH11" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI11" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ11" s="26"/>
       <c r="BK11" s="26"/>
       <c r="BL11" s="26"/>
@@ -3293,14 +3320,18 @@
       <c r="BE12" s="26">
         <v>95.29</v>
       </c>
-      <c r="BF12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG12" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
+      <c r="BF12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI12" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ12" s="26"/>
       <c r="BK12" s="26"/>
       <c r="BL12" s="26"/>
@@ -3492,14 +3523,18 @@
       <c r="BE13" s="26">
         <v>90.07</v>
       </c>
-      <c r="BF13" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG13" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="26"/>
+      <c r="BF13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI13" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ13" s="26"/>
       <c r="BK13" s="26"/>
       <c r="BL13" s="26"/>
@@ -3691,14 +3726,18 @@
       <c r="BE14" s="26">
         <v>95.68</v>
       </c>
-      <c r="BF14" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG14" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
+      <c r="BF14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI14" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ14" s="26"/>
       <c r="BK14" s="26"/>
       <c r="BL14" s="26"/>
@@ -3890,14 +3929,18 @@
       <c r="BE15" s="26">
         <v>99.48</v>
       </c>
-      <c r="BF15" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG15" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
+      <c r="BF15" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG15" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH15" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI15" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="26"/>
       <c r="BL15" s="26"/>
@@ -4089,14 +4132,18 @@
       <c r="BE16" s="26">
         <v>102.43</v>
       </c>
-      <c r="BF16" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG16" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
+      <c r="BF16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI16" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ16" s="26"/>
       <c r="BK16" s="26"/>
       <c r="BL16" s="26"/>
@@ -4288,14 +4335,18 @@
       <c r="BE17" s="26">
         <v>93.16</v>
       </c>
-      <c r="BF17" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG17" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26"/>
+      <c r="BF17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI17" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ17" s="26"/>
       <c r="BK17" s="26"/>
       <c r="BL17" s="26"/>
@@ -4487,14 +4538,18 @@
       <c r="BE18" s="26">
         <v>94.64</v>
       </c>
-      <c r="BF18" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG18" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
+      <c r="BF18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI18" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
       <c r="BL18" s="26"/>
@@ -4686,14 +4741,18 @@
       <c r="BE19" s="26">
         <v>95.49</v>
       </c>
-      <c r="BF19" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG19" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
+      <c r="BF19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI19" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
       <c r="BL19" s="26"/>
@@ -4885,14 +4944,18 @@
       <c r="BE20" s="26">
         <v>91.74</v>
       </c>
-      <c r="BF20" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG20" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
+      <c r="BF20" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG20" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH20" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI20" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ20" s="26"/>
       <c r="BK20" s="26"/>
       <c r="BL20" s="26"/>
@@ -5084,14 +5147,18 @@
       <c r="BE21" s="26">
         <v>90.19</v>
       </c>
-      <c r="BF21" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG21" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
+      <c r="BF21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI21" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ21" s="26"/>
       <c r="BK21" s="26"/>
       <c r="BL21" s="26"/>
@@ -5283,14 +5350,18 @@
       <c r="BE22" s="26">
         <v>91.71</v>
       </c>
-      <c r="BF22" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG22" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
+      <c r="BF22" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG22" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH22" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI22" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ22" s="26"/>
       <c r="BK22" s="26"/>
       <c r="BL22" s="26"/>
@@ -5482,14 +5553,18 @@
       <c r="BE23" s="26">
         <v>90.21</v>
       </c>
-      <c r="BF23" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG23" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="26"/>
+      <c r="BF23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI23" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="26"/>
       <c r="BL23" s="26"/>
@@ -5681,14 +5756,18 @@
       <c r="BE24" s="26">
         <v>101.98</v>
       </c>
-      <c r="BF24" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG24" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
+      <c r="BF24" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG24" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH24" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI24" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ24" s="26"/>
       <c r="BK24" s="26"/>
       <c r="BL24" s="26"/>
@@ -5880,14 +5959,18 @@
       <c r="BE25" s="26">
         <v>98.53</v>
       </c>
-      <c r="BF25" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG25" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="26"/>
+      <c r="BF25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI25" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="26"/>
       <c r="BL25" s="26"/>
@@ -6079,14 +6162,18 @@
       <c r="BE26" s="26">
         <v>90.93</v>
       </c>
-      <c r="BF26" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG26" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="26"/>
+      <c r="BF26" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG26" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH26" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI26" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ26" s="26"/>
       <c r="BK26" s="26"/>
       <c r="BL26" s="26"/>
@@ -6278,14 +6365,18 @@
       <c r="BE27" s="26">
         <v>97.68</v>
       </c>
-      <c r="BF27" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG27" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
+      <c r="BF27" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG27" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH27" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI27" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ27" s="26"/>
       <c r="BK27" s="26"/>
       <c r="BL27" s="26"/>
@@ -6477,14 +6568,18 @@
       <c r="BE28" s="26">
         <v>92.59</v>
       </c>
-      <c r="BF28" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG28" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
+      <c r="BF28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI28" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ28" s="26"/>
       <c r="BK28" s="26"/>
       <c r="BL28" s="26"/>
@@ -6676,14 +6771,18 @@
       <c r="BE29" s="26">
         <v>96.04</v>
       </c>
-      <c r="BF29" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG29" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
+      <c r="BF29" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG29" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH29" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI29" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ29" s="26"/>
       <c r="BK29" s="26"/>
       <c r="BL29" s="26"/>
@@ -6875,14 +6974,18 @@
       <c r="BE30" s="26">
         <v>95.2</v>
       </c>
-      <c r="BF30" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG30" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
+      <c r="BF30" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG30" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH30" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI30" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ30" s="26"/>
       <c r="BK30" s="26"/>
       <c r="BL30" s="26"/>
@@ -7074,14 +7177,18 @@
       <c r="BE31" s="26">
         <v>92.42</v>
       </c>
-      <c r="BF31" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG31" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
+      <c r="BF31" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG31" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH31" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI31" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ31" s="26"/>
       <c r="BK31" s="26"/>
       <c r="BL31" s="26"/>
@@ -7273,14 +7380,18 @@
       <c r="BE32" s="26">
         <v>102.75</v>
       </c>
-      <c r="BF32" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG32" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
+      <c r="BF32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI32" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ32" s="26"/>
       <c r="BK32" s="26"/>
       <c r="BL32" s="26"/>
@@ -7472,14 +7583,18 @@
       <c r="BE33" s="26">
         <v>111.22</v>
       </c>
-      <c r="BF33" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG33" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
+      <c r="BF33" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG33" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH33" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI33" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ33" s="26"/>
       <c r="BK33" s="26"/>
       <c r="BL33" s="26"/>
@@ -7671,14 +7786,18 @@
       <c r="BE34" s="26">
         <v>103.33</v>
       </c>
-      <c r="BF34" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG34" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
+      <c r="BF34" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG34" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH34" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI34" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ34" s="26"/>
       <c r="BK34" s="26"/>
       <c r="BL34" s="26"/>
@@ -7870,14 +7989,18 @@
       <c r="BE35" s="26">
         <v>97.78</v>
       </c>
-      <c r="BF35" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG35" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
+      <c r="BF35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI35" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ35" s="26"/>
       <c r="BK35" s="26"/>
       <c r="BL35" s="26"/>
@@ -8069,14 +8192,18 @@
       <c r="BE36" s="26">
         <v>93.86</v>
       </c>
-      <c r="BF36" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG36" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
+      <c r="BF36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI36" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ36" s="26"/>
       <c r="BK36" s="26"/>
       <c r="BL36" s="26"/>
@@ -8268,14 +8395,18 @@
       <c r="BE37" s="26">
         <v>85.12</v>
       </c>
-      <c r="BF37" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG37" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="26"/>
+      <c r="BF37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI37" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ37" s="26"/>
       <c r="BK37" s="26"/>
       <c r="BL37" s="26"/>
@@ -8467,14 +8598,18 @@
       <c r="BE38" s="26">
         <v>90.12</v>
       </c>
-      <c r="BF38" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG38" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH38" s="26"/>
-      <c r="BI38" s="26"/>
+      <c r="BF38" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG38" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH38" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI38" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ38" s="26"/>
       <c r="BK38" s="26"/>
       <c r="BL38" s="26"/>
@@ -8666,14 +8801,18 @@
       <c r="BE39" s="26">
         <v>95.55</v>
       </c>
-      <c r="BF39" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG39" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH39" s="26"/>
-      <c r="BI39" s="26"/>
+      <c r="BF39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI39" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ39" s="26"/>
       <c r="BK39" s="26"/>
       <c r="BL39" s="26"/>
@@ -8865,14 +9004,18 @@
       <c r="BE40" s="26">
         <v>97.38</v>
       </c>
-      <c r="BF40" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG40" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH40" s="26"/>
-      <c r="BI40" s="26"/>
+      <c r="BF40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI40" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ40" s="26"/>
       <c r="BK40" s="26"/>
       <c r="BL40" s="26"/>
@@ -9064,14 +9207,18 @@
       <c r="BE41" s="26">
         <v>93.47</v>
       </c>
-      <c r="BF41" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG41" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH41" s="26"/>
-      <c r="BI41" s="26"/>
+      <c r="BF41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI41" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="26"/>
       <c r="BL41" s="26"/>
@@ -9263,14 +9410,18 @@
       <c r="BE42" s="26">
         <v>93.52</v>
       </c>
-      <c r="BF42" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG42" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH42" s="26"/>
-      <c r="BI42" s="26"/>
+      <c r="BF42" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG42" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH42" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI42" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ42" s="26"/>
       <c r="BK42" s="26"/>
       <c r="BL42" s="26"/>
@@ -9462,14 +9613,18 @@
       <c r="BE43" s="26">
         <v>96.49</v>
       </c>
-      <c r="BF43" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG43" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH43" s="26"/>
-      <c r="BI43" s="26"/>
+      <c r="BF43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI43" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ43" s="26"/>
       <c r="BK43" s="26"/>
       <c r="BL43" s="26"/>
@@ -9661,14 +9816,18 @@
       <c r="BE44" s="26">
         <v>96.59</v>
       </c>
-      <c r="BF44" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG44" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH44" s="26"/>
-      <c r="BI44" s="26"/>
+      <c r="BF44" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG44" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH44" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI44" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ44" s="26"/>
       <c r="BK44" s="26"/>
       <c r="BL44" s="26"/>
@@ -9860,14 +10019,18 @@
       <c r="BE45" s="26">
         <v>96.65</v>
       </c>
-      <c r="BF45" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG45" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH45" s="26"/>
-      <c r="BI45" s="26"/>
+      <c r="BF45" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG45" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH45" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI45" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="26"/>
       <c r="BL45" s="26"/>
@@ -10059,14 +10222,18 @@
       <c r="BE46" s="26">
         <v>105.26</v>
       </c>
-      <c r="BF46" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG46" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH46" s="26"/>
-      <c r="BI46" s="26"/>
+      <c r="BF46" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG46" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH46" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI46" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ46" s="26"/>
       <c r="BK46" s="26"/>
       <c r="BL46" s="26"/>
@@ -10258,14 +10425,18 @@
       <c r="BE47" s="26">
         <v>98.81</v>
       </c>
-      <c r="BF47" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG47" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH47" s="26"/>
-      <c r="BI47" s="26"/>
+      <c r="BF47" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG47" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH47" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI47" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ47" s="26"/>
       <c r="BK47" s="26"/>
       <c r="BL47" s="26"/>
@@ -10457,14 +10628,18 @@
       <c r="BE48" s="26">
         <v>101.39</v>
       </c>
-      <c r="BF48" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG48" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH48" s="26"/>
-      <c r="BI48" s="26"/>
+      <c r="BF48" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG48" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH48" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI48" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ48" s="26"/>
       <c r="BK48" s="26"/>
       <c r="BL48" s="26"/>
@@ -10656,14 +10831,18 @@
       <c r="BE49" s="26">
         <v>99.54</v>
       </c>
-      <c r="BF49" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG49" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH49" s="26"/>
-      <c r="BI49" s="26"/>
+      <c r="BF49" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG49" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH49" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI49" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="26"/>
       <c r="BL49" s="26"/>
@@ -10855,14 +11034,18 @@
       <c r="BE50" s="26">
         <v>83.3</v>
       </c>
-      <c r="BF50" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG50" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH50" s="26"/>
-      <c r="BI50" s="26"/>
+      <c r="BF50" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG50" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH50" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI50" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ50" s="26"/>
       <c r="BK50" s="26"/>
       <c r="BL50" s="26"/>
@@ -11054,14 +11237,18 @@
       <c r="BE51" s="26">
         <v>85.58</v>
       </c>
-      <c r="BF51" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG51" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH51" s="26"/>
-      <c r="BI51" s="26"/>
+      <c r="BF51" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG51" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH51" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI51" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ51" s="26"/>
       <c r="BK51" s="26"/>
       <c r="BL51" s="26"/>
@@ -11253,14 +11440,18 @@
       <c r="BE52" s="26">
         <v>90.28</v>
       </c>
-      <c r="BF52" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG52" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH52" s="26"/>
-      <c r="BI52" s="26"/>
+      <c r="BF52" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG52" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH52" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI52" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ52" s="26"/>
       <c r="BK52" s="26"/>
       <c r="BL52" s="26"/>
@@ -11452,14 +11643,18 @@
       <c r="BE53" s="26">
         <v>103.35</v>
       </c>
-      <c r="BF53" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG53" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH53" s="26"/>
-      <c r="BI53" s="26"/>
+      <c r="BF53" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG53" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH53" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI53" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ53" s="26"/>
       <c r="BK53" s="26"/>
       <c r="BL53" s="26"/>
@@ -11651,14 +11846,18 @@
       <c r="BE54" s="26">
         <v>91.62</v>
       </c>
-      <c r="BF54" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG54" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH54" s="26"/>
-      <c r="BI54" s="26"/>
+      <c r="BF54" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG54" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH54" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI54" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ54" s="26"/>
       <c r="BK54" s="26"/>
       <c r="BL54" s="26"/>
@@ -11850,14 +12049,18 @@
       <c r="BE55" s="26">
         <v>81.349999999999994</v>
       </c>
-      <c r="BF55" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG55" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH55" s="26"/>
-      <c r="BI55" s="26"/>
+      <c r="BF55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI55" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ55" s="26"/>
       <c r="BK55" s="26"/>
       <c r="BL55" s="26"/>
@@ -12049,14 +12252,18 @@
       <c r="BE56" s="26">
         <v>82.75</v>
       </c>
-      <c r="BF56" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG56" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH56" s="26"/>
-      <c r="BI56" s="26"/>
+      <c r="BF56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI56" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ56" s="26"/>
       <c r="BK56" s="26"/>
       <c r="BL56" s="26"/>
@@ -12248,14 +12455,18 @@
       <c r="BE57" s="26">
         <v>103.2</v>
       </c>
-      <c r="BF57" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG57" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH57" s="26"/>
-      <c r="BI57" s="26"/>
+      <c r="BF57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI57" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ57" s="26"/>
       <c r="BK57" s="26"/>
       <c r="BL57" s="26"/>
@@ -12447,14 +12658,18 @@
       <c r="BE58" s="26">
         <v>92.17</v>
       </c>
-      <c r="BF58" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG58" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH58" s="26"/>
-      <c r="BI58" s="26"/>
+      <c r="BF58" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG58" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH58" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI58" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ58" s="26"/>
       <c r="BK58" s="26"/>
       <c r="BL58" s="26"/>
@@ -12646,14 +12861,18 @@
       <c r="BE59" s="26">
         <v>101.02</v>
       </c>
-      <c r="BF59" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG59" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH59" s="26"/>
-      <c r="BI59" s="26"/>
+      <c r="BF59" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG59" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH59" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI59" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ59" s="26"/>
       <c r="BK59" s="26"/>
       <c r="BL59" s="26"/>
@@ -12845,14 +13064,18 @@
       <c r="BE60" s="26">
         <v>83.48</v>
       </c>
-      <c r="BF60" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG60" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH60" s="26"/>
-      <c r="BI60" s="26"/>
+      <c r="BF60" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG60" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH60" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI60" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ60" s="26"/>
       <c r="BK60" s="26"/>
       <c r="BL60" s="26"/>
@@ -13044,14 +13267,18 @@
       <c r="BE61" s="26">
         <v>79.89</v>
       </c>
-      <c r="BF61" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG61" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH61" s="26"/>
-      <c r="BI61" s="26"/>
+      <c r="BF61" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG61" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH61" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI61" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ61" s="26"/>
       <c r="BK61" s="26"/>
       <c r="BL61" s="26"/>
@@ -13243,14 +13470,18 @@
       <c r="BE62" s="26">
         <v>85.17</v>
       </c>
-      <c r="BF62" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG62" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH62" s="26"/>
-      <c r="BI62" s="26"/>
+      <c r="BF62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI62" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ62" s="26"/>
       <c r="BK62" s="26"/>
       <c r="BL62" s="26"/>
@@ -13442,14 +13673,18 @@
       <c r="BE63" s="26">
         <v>88.28</v>
       </c>
-      <c r="BF63" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG63" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH63" s="26"/>
-      <c r="BI63" s="26"/>
+      <c r="BF63" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG63" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH63" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI63" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ63" s="26"/>
       <c r="BK63" s="26"/>
       <c r="BL63" s="26"/>
@@ -13641,14 +13876,18 @@
       <c r="BE64" s="26">
         <v>88.72</v>
       </c>
-      <c r="BF64" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG64" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH64" s="26"/>
-      <c r="BI64" s="26"/>
+      <c r="BF64" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG64" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH64" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI64" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ64" s="26"/>
       <c r="BK64" s="26"/>
       <c r="BL64" s="26"/>
@@ -13840,14 +14079,18 @@
       <c r="BE65" s="26">
         <v>97.73</v>
       </c>
-      <c r="BF65" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG65" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH65" s="26"/>
-      <c r="BI65" s="26"/>
+      <c r="BF65" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG65" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH65" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI65" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ65" s="26"/>
       <c r="BK65" s="26"/>
       <c r="BL65" s="26"/>
@@ -14039,14 +14282,18 @@
       <c r="BE66" s="26">
         <v>98.49</v>
       </c>
-      <c r="BF66" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG66" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH66" s="26"/>
-      <c r="BI66" s="26"/>
+      <c r="BF66" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG66" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH66" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI66" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ66" s="26"/>
       <c r="BK66" s="26"/>
       <c r="BL66" s="26"/>
@@ -14238,14 +14485,18 @@
       <c r="BE67" s="26">
         <v>106.87</v>
       </c>
-      <c r="BF67" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG67" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH67" s="26"/>
-      <c r="BI67" s="26"/>
+      <c r="BF67" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG67" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH67" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI67" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ67" s="26"/>
       <c r="BK67" s="26"/>
       <c r="BL67" s="26"/>
@@ -14437,14 +14688,18 @@
       <c r="BE68" s="26">
         <v>96.51</v>
       </c>
-      <c r="BF68" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG68" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH68" s="26"/>
-      <c r="BI68" s="26"/>
+      <c r="BF68" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG68" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH68" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI68" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ68" s="26"/>
       <c r="BK68" s="26"/>
       <c r="BL68" s="26"/>
@@ -14636,14 +14891,18 @@
       <c r="BE69" s="26">
         <v>103.72</v>
       </c>
-      <c r="BF69" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG69" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH69" s="26"/>
-      <c r="BI69" s="26"/>
+      <c r="BF69" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG69" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH69" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI69" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ69" s="26"/>
       <c r="BK69" s="26"/>
       <c r="BL69" s="26"/>
@@ -14835,14 +15094,18 @@
       <c r="BE70" s="26">
         <v>98.84</v>
       </c>
-      <c r="BF70" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG70" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH70" s="26"/>
-      <c r="BI70" s="26"/>
+      <c r="BF70" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG70" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH70" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI70" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ70" s="26"/>
       <c r="BK70" s="26"/>
       <c r="BL70" s="26"/>
@@ -15034,14 +15297,18 @@
       <c r="BE71" s="26">
         <v>91.71</v>
       </c>
-      <c r="BF71" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG71" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH71" s="26"/>
-      <c r="BI71" s="26"/>
+      <c r="BF71" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG71" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH71" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI71" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ71" s="26"/>
       <c r="BK71" s="26"/>
       <c r="BL71" s="26"/>
@@ -15233,14 +15500,18 @@
       <c r="BE72" s="26">
         <v>94.01</v>
       </c>
-      <c r="BF72" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG72" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH72" s="26"/>
-      <c r="BI72" s="26"/>
+      <c r="BF72" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG72" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH72" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI72" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ72" s="26"/>
       <c r="BK72" s="26"/>
       <c r="BL72" s="26"/>
@@ -15432,14 +15703,18 @@
       <c r="BE73" s="26">
         <v>93.87</v>
       </c>
-      <c r="BF73" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG73" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH73" s="26"/>
-      <c r="BI73" s="26"/>
+      <c r="BF73" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG73" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH73" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI73" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ73" s="26"/>
       <c r="BK73" s="26"/>
       <c r="BL73" s="26"/>
@@ -15631,14 +15906,18 @@
       <c r="BE74" s="26">
         <v>94.75</v>
       </c>
-      <c r="BF74" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG74" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH74" s="26"/>
-      <c r="BI74" s="26"/>
+      <c r="BF74" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG74" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH74" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI74" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ74" s="26"/>
       <c r="BK74" s="26"/>
       <c r="BL74" s="26"/>
@@ -15830,14 +16109,18 @@
       <c r="BE75" s="26">
         <v>85.04</v>
       </c>
-      <c r="BF75" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG75" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH75" s="26"/>
-      <c r="BI75" s="26"/>
+      <c r="BF75" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG75" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH75" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI75" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ75" s="26"/>
       <c r="BK75" s="26"/>
       <c r="BL75" s="26"/>
@@ -16029,14 +16312,18 @@
       <c r="BE76" s="26">
         <v>103.63</v>
       </c>
-      <c r="BF76" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG76" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH76" s="26"/>
-      <c r="BI76" s="26"/>
+      <c r="BF76" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG76" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH76" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI76" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ76" s="26"/>
       <c r="BK76" s="26"/>
       <c r="BL76" s="26"/>
@@ -16228,14 +16515,18 @@
       <c r="BE77" s="26">
         <v>100.15</v>
       </c>
-      <c r="BF77" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG77" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH77" s="26"/>
-      <c r="BI77" s="26"/>
+      <c r="BF77" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG77" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH77" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI77" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ77" s="26"/>
       <c r="BK77" s="26"/>
       <c r="BL77" s="26"/>
@@ -16427,14 +16718,18 @@
       <c r="BE78" s="26">
         <v>87.78</v>
       </c>
-      <c r="BF78" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG78" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH78" s="26"/>
-      <c r="BI78" s="26"/>
+      <c r="BF78" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG78" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH78" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI78" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ78" s="26"/>
       <c r="BK78" s="26"/>
       <c r="BL78" s="26"/>
@@ -16626,14 +16921,18 @@
       <c r="BE79" s="26">
         <v>85.69</v>
       </c>
-      <c r="BF79" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG79" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH79" s="26"/>
-      <c r="BI79" s="26"/>
+      <c r="BF79" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG79" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH79" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI79" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ79" s="26"/>
       <c r="BK79" s="26"/>
       <c r="BL79" s="26"/>
@@ -16825,14 +17124,18 @@
       <c r="BE80" s="26">
         <v>77.84</v>
       </c>
-      <c r="BF80" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG80" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH80" s="26"/>
-      <c r="BI80" s="26"/>
+      <c r="BF80" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG80" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH80" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI80" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ80" s="26"/>
       <c r="BK80" s="26"/>
       <c r="BL80" s="26"/>
@@ -17024,14 +17327,18 @@
       <c r="BE81" s="26">
         <v>101.25</v>
       </c>
-      <c r="BF81" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG81" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH81" s="26"/>
-      <c r="BI81" s="26"/>
+      <c r="BF81" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG81" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH81" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI81" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ81" s="26"/>
       <c r="BK81" s="26"/>
       <c r="BL81" s="26"/>
@@ -17223,14 +17530,18 @@
       <c r="BE82" s="26">
         <v>98.19</v>
       </c>
-      <c r="BF82" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG82" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH82" s="26"/>
-      <c r="BI82" s="26"/>
+      <c r="BF82" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG82" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH82" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI82" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ82" s="26"/>
       <c r="BK82" s="26"/>
       <c r="BL82" s="26"/>
@@ -17422,14 +17733,18 @@
       <c r="BE83" s="26">
         <v>97.1</v>
       </c>
-      <c r="BF83" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG83" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH83" s="26"/>
-      <c r="BI83" s="26"/>
+      <c r="BF83" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG83" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH83" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI83" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ83" s="26"/>
       <c r="BK83" s="26"/>
       <c r="BL83" s="26"/>
@@ -17621,14 +17936,18 @@
       <c r="BE84" s="26">
         <v>100.22</v>
       </c>
-      <c r="BF84" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG84" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH84" s="26"/>
-      <c r="BI84" s="26"/>
+      <c r="BF84" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG84" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH84" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI84" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ84" s="26"/>
       <c r="BK84" s="26"/>
       <c r="BL84" s="26"/>
@@ -17820,14 +18139,18 @@
       <c r="BE85" s="26">
         <v>102.05</v>
       </c>
-      <c r="BF85" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG85" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH85" s="26"/>
-      <c r="BI85" s="26"/>
+      <c r="BF85" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG85" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH85" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI85" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ85" s="26"/>
       <c r="BK85" s="26"/>
       <c r="BL85" s="26"/>
@@ -18019,14 +18342,18 @@
       <c r="BE86" s="26">
         <v>81.739999999999995</v>
       </c>
-      <c r="BF86" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG86" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH86" s="26"/>
-      <c r="BI86" s="26"/>
+      <c r="BF86" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG86" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH86" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI86" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ86" s="26"/>
       <c r="BK86" s="26"/>
       <c r="BL86" s="26"/>
@@ -18218,14 +18545,18 @@
       <c r="BE87" s="26">
         <v>91.94</v>
       </c>
-      <c r="BF87" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG87" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH87" s="26"/>
-      <c r="BI87" s="26"/>
+      <c r="BF87" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG87" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH87" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI87" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ87" s="26"/>
       <c r="BK87" s="26"/>
       <c r="BL87" s="26"/>
@@ -18417,14 +18748,18 @@
       <c r="BE88" s="26">
         <v>92.72</v>
       </c>
-      <c r="BF88" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG88" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH88" s="26"/>
-      <c r="BI88" s="26"/>
+      <c r="BF88" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG88" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH88" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI88" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ88" s="26"/>
       <c r="BK88" s="26"/>
       <c r="BL88" s="26"/>
@@ -18616,14 +18951,18 @@
       <c r="BE89" s="26">
         <v>94.46</v>
       </c>
-      <c r="BF89" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG89" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH89" s="26"/>
-      <c r="BI89" s="26"/>
+      <c r="BF89" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG89" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH89" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI89" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ89" s="26"/>
       <c r="BK89" s="26"/>
       <c r="BL89" s="26"/>
@@ -18815,14 +19154,18 @@
       <c r="BE90" s="26">
         <v>92.34</v>
       </c>
-      <c r="BF90" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG90" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH90" s="26"/>
-      <c r="BI90" s="26"/>
+      <c r="BF90" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG90" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH90" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI90" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ90" s="26"/>
       <c r="BK90" s="26"/>
       <c r="BL90" s="26"/>
@@ -19014,14 +19357,18 @@
       <c r="BE91" s="26">
         <v>96.38</v>
       </c>
-      <c r="BF91" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG91" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH91" s="26"/>
-      <c r="BI91" s="26"/>
+      <c r="BF91" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG91" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH91" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI91" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BJ91" s="26"/>
       <c r="BK91" s="26"/>
       <c r="BL91" s="26"/>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 13 February 2021\IPE materials\Downloads\Thursday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp\absdfs\workgroup\LMS\STP Covid-19 project\Dissemination\Week ending 27 February 2021\IPE materials\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B9258-73EB-4381-8909-42365199C3B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1C4474-490C-4CF9-A37F-5E6E4D5B5413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="120">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>Sub-division</t>
   </si>
   <si>
     <t>01. Agriculture</t>
@@ -395,10 +392,16 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 13 February 2021</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 4 March 2021</t>
+    <t>Week ending Saturday 27 February 2021</t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 16 March 2021</t>
+  </si>
+  <si>
+    <t>Subdivision</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -615,6 +618,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1053,7 +1059,7 @@
   <dimension ref="A1:BC19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:B1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1379,7 +1385,7 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1444,24 +1450,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="28"/>
+      <c r="B19" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1584,7 +1590,7 @@
     </row>
     <row r="2" spans="1:79" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1913,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2092,8 +2098,12 @@
       <c r="BI6" s="25">
         <v>44240</v>
       </c>
-      <c r="BJ6" s="25"/>
-      <c r="BK6" s="25"/>
+      <c r="BJ6" s="25">
+        <v>44247</v>
+      </c>
+      <c r="BK6" s="25">
+        <v>44254</v>
+      </c>
       <c r="BL6" s="25"/>
       <c r="BM6" s="25"/>
       <c r="BN6" s="25"/>
@@ -2115,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="26">
         <v>92.74</v>
@@ -2294,8 +2304,12 @@
       <c r="BI7" s="26">
         <v>95.6</v>
       </c>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
+      <c r="BJ7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK7" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL7" s="26"/>
       <c r="BM7" s="26"/>
       <c r="BN7" s="26"/>
@@ -2318,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="26">
         <v>93.83</v>
@@ -2497,8 +2511,12 @@
       <c r="BI8" s="26">
         <v>100.02</v>
       </c>
-      <c r="BJ8" s="26"/>
-      <c r="BK8" s="26"/>
+      <c r="BJ8" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK8" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL8" s="26"/>
       <c r="BM8" s="26"/>
       <c r="BN8" s="26"/>
@@ -2521,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="26">
         <v>91.48</v>
@@ -2700,8 +2718,12 @@
       <c r="BI9" s="26">
         <v>89</v>
       </c>
-      <c r="BJ9" s="26"/>
-      <c r="BK9" s="26"/>
+      <c r="BJ9" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK9" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL9" s="26"/>
       <c r="BM9" s="26"/>
       <c r="BN9" s="26"/>
@@ -2724,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="26">
         <v>92.24</v>
@@ -2903,8 +2925,12 @@
       <c r="BI10" s="26">
         <v>85.73</v>
       </c>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="26"/>
+      <c r="BJ10" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK10" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL10" s="26"/>
       <c r="BM10" s="26"/>
       <c r="BN10" s="26"/>
@@ -2927,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="26">
         <v>82.57</v>
@@ -3106,8 +3132,12 @@
       <c r="BI11" s="26">
         <v>96.5</v>
       </c>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
+      <c r="BJ11" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK11" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL11" s="26"/>
       <c r="BM11" s="26"/>
       <c r="BN11" s="26"/>
@@ -3130,7 +3160,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="26">
         <v>100.15</v>
@@ -3309,8 +3339,12 @@
       <c r="BI12" s="26">
         <v>97.25</v>
       </c>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="26"/>
+      <c r="BJ12" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK12" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL12" s="26"/>
       <c r="BM12" s="26"/>
       <c r="BN12" s="26"/>
@@ -3333,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="26">
         <v>96</v>
@@ -3512,8 +3546,12 @@
       <c r="BI13" s="26">
         <v>91.24</v>
       </c>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="26"/>
+      <c r="BJ13" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK13" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL13" s="26"/>
       <c r="BM13" s="26"/>
       <c r="BN13" s="26"/>
@@ -3536,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="26">
         <v>96.02</v>
@@ -3715,8 +3753,12 @@
       <c r="BI14" s="26">
         <v>96.59</v>
       </c>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="26"/>
+      <c r="BJ14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK14" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL14" s="26"/>
       <c r="BM14" s="26"/>
       <c r="BN14" s="26"/>
@@ -3739,7 +3781,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="26">
         <v>90.36</v>
@@ -3918,8 +3960,12 @@
       <c r="BI15" s="26">
         <v>101.61</v>
       </c>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
+      <c r="BJ15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK15" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL15" s="26"/>
       <c r="BM15" s="26"/>
       <c r="BN15" s="26"/>
@@ -3942,7 +3988,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="26">
         <v>94.69</v>
@@ -4121,8 +4167,12 @@
       <c r="BI16" s="26">
         <v>108.42</v>
       </c>
-      <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
+      <c r="BJ16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK16" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL16" s="26"/>
       <c r="BM16" s="26"/>
       <c r="BN16" s="26"/>
@@ -4145,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="26">
         <v>94.06</v>
@@ -4324,8 +4374,12 @@
       <c r="BI17" s="26">
         <v>94.25</v>
       </c>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="26"/>
+      <c r="BJ17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK17" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL17" s="26"/>
       <c r="BM17" s="26"/>
       <c r="BN17" s="26"/>
@@ -4348,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="26">
         <v>93.16</v>
@@ -4527,8 +4581,12 @@
       <c r="BI18" s="26">
         <v>98.23</v>
       </c>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
+      <c r="BJ18" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK18" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL18" s="26"/>
       <c r="BM18" s="26"/>
       <c r="BN18" s="26"/>
@@ -4551,7 +4609,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="26">
         <v>81.93</v>
@@ -4730,8 +4788,12 @@
       <c r="BI19" s="26">
         <v>97.59</v>
       </c>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="26"/>
+      <c r="BJ19" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK19" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL19" s="26"/>
       <c r="BM19" s="26"/>
       <c r="BN19" s="26"/>
@@ -4754,7 +4816,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="26">
         <v>81.77</v>
@@ -4933,8 +4995,12 @@
       <c r="BI20" s="26">
         <v>96.71</v>
       </c>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
+      <c r="BJ20" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK20" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL20" s="26"/>
       <c r="BM20" s="26"/>
       <c r="BN20" s="26"/>
@@ -4957,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="26">
         <v>95.41</v>
@@ -5136,8 +5202,12 @@
       <c r="BI21" s="26">
         <v>92.18</v>
       </c>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
+      <c r="BJ21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK21" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL21" s="26"/>
       <c r="BM21" s="26"/>
       <c r="BN21" s="26"/>
@@ -5160,7 +5230,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="26">
         <v>91.59</v>
@@ -5339,8 +5409,12 @@
       <c r="BI22" s="26">
         <v>92.69</v>
       </c>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
+      <c r="BJ22" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK22" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL22" s="26"/>
       <c r="BM22" s="26"/>
       <c r="BN22" s="26"/>
@@ -5363,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="26">
         <v>94.74</v>
@@ -5542,8 +5616,12 @@
       <c r="BI23" s="26">
         <v>91.78</v>
       </c>
-      <c r="BJ23" s="26"/>
-      <c r="BK23" s="26"/>
+      <c r="BJ23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK23" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL23" s="26"/>
       <c r="BM23" s="26"/>
       <c r="BN23" s="26"/>
@@ -5566,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="26">
         <v>97.18</v>
@@ -5745,8 +5823,12 @@
       <c r="BI24" s="26">
         <v>107.06</v>
       </c>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
+      <c r="BJ24" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK24" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL24" s="26"/>
       <c r="BM24" s="26"/>
       <c r="BN24" s="26"/>
@@ -5769,7 +5851,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="26">
         <v>88.58</v>
@@ -5948,8 +6030,12 @@
       <c r="BI25" s="26">
         <v>100.71</v>
       </c>
-      <c r="BJ25" s="26"/>
-      <c r="BK25" s="26"/>
+      <c r="BJ25" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK25" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL25" s="26"/>
       <c r="BM25" s="26"/>
       <c r="BN25" s="26"/>
@@ -5972,7 +6058,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="26">
         <v>90.9</v>
@@ -6151,8 +6237,12 @@
       <c r="BI26" s="26">
         <v>93.04</v>
       </c>
-      <c r="BJ26" s="26"/>
-      <c r="BK26" s="26"/>
+      <c r="BJ26" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK26" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL26" s="26"/>
       <c r="BM26" s="26"/>
       <c r="BN26" s="26"/>
@@ -6175,7 +6265,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="26">
         <v>93.24</v>
@@ -6354,8 +6444,12 @@
       <c r="BI27" s="26">
         <v>98.59</v>
       </c>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
+      <c r="BJ27" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK27" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL27" s="26"/>
       <c r="BM27" s="26"/>
       <c r="BN27" s="26"/>
@@ -6378,7 +6472,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="26">
         <v>85</v>
@@ -6557,8 +6651,12 @@
       <c r="BI28" s="26">
         <v>95.07</v>
       </c>
-      <c r="BJ28" s="26"/>
-      <c r="BK28" s="26"/>
+      <c r="BJ28" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK28" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL28" s="26"/>
       <c r="BM28" s="26"/>
       <c r="BN28" s="26"/>
@@ -6581,7 +6679,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="26">
         <v>91.63</v>
@@ -6760,8 +6858,12 @@
       <c r="BI29" s="26">
         <v>95.74</v>
       </c>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
+      <c r="BJ29" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK29" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL29" s="26"/>
       <c r="BM29" s="26"/>
       <c r="BN29" s="26"/>
@@ -6784,7 +6886,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="26">
         <v>92.35</v>
@@ -6963,8 +7065,12 @@
       <c r="BI30" s="26">
         <v>98.3</v>
       </c>
-      <c r="BJ30" s="26"/>
-      <c r="BK30" s="26"/>
+      <c r="BJ30" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK30" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL30" s="26"/>
       <c r="BM30" s="26"/>
       <c r="BN30" s="26"/>
@@ -6987,7 +7093,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="26">
         <v>84.26</v>
@@ -7166,8 +7272,12 @@
       <c r="BI31" s="26">
         <v>95.23</v>
       </c>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="26"/>
+      <c r="BJ31" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK31" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL31" s="26"/>
       <c r="BM31" s="26"/>
       <c r="BN31" s="26"/>
@@ -7190,7 +7300,7 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="26">
         <v>95.26</v>
@@ -7369,8 +7479,12 @@
       <c r="BI32" s="26">
         <v>102.81</v>
       </c>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
+      <c r="BJ32" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK32" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL32" s="26"/>
       <c r="BM32" s="26"/>
       <c r="BN32" s="26"/>
@@ -7393,7 +7507,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="26">
         <v>83.53</v>
@@ -7572,8 +7686,12 @@
       <c r="BI33" s="26">
         <v>112.73</v>
       </c>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
+      <c r="BJ33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK33" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL33" s="26"/>
       <c r="BM33" s="26"/>
       <c r="BN33" s="26"/>
@@ -7596,7 +7714,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="26">
         <v>96.3</v>
@@ -7775,8 +7893,12 @@
       <c r="BI34" s="26">
         <v>102.58</v>
       </c>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
+      <c r="BJ34" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK34" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL34" s="26"/>
       <c r="BM34" s="26"/>
       <c r="BN34" s="26"/>
@@ -7799,7 +7921,7 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="26">
         <v>89.16</v>
@@ -7978,8 +8100,12 @@
       <c r="BI35" s="26">
         <v>98.31</v>
       </c>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
+      <c r="BJ35" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK35" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL35" s="26"/>
       <c r="BM35" s="26"/>
       <c r="BN35" s="26"/>
@@ -8002,7 +8128,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="26">
         <v>86.86</v>
@@ -8181,8 +8307,12 @@
       <c r="BI36" s="26">
         <v>99.04</v>
       </c>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
+      <c r="BJ36" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK36" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL36" s="26"/>
       <c r="BM36" s="26"/>
       <c r="BN36" s="26"/>
@@ -8205,7 +8335,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="26">
         <v>89.81</v>
@@ -8384,8 +8514,12 @@
       <c r="BI37" s="26">
         <v>88</v>
       </c>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="26"/>
+      <c r="BJ37" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK37" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL37" s="26"/>
       <c r="BM37" s="26"/>
       <c r="BN37" s="26"/>
@@ -8408,7 +8542,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="26">
         <v>84.33</v>
@@ -8587,8 +8721,12 @@
       <c r="BI38" s="26">
         <v>95.27</v>
       </c>
-      <c r="BJ38" s="26"/>
-      <c r="BK38" s="26"/>
+      <c r="BJ38" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK38" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL38" s="26"/>
       <c r="BM38" s="26"/>
       <c r="BN38" s="26"/>
@@ -8611,7 +8749,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="26">
         <v>93.48</v>
@@ -8790,8 +8928,12 @@
       <c r="BI39" s="26">
         <v>95.81</v>
       </c>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="26"/>
+      <c r="BJ39" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK39" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL39" s="26"/>
       <c r="BM39" s="26"/>
       <c r="BN39" s="26"/>
@@ -8814,7 +8956,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="26">
         <v>96.27</v>
@@ -8993,8 +9135,12 @@
       <c r="BI40" s="26">
         <v>98.22</v>
       </c>
-      <c r="BJ40" s="26"/>
-      <c r="BK40" s="26"/>
+      <c r="BJ40" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK40" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL40" s="26"/>
       <c r="BM40" s="26"/>
       <c r="BN40" s="26"/>
@@ -9017,7 +9163,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="26">
         <v>96.58</v>
@@ -9196,8 +9342,12 @@
       <c r="BI41" s="26">
         <v>93.32</v>
       </c>
-      <c r="BJ41" s="26"/>
-      <c r="BK41" s="26"/>
+      <c r="BJ41" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK41" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL41" s="26"/>
       <c r="BM41" s="26"/>
       <c r="BN41" s="26"/>
@@ -9220,7 +9370,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="26">
         <v>94.95</v>
@@ -9399,8 +9549,12 @@
       <c r="BI42" s="26">
         <v>95.16</v>
       </c>
-      <c r="BJ42" s="26"/>
-      <c r="BK42" s="26"/>
+      <c r="BJ42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK42" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL42" s="26"/>
       <c r="BM42" s="26"/>
       <c r="BN42" s="26"/>
@@ -9423,7 +9577,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="26">
         <v>96.02</v>
@@ -9602,8 +9756,12 @@
       <c r="BI43" s="26">
         <v>95.97</v>
       </c>
-      <c r="BJ43" s="26"/>
-      <c r="BK43" s="26"/>
+      <c r="BJ43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK43" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL43" s="26"/>
       <c r="BM43" s="26"/>
       <c r="BN43" s="26"/>
@@ -9626,7 +9784,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="26">
         <v>86.81</v>
@@ -9805,8 +9963,12 @@
       <c r="BI44" s="26">
         <v>101.1</v>
       </c>
-      <c r="BJ44" s="26"/>
-      <c r="BK44" s="26"/>
+      <c r="BJ44" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK44" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL44" s="26"/>
       <c r="BM44" s="26"/>
       <c r="BN44" s="26"/>
@@ -9829,7 +9991,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="26">
         <v>102.02</v>
@@ -10008,8 +10170,12 @@
       <c r="BI45" s="26">
         <v>98</v>
       </c>
-      <c r="BJ45" s="26"/>
-      <c r="BK45" s="26"/>
+      <c r="BJ45" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK45" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL45" s="26"/>
       <c r="BM45" s="26"/>
       <c r="BN45" s="26"/>
@@ -10032,7 +10198,7 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="26">
         <v>97.62</v>
@@ -10211,8 +10377,12 @@
       <c r="BI46" s="26">
         <v>106.43</v>
       </c>
-      <c r="BJ46" s="26"/>
-      <c r="BK46" s="26"/>
+      <c r="BJ46" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK46" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL46" s="26"/>
       <c r="BM46" s="26"/>
       <c r="BN46" s="26"/>
@@ -10235,7 +10405,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="26">
         <v>97.12</v>
@@ -10414,8 +10584,12 @@
       <c r="BI47" s="26">
         <v>97.68</v>
       </c>
-      <c r="BJ47" s="26"/>
-      <c r="BK47" s="26"/>
+      <c r="BJ47" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK47" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL47" s="26"/>
       <c r="BM47" s="26"/>
       <c r="BN47" s="26"/>
@@ -10438,7 +10612,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="26">
         <v>102.87</v>
@@ -10617,8 +10791,12 @@
       <c r="BI48" s="26">
         <v>100.04</v>
       </c>
-      <c r="BJ48" s="26"/>
-      <c r="BK48" s="26"/>
+      <c r="BJ48" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK48" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL48" s="26"/>
       <c r="BM48" s="26"/>
       <c r="BN48" s="26"/>
@@ -10641,7 +10819,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="26">
         <v>92.81</v>
@@ -10820,8 +10998,12 @@
       <c r="BI49" s="26">
         <v>99.93</v>
       </c>
-      <c r="BJ49" s="26"/>
-      <c r="BK49" s="26"/>
+      <c r="BJ49" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK49" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL49" s="26"/>
       <c r="BM49" s="26"/>
       <c r="BN49" s="26"/>
@@ -10844,7 +11026,7 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="26">
         <v>96.6</v>
@@ -11023,8 +11205,12 @@
       <c r="BI50" s="26">
         <v>83.6</v>
       </c>
-      <c r="BJ50" s="26"/>
-      <c r="BK50" s="26"/>
+      <c r="BJ50" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK50" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL50" s="26"/>
       <c r="BM50" s="26"/>
       <c r="BN50" s="26"/>
@@ -11047,7 +11233,7 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="26">
         <v>93.43</v>
@@ -11226,8 +11412,12 @@
       <c r="BI51" s="26">
         <v>88.17</v>
       </c>
-      <c r="BJ51" s="26"/>
-      <c r="BK51" s="26"/>
+      <c r="BJ51" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK51" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL51" s="26"/>
       <c r="BM51" s="26"/>
       <c r="BN51" s="26"/>
@@ -11250,7 +11440,7 @@
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="26">
         <v>90.64</v>
@@ -11429,8 +11619,12 @@
       <c r="BI52" s="26">
         <v>95.49</v>
       </c>
-      <c r="BJ52" s="26"/>
-      <c r="BK52" s="26"/>
+      <c r="BJ52" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK52" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL52" s="26"/>
       <c r="BM52" s="26"/>
       <c r="BN52" s="26"/>
@@ -11453,7 +11647,7 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="26">
         <v>98.99</v>
@@ -11632,8 +11826,12 @@
       <c r="BI53" s="26">
         <v>102.83</v>
       </c>
-      <c r="BJ53" s="26"/>
-      <c r="BK53" s="26"/>
+      <c r="BJ53" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK53" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL53" s="26"/>
       <c r="BM53" s="26"/>
       <c r="BN53" s="26"/>
@@ -11656,7 +11854,7 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="26">
         <v>97.91</v>
@@ -11835,8 +12033,12 @@
       <c r="BI54" s="26">
         <v>85.74</v>
       </c>
-      <c r="BJ54" s="26"/>
-      <c r="BK54" s="26"/>
+      <c r="BJ54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK54" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL54" s="26"/>
       <c r="BM54" s="26"/>
       <c r="BN54" s="26"/>
@@ -11859,7 +12061,7 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="26">
         <v>99.43</v>
@@ -12038,8 +12240,12 @@
       <c r="BI55" s="26">
         <v>80.22</v>
       </c>
-      <c r="BJ55" s="26"/>
-      <c r="BK55" s="26"/>
+      <c r="BJ55" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK55" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL55" s="26"/>
       <c r="BM55" s="26"/>
       <c r="BN55" s="26"/>
@@ -12062,7 +12268,7 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="26">
         <v>98.72</v>
@@ -12241,8 +12447,12 @@
       <c r="BI56" s="26">
         <v>86.57</v>
       </c>
-      <c r="BJ56" s="26"/>
-      <c r="BK56" s="26"/>
+      <c r="BJ56" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK56" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL56" s="26"/>
       <c r="BM56" s="26"/>
       <c r="BN56" s="26"/>
@@ -12265,7 +12475,7 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="26">
         <v>99.29</v>
@@ -12444,8 +12654,12 @@
       <c r="BI57" s="26">
         <v>101.51</v>
       </c>
-      <c r="BJ57" s="26"/>
-      <c r="BK57" s="26"/>
+      <c r="BJ57" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK57" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL57" s="26"/>
       <c r="BM57" s="26"/>
       <c r="BN57" s="26"/>
@@ -12468,7 +12682,7 @@
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="26">
         <v>96.89</v>
@@ -12647,8 +12861,12 @@
       <c r="BI58" s="26">
         <v>92.35</v>
       </c>
-      <c r="BJ58" s="26"/>
-      <c r="BK58" s="26"/>
+      <c r="BJ58" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK58" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL58" s="26"/>
       <c r="BM58" s="26"/>
       <c r="BN58" s="26"/>
@@ -12671,7 +12889,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="26">
         <v>101.11</v>
@@ -12850,8 +13068,12 @@
       <c r="BI59" s="26">
         <v>95.77</v>
       </c>
-      <c r="BJ59" s="26"/>
-      <c r="BK59" s="26"/>
+      <c r="BJ59" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK59" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL59" s="26"/>
       <c r="BM59" s="26"/>
       <c r="BN59" s="26"/>
@@ -12874,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="26">
         <v>94.83</v>
@@ -13053,8 +13275,12 @@
       <c r="BI60" s="26">
         <v>88.96</v>
       </c>
-      <c r="BJ60" s="26"/>
-      <c r="BK60" s="26"/>
+      <c r="BJ60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK60" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL60" s="26"/>
       <c r="BM60" s="26"/>
       <c r="BN60" s="26"/>
@@ -13077,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="26">
         <v>93.06</v>
@@ -13256,8 +13482,12 @@
       <c r="BI61" s="26">
         <v>87.09</v>
       </c>
-      <c r="BJ61" s="26"/>
-      <c r="BK61" s="26"/>
+      <c r="BJ61" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK61" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL61" s="26"/>
       <c r="BM61" s="26"/>
       <c r="BN61" s="26"/>
@@ -13280,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="26">
         <v>99.29</v>
@@ -13459,8 +13689,12 @@
       <c r="BI62" s="26">
         <v>89.88</v>
       </c>
-      <c r="BJ62" s="26"/>
-      <c r="BK62" s="26"/>
+      <c r="BJ62" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK62" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL62" s="26"/>
       <c r="BM62" s="26"/>
       <c r="BN62" s="26"/>
@@ -13483,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="26">
         <v>95.31</v>
@@ -13662,8 +13896,12 @@
       <c r="BI63" s="26">
         <v>93.29</v>
       </c>
-      <c r="BJ63" s="26"/>
-      <c r="BK63" s="26"/>
+      <c r="BJ63" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK63" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL63" s="26"/>
       <c r="BM63" s="26"/>
       <c r="BN63" s="26"/>
@@ -13686,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="26">
         <v>99.22</v>
@@ -13865,8 +14103,12 @@
       <c r="BI64" s="26">
         <v>92.21</v>
       </c>
-      <c r="BJ64" s="26"/>
-      <c r="BK64" s="26"/>
+      <c r="BJ64" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK64" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL64" s="26"/>
       <c r="BM64" s="26"/>
       <c r="BN64" s="26"/>
@@ -13889,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="26">
         <v>96.06</v>
@@ -14068,8 +14310,12 @@
       <c r="BI65" s="26">
         <v>104.56</v>
       </c>
-      <c r="BJ65" s="26"/>
-      <c r="BK65" s="26"/>
+      <c r="BJ65" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK65" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL65" s="26"/>
       <c r="BM65" s="26"/>
       <c r="BN65" s="26"/>
@@ -14092,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="26">
         <v>96.64</v>
@@ -14271,8 +14517,12 @@
       <c r="BI66" s="26">
         <v>98.48</v>
       </c>
-      <c r="BJ66" s="26"/>
-      <c r="BK66" s="26"/>
+      <c r="BJ66" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK66" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL66" s="26"/>
       <c r="BM66" s="26"/>
       <c r="BN66" s="26"/>
@@ -14295,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="26">
         <v>97.88</v>
@@ -14474,8 +14724,12 @@
       <c r="BI67" s="26">
         <v>108.02</v>
       </c>
-      <c r="BJ67" s="26"/>
-      <c r="BK67" s="26"/>
+      <c r="BJ67" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK67" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL67" s="26"/>
       <c r="BM67" s="26"/>
       <c r="BN67" s="26"/>
@@ -14498,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="26">
         <v>97.27</v>
@@ -14677,8 +14931,12 @@
       <c r="BI68" s="26">
         <v>96.45</v>
       </c>
-      <c r="BJ68" s="26"/>
-      <c r="BK68" s="26"/>
+      <c r="BJ68" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK68" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL68" s="26"/>
       <c r="BM68" s="26"/>
       <c r="BN68" s="26"/>
@@ -14701,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="26">
         <v>97.11</v>
@@ -14880,8 +15138,12 @@
       <c r="BI69" s="26">
         <v>106.03</v>
       </c>
-      <c r="BJ69" s="26"/>
-      <c r="BK69" s="26"/>
+      <c r="BJ69" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK69" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL69" s="26"/>
       <c r="BM69" s="26"/>
       <c r="BN69" s="26"/>
@@ -14904,7 +15166,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="26">
         <v>92.52</v>
@@ -15083,8 +15345,12 @@
       <c r="BI70" s="26">
         <v>101.03</v>
       </c>
-      <c r="BJ70" s="26"/>
-      <c r="BK70" s="26"/>
+      <c r="BJ70" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK70" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL70" s="26"/>
       <c r="BM70" s="26"/>
       <c r="BN70" s="26"/>
@@ -15107,7 +15373,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="26">
         <v>93.23</v>
@@ -15286,8 +15552,12 @@
       <c r="BI71" s="26">
         <v>91.38</v>
       </c>
-      <c r="BJ71" s="26"/>
-      <c r="BK71" s="26"/>
+      <c r="BJ71" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK71" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL71" s="26"/>
       <c r="BM71" s="26"/>
       <c r="BN71" s="26"/>
@@ -15310,7 +15580,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="26">
         <v>91.52</v>
@@ -15489,8 +15759,12 @@
       <c r="BI72" s="26">
         <v>97.18</v>
       </c>
-      <c r="BJ72" s="26"/>
-      <c r="BK72" s="26"/>
+      <c r="BJ72" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK72" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL72" s="26"/>
       <c r="BM72" s="26"/>
       <c r="BN72" s="26"/>
@@ -15513,7 +15787,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="26">
         <v>96.37</v>
@@ -15692,8 +15966,12 @@
       <c r="BI73" s="26">
         <v>95.8</v>
       </c>
-      <c r="BJ73" s="26"/>
-      <c r="BK73" s="26"/>
+      <c r="BJ73" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK73" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL73" s="26"/>
       <c r="BM73" s="26"/>
       <c r="BN73" s="26"/>
@@ -15716,7 +15994,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="26">
         <v>87.9</v>
@@ -15895,8 +16173,12 @@
       <c r="BI74" s="26">
         <v>98.7</v>
       </c>
-      <c r="BJ74" s="26"/>
-      <c r="BK74" s="26"/>
+      <c r="BJ74" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK74" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL74" s="26"/>
       <c r="BM74" s="26"/>
       <c r="BN74" s="26"/>
@@ -15919,7 +16201,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="26">
         <v>88.9</v>
@@ -16098,8 +16380,12 @@
       <c r="BI75" s="26">
         <v>92.24</v>
       </c>
-      <c r="BJ75" s="26"/>
-      <c r="BK75" s="26"/>
+      <c r="BJ75" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK75" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL75" s="26"/>
       <c r="BM75" s="26"/>
       <c r="BN75" s="26"/>
@@ -16122,7 +16408,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="26">
         <v>95.99</v>
@@ -16301,8 +16587,12 @@
       <c r="BI76" s="26">
         <v>107</v>
       </c>
-      <c r="BJ76" s="26"/>
-      <c r="BK76" s="26"/>
+      <c r="BJ76" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK76" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL76" s="26"/>
       <c r="BM76" s="26"/>
       <c r="BN76" s="26"/>
@@ -16325,7 +16615,7 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="26">
         <v>97.37</v>
@@ -16504,8 +16794,12 @@
       <c r="BI77" s="26">
         <v>101.35</v>
       </c>
-      <c r="BJ77" s="26"/>
-      <c r="BK77" s="26"/>
+      <c r="BJ77" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK77" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL77" s="26"/>
       <c r="BM77" s="26"/>
       <c r="BN77" s="26"/>
@@ -16528,7 +16822,7 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="26">
         <v>86.12</v>
@@ -16707,8 +17001,12 @@
       <c r="BI78" s="26">
         <v>92.43</v>
       </c>
-      <c r="BJ78" s="26"/>
-      <c r="BK78" s="26"/>
+      <c r="BJ78" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK78" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL78" s="26"/>
       <c r="BM78" s="26"/>
       <c r="BN78" s="26"/>
@@ -16731,7 +17029,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="26">
         <v>83.5</v>
@@ -16910,8 +17208,12 @@
       <c r="BI79" s="26">
         <v>87.69</v>
       </c>
-      <c r="BJ79" s="26"/>
-      <c r="BK79" s="26"/>
+      <c r="BJ79" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK79" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL79" s="26"/>
       <c r="BM79" s="26"/>
       <c r="BN79" s="26"/>
@@ -16934,7 +17236,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="26">
         <v>61.52</v>
@@ -17113,8 +17415,12 @@
       <c r="BI80" s="26">
         <v>89.95</v>
       </c>
-      <c r="BJ80" s="26"/>
-      <c r="BK80" s="26"/>
+      <c r="BJ80" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK80" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL80" s="26"/>
       <c r="BM80" s="26"/>
       <c r="BN80" s="26"/>
@@ -17137,7 +17443,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="26">
         <v>95.99</v>
@@ -17316,8 +17622,12 @@
       <c r="BI81" s="26">
         <v>104.62</v>
       </c>
-      <c r="BJ81" s="26"/>
-      <c r="BK81" s="26"/>
+      <c r="BJ81" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK81" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL81" s="26"/>
       <c r="BM81" s="26"/>
       <c r="BN81" s="26"/>
@@ -17340,7 +17650,7 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="26">
         <v>92.34</v>
@@ -17519,8 +17829,12 @@
       <c r="BI82" s="26">
         <v>103.03</v>
       </c>
-      <c r="BJ82" s="26"/>
-      <c r="BK82" s="26"/>
+      <c r="BJ82" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK82" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL82" s="26"/>
       <c r="BM82" s="26"/>
       <c r="BN82" s="26"/>
@@ -17543,7 +17857,7 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="26">
         <v>99.84</v>
@@ -17722,8 +18036,12 @@
       <c r="BI83" s="26">
         <v>99.99</v>
       </c>
-      <c r="BJ83" s="26"/>
-      <c r="BK83" s="26"/>
+      <c r="BJ83" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK83" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL83" s="26"/>
       <c r="BM83" s="26"/>
       <c r="BN83" s="26"/>
@@ -17746,7 +18064,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="26">
         <v>92.59</v>
@@ -17925,8 +18243,12 @@
       <c r="BI84" s="26">
         <v>106.8</v>
       </c>
-      <c r="BJ84" s="26"/>
-      <c r="BK84" s="26"/>
+      <c r="BJ84" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK84" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL84" s="26"/>
       <c r="BM84" s="26"/>
       <c r="BN84" s="26"/>
@@ -17949,7 +18271,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="26">
         <v>104.01</v>
@@ -18128,8 +18450,12 @@
       <c r="BI85" s="26">
         <v>101.07</v>
       </c>
-      <c r="BJ85" s="26"/>
-      <c r="BK85" s="26"/>
+      <c r="BJ85" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK85" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL85" s="26"/>
       <c r="BM85" s="26"/>
       <c r="BN85" s="26"/>
@@ -18152,7 +18478,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="26">
         <v>83.66</v>
@@ -18331,8 +18657,12 @@
       <c r="BI86" s="26">
         <v>91.97</v>
       </c>
-      <c r="BJ86" s="26"/>
-      <c r="BK86" s="26"/>
+      <c r="BJ86" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK86" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL86" s="26"/>
       <c r="BM86" s="26"/>
       <c r="BN86" s="26"/>
@@ -18355,7 +18685,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="26">
         <v>91.08</v>
@@ -18534,8 +18864,12 @@
       <c r="BI87" s="26">
         <v>96.59</v>
       </c>
-      <c r="BJ87" s="26"/>
-      <c r="BK87" s="26"/>
+      <c r="BJ87" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK87" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL87" s="26"/>
       <c r="BM87" s="26"/>
       <c r="BN87" s="26"/>
@@ -18558,7 +18892,7 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="26">
         <v>99.29</v>
@@ -18737,8 +19071,12 @@
       <c r="BI88" s="26">
         <v>93.61</v>
       </c>
-      <c r="BJ88" s="26"/>
-      <c r="BK88" s="26"/>
+      <c r="BJ88" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK88" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL88" s="26"/>
       <c r="BM88" s="26"/>
       <c r="BN88" s="26"/>
@@ -18761,7 +19099,7 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="26">
         <v>91.06</v>
@@ -18940,8 +19278,12 @@
       <c r="BI89" s="26">
         <v>96.76</v>
       </c>
-      <c r="BJ89" s="26"/>
-      <c r="BK89" s="26"/>
+      <c r="BJ89" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK89" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL89" s="26"/>
       <c r="BM89" s="26"/>
       <c r="BN89" s="26"/>
@@ -18964,7 +19306,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="26">
         <v>91.49</v>
@@ -19143,8 +19485,12 @@
       <c r="BI90" s="26">
         <v>96.15</v>
       </c>
-      <c r="BJ90" s="26"/>
-      <c r="BK90" s="26"/>
+      <c r="BJ90" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK90" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL90" s="26"/>
       <c r="BM90" s="26"/>
       <c r="BN90" s="26"/>
@@ -19167,7 +19513,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="26">
         <v>88.39</v>
@@ -19346,8 +19692,12 @@
       <c r="BI91" s="26">
         <v>99.87</v>
       </c>
-      <c r="BJ91" s="26"/>
-      <c r="BK91" s="26"/>
+      <c r="BJ91" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK91" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="BL91" s="26"/>
       <c r="BM91" s="26"/>
       <c r="BN91" s="26"/>
@@ -19367,7 +19717,7 @@
     </row>
     <row r="93" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F51AD7-10BB-4993-A43E-0655304A19CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF0710D-18F9-4454-81C7-56D5332596CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -381,19 +381,25 @@
     <t>© Commonwealth of Australia 2021</t>
   </si>
   <si>
-    <t>Week ending Saturday 13 March 2021</t>
-  </si>
-  <si>
     <t>38. Commission-Based Wholesaling</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 31 March 2021</t>
   </si>
   <si>
     <t>Subdivision</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 13 April 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 27 March 2021</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NA = Not available</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -618,6 +624,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1391,7 +1400,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1451,24 +1460,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1490,7 +1499,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4094C99-52A4-42B0-93AC-5A2FCEEC722B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:CA91"/>
+  <dimension ref="A1:CA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1836,10 +1845,10 @@
       <c r="BZ4" s="5"/>
     </row>
     <row r="5" spans="1:79" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="A5" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1922,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2113,8 +2122,12 @@
       <c r="BM6" s="25">
         <v>44268</v>
       </c>
-      <c r="BN6" s="25"/>
-      <c r="BO6" s="25"/>
+      <c r="BN6" s="25">
+        <v>44275</v>
+      </c>
+      <c r="BO6" s="25">
+        <v>44282</v>
+      </c>
       <c r="BP6" s="25"/>
       <c r="BQ6" s="25"/>
       <c r="BR6" s="25"/>
@@ -2323,8 +2336,12 @@
       <c r="BM7" s="26">
         <v>94.64</v>
       </c>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="26"/>
+      <c r="BN7" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO7" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP7" s="26"/>
       <c r="BQ7" s="26"/>
       <c r="BR7" s="26"/>
@@ -2534,8 +2551,12 @@
       <c r="BM8" s="26">
         <v>101.33</v>
       </c>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="26"/>
+      <c r="BN8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO8" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP8" s="26"/>
       <c r="BQ8" s="26"/>
       <c r="BR8" s="26"/>
@@ -2745,8 +2766,12 @@
       <c r="BM9" s="26">
         <v>89.82</v>
       </c>
-      <c r="BN9" s="26"/>
-      <c r="BO9" s="26"/>
+      <c r="BN9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO9" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP9" s="26"/>
       <c r="BQ9" s="26"/>
       <c r="BR9" s="26"/>
@@ -2956,8 +2981,12 @@
       <c r="BM10" s="26">
         <v>84.59</v>
       </c>
-      <c r="BN10" s="26"/>
-      <c r="BO10" s="26"/>
+      <c r="BN10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO10" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP10" s="26"/>
       <c r="BQ10" s="26"/>
       <c r="BR10" s="26"/>
@@ -3167,8 +3196,12 @@
       <c r="BM11" s="26">
         <v>96.63</v>
       </c>
-      <c r="BN11" s="26"/>
-      <c r="BO11" s="26"/>
+      <c r="BN11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO11" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP11" s="26"/>
       <c r="BQ11" s="26"/>
       <c r="BR11" s="26"/>
@@ -3378,8 +3411,12 @@
       <c r="BM12" s="26">
         <v>96.76</v>
       </c>
-      <c r="BN12" s="26"/>
-      <c r="BO12" s="26"/>
+      <c r="BN12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO12" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP12" s="26"/>
       <c r="BQ12" s="26"/>
       <c r="BR12" s="26"/>
@@ -3589,8 +3626,12 @@
       <c r="BM13" s="26">
         <v>91.12</v>
       </c>
-      <c r="BN13" s="26"/>
-      <c r="BO13" s="26"/>
+      <c r="BN13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO13" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP13" s="26"/>
       <c r="BQ13" s="26"/>
       <c r="BR13" s="26"/>
@@ -3800,8 +3841,12 @@
       <c r="BM14" s="26">
         <v>96.96</v>
       </c>
-      <c r="BN14" s="26"/>
-      <c r="BO14" s="26"/>
+      <c r="BN14" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO14" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP14" s="26"/>
       <c r="BQ14" s="26"/>
       <c r="BR14" s="26"/>
@@ -4011,8 +4056,12 @@
       <c r="BM15" s="26">
         <v>104.6</v>
       </c>
-      <c r="BN15" s="26"/>
-      <c r="BO15" s="26"/>
+      <c r="BN15" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO15" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP15" s="26"/>
       <c r="BQ15" s="26"/>
       <c r="BR15" s="26"/>
@@ -4222,8 +4271,12 @@
       <c r="BM16" s="26">
         <v>109.82</v>
       </c>
-      <c r="BN16" s="26"/>
-      <c r="BO16" s="26"/>
+      <c r="BN16" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO16" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP16" s="26"/>
       <c r="BQ16" s="26"/>
       <c r="BR16" s="26"/>
@@ -4433,8 +4486,12 @@
       <c r="BM17" s="26">
         <v>94.09</v>
       </c>
-      <c r="BN17" s="26"/>
-      <c r="BO17" s="26"/>
+      <c r="BN17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO17" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP17" s="26"/>
       <c r="BQ17" s="26"/>
       <c r="BR17" s="26"/>
@@ -4644,8 +4701,12 @@
       <c r="BM18" s="26">
         <v>99.83</v>
       </c>
-      <c r="BN18" s="26"/>
-      <c r="BO18" s="26"/>
+      <c r="BN18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO18" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP18" s="26"/>
       <c r="BQ18" s="26"/>
       <c r="BR18" s="26"/>
@@ -4855,8 +4916,12 @@
       <c r="BM19" s="26">
         <v>98.54</v>
       </c>
-      <c r="BN19" s="26"/>
-      <c r="BO19" s="26"/>
+      <c r="BN19" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO19" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP19" s="26"/>
       <c r="BQ19" s="26"/>
       <c r="BR19" s="26"/>
@@ -5066,8 +5131,12 @@
       <c r="BM20" s="26">
         <v>97.87</v>
       </c>
-      <c r="BN20" s="26"/>
-      <c r="BO20" s="26"/>
+      <c r="BN20" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO20" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP20" s="26"/>
       <c r="BQ20" s="26"/>
       <c r="BR20" s="26"/>
@@ -5277,8 +5346,12 @@
       <c r="BM21" s="26">
         <v>92.36</v>
       </c>
-      <c r="BN21" s="26"/>
-      <c r="BO21" s="26"/>
+      <c r="BN21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO21" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP21" s="26"/>
       <c r="BQ21" s="26"/>
       <c r="BR21" s="26"/>
@@ -5488,8 +5561,12 @@
       <c r="BM22" s="26">
         <v>92.81</v>
       </c>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
+      <c r="BN22" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO22" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP22" s="26"/>
       <c r="BQ22" s="26"/>
       <c r="BR22" s="26"/>
@@ -5699,8 +5776,12 @@
       <c r="BM23" s="26">
         <v>91.56</v>
       </c>
-      <c r="BN23" s="26"/>
-      <c r="BO23" s="26"/>
+      <c r="BN23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO23" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP23" s="26"/>
       <c r="BQ23" s="26"/>
       <c r="BR23" s="26"/>
@@ -5910,8 +5991,12 @@
       <c r="BM24" s="26">
         <v>105.3</v>
       </c>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
+      <c r="BN24" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO24" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP24" s="26"/>
       <c r="BQ24" s="26"/>
       <c r="BR24" s="26"/>
@@ -6121,8 +6206,12 @@
       <c r="BM25" s="26">
         <v>101.24</v>
       </c>
-      <c r="BN25" s="26"/>
-      <c r="BO25" s="26"/>
+      <c r="BN25" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO25" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP25" s="26"/>
       <c r="BQ25" s="26"/>
       <c r="BR25" s="26"/>
@@ -6332,8 +6421,12 @@
       <c r="BM26" s="26">
         <v>92.14</v>
       </c>
-      <c r="BN26" s="26"/>
-      <c r="BO26" s="26"/>
+      <c r="BN26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO26" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP26" s="26"/>
       <c r="BQ26" s="26"/>
       <c r="BR26" s="26"/>
@@ -6543,8 +6636,12 @@
       <c r="BM27" s="26">
         <v>98.27</v>
       </c>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26"/>
+      <c r="BN27" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO27" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP27" s="26"/>
       <c r="BQ27" s="26"/>
       <c r="BR27" s="26"/>
@@ -6754,8 +6851,12 @@
       <c r="BM28" s="26">
         <v>95.87</v>
       </c>
-      <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
+      <c r="BN28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO28" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP28" s="26"/>
       <c r="BQ28" s="26"/>
       <c r="BR28" s="26"/>
@@ -6965,8 +7066,12 @@
       <c r="BM29" s="26">
         <v>95.85</v>
       </c>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
+      <c r="BN29" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO29" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP29" s="26"/>
       <c r="BQ29" s="26"/>
       <c r="BR29" s="26"/>
@@ -7176,8 +7281,12 @@
       <c r="BM30" s="26">
         <v>97.95</v>
       </c>
-      <c r="BN30" s="26"/>
-      <c r="BO30" s="26"/>
+      <c r="BN30" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO30" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP30" s="26"/>
       <c r="BQ30" s="26"/>
       <c r="BR30" s="26"/>
@@ -7387,8 +7496,12 @@
       <c r="BM31" s="26">
         <v>97.77</v>
       </c>
-      <c r="BN31" s="26"/>
-      <c r="BO31" s="26"/>
+      <c r="BN31" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO31" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP31" s="26"/>
       <c r="BQ31" s="26"/>
       <c r="BR31" s="26"/>
@@ -7598,8 +7711,12 @@
       <c r="BM32" s="26">
         <v>99.64</v>
       </c>
-      <c r="BN32" s="26"/>
-      <c r="BO32" s="26"/>
+      <c r="BN32" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO32" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP32" s="26"/>
       <c r="BQ32" s="26"/>
       <c r="BR32" s="26"/>
@@ -7809,8 +7926,12 @@
       <c r="BM33" s="26">
         <v>119.3</v>
       </c>
-      <c r="BN33" s="26"/>
-      <c r="BO33" s="26"/>
+      <c r="BN33" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO33" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP33" s="26"/>
       <c r="BQ33" s="26"/>
       <c r="BR33" s="26"/>
@@ -8020,8 +8141,12 @@
       <c r="BM34" s="26">
         <v>105.33</v>
       </c>
-      <c r="BN34" s="26"/>
-      <c r="BO34" s="26"/>
+      <c r="BN34" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO34" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP34" s="26"/>
       <c r="BQ34" s="26"/>
       <c r="BR34" s="26"/>
@@ -8231,8 +8356,12 @@
       <c r="BM35" s="26">
         <v>101.64</v>
       </c>
-      <c r="BN35" s="26"/>
-      <c r="BO35" s="26"/>
+      <c r="BN35" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO35" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP35" s="26"/>
       <c r="BQ35" s="26"/>
       <c r="BR35" s="26"/>
@@ -8442,8 +8571,12 @@
       <c r="BM36" s="26">
         <v>101.72</v>
       </c>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
+      <c r="BN36" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO36" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP36" s="26"/>
       <c r="BQ36" s="26"/>
       <c r="BR36" s="26"/>
@@ -8653,8 +8786,12 @@
       <c r="BM37" s="26">
         <v>87.8</v>
       </c>
-      <c r="BN37" s="26"/>
-      <c r="BO37" s="26"/>
+      <c r="BN37" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO37" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP37" s="26"/>
       <c r="BQ37" s="26"/>
       <c r="BR37" s="26"/>
@@ -8864,8 +9001,12 @@
       <c r="BM38" s="26">
         <v>96.34</v>
       </c>
-      <c r="BN38" s="26"/>
-      <c r="BO38" s="26"/>
+      <c r="BN38" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO38" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP38" s="26"/>
       <c r="BQ38" s="26"/>
       <c r="BR38" s="26"/>
@@ -9075,8 +9216,12 @@
       <c r="BM39" s="26">
         <v>97.13</v>
       </c>
-      <c r="BN39" s="26"/>
-      <c r="BO39" s="26"/>
+      <c r="BN39" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO39" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP39" s="26"/>
       <c r="BQ39" s="26"/>
       <c r="BR39" s="26"/>
@@ -9286,8 +9431,12 @@
       <c r="BM40" s="26">
         <v>97.18</v>
       </c>
-      <c r="BN40" s="26"/>
-      <c r="BO40" s="26"/>
+      <c r="BN40" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO40" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP40" s="26"/>
       <c r="BQ40" s="26"/>
       <c r="BR40" s="26"/>
@@ -9497,8 +9646,12 @@
       <c r="BM41" s="26">
         <v>92.1</v>
       </c>
-      <c r="BN41" s="26"/>
-      <c r="BO41" s="26"/>
+      <c r="BN41" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO41" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP41" s="26"/>
       <c r="BQ41" s="26"/>
       <c r="BR41" s="26"/>
@@ -9708,8 +9861,12 @@
       <c r="BM42" s="26">
         <v>95.32</v>
       </c>
-      <c r="BN42" s="26"/>
-      <c r="BO42" s="26"/>
+      <c r="BN42" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO42" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP42" s="26"/>
       <c r="BQ42" s="26"/>
       <c r="BR42" s="26"/>
@@ -9919,8 +10076,12 @@
       <c r="BM43" s="26">
         <v>97.02</v>
       </c>
-      <c r="BN43" s="26"/>
-      <c r="BO43" s="26"/>
+      <c r="BN43" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO43" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP43" s="26"/>
       <c r="BQ43" s="26"/>
       <c r="BR43" s="26"/>
@@ -9939,7 +10100,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="26">
         <v>86.79</v>
@@ -10130,8 +10291,12 @@
       <c r="BM44" s="26">
         <v>100.92</v>
       </c>
-      <c r="BN44" s="26"/>
-      <c r="BO44" s="26"/>
+      <c r="BN44" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO44" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP44" s="26"/>
       <c r="BQ44" s="26"/>
       <c r="BR44" s="26"/>
@@ -10341,8 +10506,12 @@
       <c r="BM45" s="26">
         <v>99.11</v>
       </c>
-      <c r="BN45" s="26"/>
-      <c r="BO45" s="26"/>
+      <c r="BN45" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO45" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP45" s="26"/>
       <c r="BQ45" s="26"/>
       <c r="BR45" s="26"/>
@@ -10552,8 +10721,12 @@
       <c r="BM46" s="26">
         <v>107.02</v>
       </c>
-      <c r="BN46" s="26"/>
-      <c r="BO46" s="26"/>
+      <c r="BN46" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO46" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP46" s="26"/>
       <c r="BQ46" s="26"/>
       <c r="BR46" s="26"/>
@@ -10763,8 +10936,12 @@
       <c r="BM47" s="26">
         <v>98.13</v>
       </c>
-      <c r="BN47" s="26"/>
-      <c r="BO47" s="26"/>
+      <c r="BN47" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO47" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP47" s="26"/>
       <c r="BQ47" s="26"/>
       <c r="BR47" s="26"/>
@@ -10974,8 +11151,12 @@
       <c r="BM48" s="26">
         <v>99.4</v>
       </c>
-      <c r="BN48" s="26"/>
-      <c r="BO48" s="26"/>
+      <c r="BN48" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO48" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP48" s="26"/>
       <c r="BQ48" s="26"/>
       <c r="BR48" s="26"/>
@@ -11185,8 +11366,12 @@
       <c r="BM49" s="26">
         <v>101.41</v>
       </c>
-      <c r="BN49" s="26"/>
-      <c r="BO49" s="26"/>
+      <c r="BN49" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO49" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP49" s="26"/>
       <c r="BQ49" s="26"/>
       <c r="BR49" s="26"/>
@@ -11396,8 +11581,12 @@
       <c r="BM50" s="26">
         <v>85.49</v>
       </c>
-      <c r="BN50" s="26"/>
-      <c r="BO50" s="26"/>
+      <c r="BN50" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO50" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP50" s="26"/>
       <c r="BQ50" s="26"/>
       <c r="BR50" s="26"/>
@@ -11607,8 +11796,12 @@
       <c r="BM51" s="26">
         <v>89.38</v>
       </c>
-      <c r="BN51" s="26"/>
-      <c r="BO51" s="26"/>
+      <c r="BN51" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO51" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP51" s="26"/>
       <c r="BQ51" s="26"/>
       <c r="BR51" s="26"/>
@@ -11818,8 +12011,12 @@
       <c r="BM52" s="26">
         <v>96.16</v>
       </c>
-      <c r="BN52" s="26"/>
-      <c r="BO52" s="26"/>
+      <c r="BN52" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO52" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP52" s="26"/>
       <c r="BQ52" s="26"/>
       <c r="BR52" s="26"/>
@@ -12029,8 +12226,12 @@
       <c r="BM53" s="26">
         <v>103.16</v>
       </c>
-      <c r="BN53" s="26"/>
-      <c r="BO53" s="26"/>
+      <c r="BN53" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO53" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP53" s="26"/>
       <c r="BQ53" s="26"/>
       <c r="BR53" s="26"/>
@@ -12240,8 +12441,12 @@
       <c r="BM54" s="26">
         <v>89.12</v>
       </c>
-      <c r="BN54" s="26"/>
-      <c r="BO54" s="26"/>
+      <c r="BN54" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO54" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP54" s="26"/>
       <c r="BQ54" s="26"/>
       <c r="BR54" s="26"/>
@@ -12451,8 +12656,12 @@
       <c r="BM55" s="26">
         <v>77.73</v>
       </c>
-      <c r="BN55" s="26"/>
-      <c r="BO55" s="26"/>
+      <c r="BN55" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO55" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP55" s="26"/>
       <c r="BQ55" s="26"/>
       <c r="BR55" s="26"/>
@@ -12662,8 +12871,12 @@
       <c r="BM56" s="26">
         <v>87.96</v>
       </c>
-      <c r="BN56" s="26"/>
-      <c r="BO56" s="26"/>
+      <c r="BN56" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO56" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP56" s="26"/>
       <c r="BQ56" s="26"/>
       <c r="BR56" s="26"/>
@@ -12873,8 +13086,12 @@
       <c r="BM57" s="26">
         <v>97.92</v>
       </c>
-      <c r="BN57" s="26"/>
-      <c r="BO57" s="26"/>
+      <c r="BN57" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO57" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP57" s="26"/>
       <c r="BQ57" s="26"/>
       <c r="BR57" s="26"/>
@@ -13084,8 +13301,12 @@
       <c r="BM58" s="26">
         <v>92.94</v>
       </c>
-      <c r="BN58" s="26"/>
-      <c r="BO58" s="26"/>
+      <c r="BN58" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO58" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP58" s="26"/>
       <c r="BQ58" s="26"/>
       <c r="BR58" s="26"/>
@@ -13295,8 +13516,12 @@
       <c r="BM59" s="26">
         <v>95.52</v>
       </c>
-      <c r="BN59" s="26"/>
-      <c r="BO59" s="26"/>
+      <c r="BN59" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO59" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP59" s="26"/>
       <c r="BQ59" s="26"/>
       <c r="BR59" s="26"/>
@@ -13506,8 +13731,12 @@
       <c r="BM60" s="26">
         <v>87.09</v>
       </c>
-      <c r="BN60" s="26"/>
-      <c r="BO60" s="26"/>
+      <c r="BN60" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO60" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP60" s="26"/>
       <c r="BQ60" s="26"/>
       <c r="BR60" s="26"/>
@@ -13717,8 +13946,12 @@
       <c r="BM61" s="26">
         <v>87.52</v>
       </c>
-      <c r="BN61" s="26"/>
-      <c r="BO61" s="26"/>
+      <c r="BN61" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO61" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP61" s="26"/>
       <c r="BQ61" s="26"/>
       <c r="BR61" s="26"/>
@@ -13928,8 +14161,12 @@
       <c r="BM62" s="26">
         <v>86.21</v>
       </c>
-      <c r="BN62" s="26"/>
-      <c r="BO62" s="26"/>
+      <c r="BN62" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO62" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP62" s="26"/>
       <c r="BQ62" s="26"/>
       <c r="BR62" s="26"/>
@@ -14139,8 +14376,12 @@
       <c r="BM63" s="26">
         <v>92.79</v>
       </c>
-      <c r="BN63" s="26"/>
-      <c r="BO63" s="26"/>
+      <c r="BN63" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO63" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP63" s="26"/>
       <c r="BQ63" s="26"/>
       <c r="BR63" s="26"/>
@@ -14350,8 +14591,12 @@
       <c r="BM64" s="26">
         <v>92.21</v>
       </c>
-      <c r="BN64" s="26"/>
-      <c r="BO64" s="26"/>
+      <c r="BN64" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO64" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP64" s="26"/>
       <c r="BQ64" s="26"/>
       <c r="BR64" s="26"/>
@@ -14561,8 +14806,12 @@
       <c r="BM65" s="26">
         <v>101.59</v>
       </c>
-      <c r="BN65" s="26"/>
-      <c r="BO65" s="26"/>
+      <c r="BN65" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO65" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP65" s="26"/>
       <c r="BQ65" s="26"/>
       <c r="BR65" s="26"/>
@@ -14772,8 +15021,12 @@
       <c r="BM66" s="26">
         <v>100.97</v>
       </c>
-      <c r="BN66" s="26"/>
-      <c r="BO66" s="26"/>
+      <c r="BN66" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO66" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP66" s="26"/>
       <c r="BQ66" s="26"/>
       <c r="BR66" s="26"/>
@@ -14983,8 +15236,12 @@
       <c r="BM67" s="26">
         <v>108.79</v>
       </c>
-      <c r="BN67" s="26"/>
-      <c r="BO67" s="26"/>
+      <c r="BN67" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO67" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP67" s="26"/>
       <c r="BQ67" s="26"/>
       <c r="BR67" s="26"/>
@@ -15194,8 +15451,12 @@
       <c r="BM68" s="26">
         <v>96.56</v>
       </c>
-      <c r="BN68" s="26"/>
-      <c r="BO68" s="26"/>
+      <c r="BN68" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO68" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP68" s="26"/>
       <c r="BQ68" s="26"/>
       <c r="BR68" s="26"/>
@@ -15405,8 +15666,12 @@
       <c r="BM69" s="26">
         <v>106.49</v>
       </c>
-      <c r="BN69" s="26"/>
-      <c r="BO69" s="26"/>
+      <c r="BN69" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO69" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP69" s="26"/>
       <c r="BQ69" s="26"/>
       <c r="BR69" s="26"/>
@@ -15616,8 +15881,12 @@
       <c r="BM70" s="26">
         <v>102.53</v>
       </c>
-      <c r="BN70" s="26"/>
-      <c r="BO70" s="26"/>
+      <c r="BN70" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO70" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP70" s="26"/>
       <c r="BQ70" s="26"/>
       <c r="BR70" s="26"/>
@@ -15827,8 +16096,12 @@
       <c r="BM71" s="26">
         <v>93.9</v>
       </c>
-      <c r="BN71" s="26"/>
-      <c r="BO71" s="26"/>
+      <c r="BN71" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO71" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP71" s="26"/>
       <c r="BQ71" s="26"/>
       <c r="BR71" s="26"/>
@@ -16038,8 +16311,12 @@
       <c r="BM72" s="26">
         <v>97.94</v>
       </c>
-      <c r="BN72" s="26"/>
-      <c r="BO72" s="26"/>
+      <c r="BN72" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO72" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP72" s="26"/>
       <c r="BQ72" s="26"/>
       <c r="BR72" s="26"/>
@@ -16249,8 +16526,12 @@
       <c r="BM73" s="26">
         <v>95.63</v>
       </c>
-      <c r="BN73" s="26"/>
-      <c r="BO73" s="26"/>
+      <c r="BN73" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO73" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP73" s="26"/>
       <c r="BQ73" s="26"/>
       <c r="BR73" s="26"/>
@@ -16460,8 +16741,12 @@
       <c r="BM74" s="26">
         <v>103.16</v>
       </c>
-      <c r="BN74" s="26"/>
-      <c r="BO74" s="26"/>
+      <c r="BN74" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO74" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP74" s="26"/>
       <c r="BQ74" s="26"/>
       <c r="BR74" s="26"/>
@@ -16671,8 +16956,12 @@
       <c r="BM75" s="26">
         <v>98.56</v>
       </c>
-      <c r="BN75" s="26"/>
-      <c r="BO75" s="26"/>
+      <c r="BN75" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO75" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP75" s="26"/>
       <c r="BQ75" s="26"/>
       <c r="BR75" s="26"/>
@@ -16882,8 +17171,12 @@
       <c r="BM76" s="26">
         <v>111.06</v>
       </c>
-      <c r="BN76" s="26"/>
-      <c r="BO76" s="26"/>
+      <c r="BN76" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO76" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP76" s="26"/>
       <c r="BQ76" s="26"/>
       <c r="BR76" s="26"/>
@@ -17093,8 +17386,12 @@
       <c r="BM77" s="26">
         <v>102.17</v>
       </c>
-      <c r="BN77" s="26"/>
-      <c r="BO77" s="26"/>
+      <c r="BN77" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO77" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP77" s="26"/>
       <c r="BQ77" s="26"/>
       <c r="BR77" s="26"/>
@@ -17304,8 +17601,12 @@
       <c r="BM78" s="26">
         <v>98.85</v>
       </c>
-      <c r="BN78" s="26"/>
-      <c r="BO78" s="26"/>
+      <c r="BN78" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO78" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP78" s="26"/>
       <c r="BQ78" s="26"/>
       <c r="BR78" s="26"/>
@@ -17515,8 +17816,12 @@
       <c r="BM79" s="26">
         <v>95.96</v>
       </c>
-      <c r="BN79" s="26"/>
-      <c r="BO79" s="26"/>
+      <c r="BN79" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO79" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP79" s="26"/>
       <c r="BQ79" s="26"/>
       <c r="BR79" s="26"/>
@@ -17726,8 +18031,12 @@
       <c r="BM80" s="26">
         <v>93.79</v>
       </c>
-      <c r="BN80" s="26"/>
-      <c r="BO80" s="26"/>
+      <c r="BN80" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO80" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP80" s="26"/>
       <c r="BQ80" s="26"/>
       <c r="BR80" s="26"/>
@@ -17937,8 +18246,12 @@
       <c r="BM81" s="26">
         <v>102.92</v>
       </c>
-      <c r="BN81" s="26"/>
-      <c r="BO81" s="26"/>
+      <c r="BN81" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO81" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP81" s="26"/>
       <c r="BQ81" s="26"/>
       <c r="BR81" s="26"/>
@@ -18148,8 +18461,12 @@
       <c r="BM82" s="26">
         <v>102.96</v>
       </c>
-      <c r="BN82" s="26"/>
-      <c r="BO82" s="26"/>
+      <c r="BN82" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO82" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP82" s="26"/>
       <c r="BQ82" s="26"/>
       <c r="BR82" s="26"/>
@@ -18359,8 +18676,12 @@
       <c r="BM83" s="26">
         <v>100.6</v>
       </c>
-      <c r="BN83" s="26"/>
-      <c r="BO83" s="26"/>
+      <c r="BN83" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO83" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP83" s="26"/>
       <c r="BQ83" s="26"/>
       <c r="BR83" s="26"/>
@@ -18570,8 +18891,12 @@
       <c r="BM84" s="26">
         <v>106.59</v>
       </c>
-      <c r="BN84" s="26"/>
-      <c r="BO84" s="26"/>
+      <c r="BN84" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO84" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP84" s="26"/>
       <c r="BQ84" s="26"/>
       <c r="BR84" s="26"/>
@@ -18781,8 +19106,12 @@
       <c r="BM85" s="26">
         <v>100.92</v>
       </c>
-      <c r="BN85" s="26"/>
-      <c r="BO85" s="26"/>
+      <c r="BN85" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO85" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP85" s="26"/>
       <c r="BQ85" s="26"/>
       <c r="BR85" s="26"/>
@@ -18992,8 +19321,12 @@
       <c r="BM86" s="26">
         <v>97.58</v>
       </c>
-      <c r="BN86" s="26"/>
-      <c r="BO86" s="26"/>
+      <c r="BN86" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO86" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP86" s="26"/>
       <c r="BQ86" s="26"/>
       <c r="BR86" s="26"/>
@@ -19203,8 +19536,12 @@
       <c r="BM87" s="26">
         <v>101.25</v>
       </c>
-      <c r="BN87" s="26"/>
-      <c r="BO87" s="26"/>
+      <c r="BN87" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO87" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP87" s="26"/>
       <c r="BQ87" s="26"/>
       <c r="BR87" s="26"/>
@@ -19414,8 +19751,12 @@
       <c r="BM88" s="26">
         <v>92.89</v>
       </c>
-      <c r="BN88" s="26"/>
-      <c r="BO88" s="26"/>
+      <c r="BN88" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO88" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP88" s="26"/>
       <c r="BQ88" s="26"/>
       <c r="BR88" s="26"/>
@@ -19625,8 +19966,12 @@
       <c r="BM89" s="26">
         <v>97.72</v>
       </c>
-      <c r="BN89" s="26"/>
-      <c r="BO89" s="26"/>
+      <c r="BN89" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO89" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP89" s="26"/>
       <c r="BQ89" s="26"/>
       <c r="BR89" s="26"/>
@@ -19836,8 +20181,12 @@
       <c r="BM90" s="26">
         <v>98.07</v>
       </c>
-      <c r="BN90" s="26"/>
-      <c r="BO90" s="26"/>
+      <c r="BN90" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO90" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP90" s="26"/>
       <c r="BQ90" s="26"/>
       <c r="BR90" s="26"/>
@@ -20047,8 +20396,12 @@
       <c r="BM91" s="26">
         <v>103.65</v>
       </c>
-      <c r="BN91" s="26"/>
-      <c r="BO91" s="26"/>
+      <c r="BN91" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO91" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BP91" s="26"/>
       <c r="BQ91" s="26"/>
       <c r="BR91" s="26"/>
@@ -20062,6 +20415,11 @@
       <c r="BZ91" s="26"/>
       <c r="CA91" s="26"/>
     </row>
+    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:B5"/>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7801C7BD-F27D-4341-A7EA-4199D371703D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D2D74-1B82-46FB-81ED-75087E5AC24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -384,16 +384,22 @@
     <t>38. Commission-Based Wholesaling</t>
   </si>
   <si>
-    <t>Week ending Saturday 10 April 2021</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 28 April 2021</t>
-  </si>
-  <si>
     <t>Subdivision</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 11 May 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 24 April 2021</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NA = Not available</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -618,6 +624,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1391,7 +1400,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1451,24 +1460,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1490,7 +1499,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4094C99-52A4-42B0-93AC-5A2FCEEC722B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:CA91"/>
+  <dimension ref="A1:CA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1836,10 +1845,10 @@
       <c r="BZ4" s="5"/>
     </row>
     <row r="5" spans="1:79" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="A5" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1922,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2125,8 +2134,12 @@
       <c r="BQ6" s="25">
         <v>44296</v>
       </c>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="25"/>
+      <c r="BR6" s="25">
+        <v>44303</v>
+      </c>
+      <c r="BS6" s="25">
+        <v>44310</v>
+      </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="25"/>
       <c r="BV6" s="25"/>
@@ -2343,8 +2356,12 @@
       <c r="BQ7" s="26">
         <v>95.11</v>
       </c>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="26"/>
+      <c r="BR7" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS7" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT7" s="26"/>
       <c r="BU7" s="26"/>
       <c r="BV7" s="26"/>
@@ -2562,8 +2579,12 @@
       <c r="BQ8" s="26">
         <v>99.71</v>
       </c>
-      <c r="BR8" s="26"/>
-      <c r="BS8" s="26"/>
+      <c r="BR8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS8" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT8" s="26"/>
       <c r="BU8" s="26"/>
       <c r="BV8" s="26"/>
@@ -2781,8 +2802,12 @@
       <c r="BQ9" s="26">
         <v>87.42</v>
       </c>
-      <c r="BR9" s="26"/>
-      <c r="BS9" s="26"/>
+      <c r="BR9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS9" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT9" s="26"/>
       <c r="BU9" s="26"/>
       <c r="BV9" s="26"/>
@@ -3000,8 +3025,12 @@
       <c r="BQ10" s="26">
         <v>88.19</v>
       </c>
-      <c r="BR10" s="26"/>
-      <c r="BS10" s="26"/>
+      <c r="BR10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS10" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT10" s="26"/>
       <c r="BU10" s="26"/>
       <c r="BV10" s="26"/>
@@ -3219,8 +3248,12 @@
       <c r="BQ11" s="26">
         <v>96.8</v>
       </c>
-      <c r="BR11" s="26"/>
-      <c r="BS11" s="26"/>
+      <c r="BR11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS11" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT11" s="26"/>
       <c r="BU11" s="26"/>
       <c r="BV11" s="26"/>
@@ -3438,8 +3471,12 @@
       <c r="BQ12" s="26">
         <v>96.36</v>
       </c>
-      <c r="BR12" s="26"/>
-      <c r="BS12" s="26"/>
+      <c r="BR12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS12" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT12" s="26"/>
       <c r="BU12" s="26"/>
       <c r="BV12" s="26"/>
@@ -3657,8 +3694,12 @@
       <c r="BQ13" s="26">
         <v>91.49</v>
       </c>
-      <c r="BR13" s="26"/>
-      <c r="BS13" s="26"/>
+      <c r="BR13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS13" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT13" s="26"/>
       <c r="BU13" s="26"/>
       <c r="BV13" s="26"/>
@@ -3876,8 +3917,12 @@
       <c r="BQ14" s="26">
         <v>97.13</v>
       </c>
-      <c r="BR14" s="26"/>
-      <c r="BS14" s="26"/>
+      <c r="BR14" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS14" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT14" s="26"/>
       <c r="BU14" s="26"/>
       <c r="BV14" s="26"/>
@@ -4095,8 +4140,12 @@
       <c r="BQ15" s="26">
         <v>105.12</v>
       </c>
-      <c r="BR15" s="26"/>
-      <c r="BS15" s="26"/>
+      <c r="BR15" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS15" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT15" s="26"/>
       <c r="BU15" s="26"/>
       <c r="BV15" s="26"/>
@@ -4314,8 +4363,12 @@
       <c r="BQ16" s="26">
         <v>110.49</v>
       </c>
-      <c r="BR16" s="26"/>
-      <c r="BS16" s="26"/>
+      <c r="BR16" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS16" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT16" s="26"/>
       <c r="BU16" s="26"/>
       <c r="BV16" s="26"/>
@@ -4533,8 +4586,12 @@
       <c r="BQ17" s="26">
         <v>96.04</v>
       </c>
-      <c r="BR17" s="26"/>
-      <c r="BS17" s="26"/>
+      <c r="BR17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS17" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT17" s="26"/>
       <c r="BU17" s="26"/>
       <c r="BV17" s="26"/>
@@ -4752,8 +4809,12 @@
       <c r="BQ18" s="26">
         <v>100.73</v>
       </c>
-      <c r="BR18" s="26"/>
-      <c r="BS18" s="26"/>
+      <c r="BR18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS18" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT18" s="26"/>
       <c r="BU18" s="26"/>
       <c r="BV18" s="26"/>
@@ -4971,8 +5032,12 @@
       <c r="BQ19" s="26">
         <v>99.21</v>
       </c>
-      <c r="BR19" s="26"/>
-      <c r="BS19" s="26"/>
+      <c r="BR19" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS19" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT19" s="26"/>
       <c r="BU19" s="26"/>
       <c r="BV19" s="26"/>
@@ -5190,8 +5255,12 @@
       <c r="BQ20" s="26">
         <v>97.48</v>
       </c>
-      <c r="BR20" s="26"/>
-      <c r="BS20" s="26"/>
+      <c r="BR20" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS20" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT20" s="26"/>
       <c r="BU20" s="26"/>
       <c r="BV20" s="26"/>
@@ -5409,8 +5478,12 @@
       <c r="BQ21" s="26">
         <v>92.28</v>
       </c>
-      <c r="BR21" s="26"/>
-      <c r="BS21" s="26"/>
+      <c r="BR21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS21" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT21" s="26"/>
       <c r="BU21" s="26"/>
       <c r="BV21" s="26"/>
@@ -5628,8 +5701,12 @@
       <c r="BQ22" s="26">
         <v>91.78</v>
       </c>
-      <c r="BR22" s="26"/>
-      <c r="BS22" s="26"/>
+      <c r="BR22" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS22" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT22" s="26"/>
       <c r="BU22" s="26"/>
       <c r="BV22" s="26"/>
@@ -5847,8 +5924,12 @@
       <c r="BQ23" s="26">
         <v>92.58</v>
       </c>
-      <c r="BR23" s="26"/>
-      <c r="BS23" s="26"/>
+      <c r="BR23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS23" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT23" s="26"/>
       <c r="BU23" s="26"/>
       <c r="BV23" s="26"/>
@@ -6066,8 +6147,12 @@
       <c r="BQ24" s="26">
         <v>105.87</v>
       </c>
-      <c r="BR24" s="26"/>
-      <c r="BS24" s="26"/>
+      <c r="BR24" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS24" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT24" s="26"/>
       <c r="BU24" s="26"/>
       <c r="BV24" s="26"/>
@@ -6285,8 +6370,12 @@
       <c r="BQ25" s="26">
         <v>100.66</v>
       </c>
-      <c r="BR25" s="26"/>
-      <c r="BS25" s="26"/>
+      <c r="BR25" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS25" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT25" s="26"/>
       <c r="BU25" s="26"/>
       <c r="BV25" s="26"/>
@@ -6504,8 +6593,12 @@
       <c r="BQ26" s="26">
         <v>89.92</v>
       </c>
-      <c r="BR26" s="26"/>
-      <c r="BS26" s="26"/>
+      <c r="BR26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS26" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT26" s="26"/>
       <c r="BU26" s="26"/>
       <c r="BV26" s="26"/>
@@ -6723,8 +6816,12 @@
       <c r="BQ27" s="26">
         <v>101.16</v>
       </c>
-      <c r="BR27" s="26"/>
-      <c r="BS27" s="26"/>
+      <c r="BR27" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS27" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT27" s="26"/>
       <c r="BU27" s="26"/>
       <c r="BV27" s="26"/>
@@ -6942,8 +7039,12 @@
       <c r="BQ28" s="26">
         <v>95.83</v>
       </c>
-      <c r="BR28" s="26"/>
-      <c r="BS28" s="26"/>
+      <c r="BR28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS28" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT28" s="26"/>
       <c r="BU28" s="26"/>
       <c r="BV28" s="26"/>
@@ -7161,8 +7262,12 @@
       <c r="BQ29" s="26">
         <v>98.6</v>
       </c>
-      <c r="BR29" s="26"/>
-      <c r="BS29" s="26"/>
+      <c r="BR29" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS29" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT29" s="26"/>
       <c r="BU29" s="26"/>
       <c r="BV29" s="26"/>
@@ -7380,8 +7485,12 @@
       <c r="BQ30" s="26">
         <v>98.84</v>
       </c>
-      <c r="BR30" s="26"/>
-      <c r="BS30" s="26"/>
+      <c r="BR30" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS30" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT30" s="26"/>
       <c r="BU30" s="26"/>
       <c r="BV30" s="26"/>
@@ -7599,8 +7708,12 @@
       <c r="BQ31" s="26">
         <v>96.11</v>
       </c>
-      <c r="BR31" s="26"/>
-      <c r="BS31" s="26"/>
+      <c r="BR31" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS31" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT31" s="26"/>
       <c r="BU31" s="26"/>
       <c r="BV31" s="26"/>
@@ -7818,8 +7931,12 @@
       <c r="BQ32" s="26">
         <v>105.31</v>
       </c>
-      <c r="BR32" s="26"/>
-      <c r="BS32" s="26"/>
+      <c r="BR32" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS32" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT32" s="26"/>
       <c r="BU32" s="26"/>
       <c r="BV32" s="26"/>
@@ -8037,8 +8154,12 @@
       <c r="BQ33" s="26">
         <v>119.31</v>
       </c>
-      <c r="BR33" s="26"/>
-      <c r="BS33" s="26"/>
+      <c r="BR33" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS33" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT33" s="26"/>
       <c r="BU33" s="26"/>
       <c r="BV33" s="26"/>
@@ -8256,8 +8377,12 @@
       <c r="BQ34" s="26">
         <v>101.32</v>
       </c>
-      <c r="BR34" s="26"/>
-      <c r="BS34" s="26"/>
+      <c r="BR34" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS34" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT34" s="26"/>
       <c r="BU34" s="26"/>
       <c r="BV34" s="26"/>
@@ -8475,8 +8600,12 @@
       <c r="BQ35" s="26">
         <v>100.48</v>
       </c>
-      <c r="BR35" s="26"/>
-      <c r="BS35" s="26"/>
+      <c r="BR35" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS35" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT35" s="26"/>
       <c r="BU35" s="26"/>
       <c r="BV35" s="26"/>
@@ -8694,8 +8823,12 @@
       <c r="BQ36" s="26">
         <v>103.1</v>
       </c>
-      <c r="BR36" s="26"/>
-      <c r="BS36" s="26"/>
+      <c r="BR36" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS36" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT36" s="26"/>
       <c r="BU36" s="26"/>
       <c r="BV36" s="26"/>
@@ -8913,8 +9046,12 @@
       <c r="BQ37" s="26">
         <v>89.31</v>
       </c>
-      <c r="BR37" s="26"/>
-      <c r="BS37" s="26"/>
+      <c r="BR37" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS37" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT37" s="26"/>
       <c r="BU37" s="26"/>
       <c r="BV37" s="26"/>
@@ -9132,8 +9269,12 @@
       <c r="BQ38" s="26">
         <v>97.09</v>
       </c>
-      <c r="BR38" s="26"/>
-      <c r="BS38" s="26"/>
+      <c r="BR38" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS38" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT38" s="26"/>
       <c r="BU38" s="26"/>
       <c r="BV38" s="26"/>
@@ -9351,8 +9492,12 @@
       <c r="BQ39" s="26">
         <v>95.73</v>
       </c>
-      <c r="BR39" s="26"/>
-      <c r="BS39" s="26"/>
+      <c r="BR39" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS39" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT39" s="26"/>
       <c r="BU39" s="26"/>
       <c r="BV39" s="26"/>
@@ -9570,8 +9715,12 @@
       <c r="BQ40" s="26">
         <v>96.48</v>
       </c>
-      <c r="BR40" s="26"/>
-      <c r="BS40" s="26"/>
+      <c r="BR40" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS40" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT40" s="26"/>
       <c r="BU40" s="26"/>
       <c r="BV40" s="26"/>
@@ -9789,8 +9938,12 @@
       <c r="BQ41" s="26">
         <v>92.99</v>
       </c>
-      <c r="BR41" s="26"/>
-      <c r="BS41" s="26"/>
+      <c r="BR41" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS41" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT41" s="26"/>
       <c r="BU41" s="26"/>
       <c r="BV41" s="26"/>
@@ -10008,8 +10161,12 @@
       <c r="BQ42" s="26">
         <v>94.56</v>
       </c>
-      <c r="BR42" s="26"/>
-      <c r="BS42" s="26"/>
+      <c r="BR42" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS42" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT42" s="26"/>
       <c r="BU42" s="26"/>
       <c r="BV42" s="26"/>
@@ -10227,8 +10384,12 @@
       <c r="BQ43" s="26">
         <v>95.23</v>
       </c>
-      <c r="BR43" s="26"/>
-      <c r="BS43" s="26"/>
+      <c r="BR43" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS43" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT43" s="26"/>
       <c r="BU43" s="26"/>
       <c r="BV43" s="26"/>
@@ -10446,8 +10607,12 @@
       <c r="BQ44" s="26">
         <v>100.62</v>
       </c>
-      <c r="BR44" s="26"/>
-      <c r="BS44" s="26"/>
+      <c r="BR44" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS44" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT44" s="26"/>
       <c r="BU44" s="26"/>
       <c r="BV44" s="26"/>
@@ -10665,8 +10830,12 @@
       <c r="BQ45" s="26">
         <v>103.75</v>
       </c>
-      <c r="BR45" s="26"/>
-      <c r="BS45" s="26"/>
+      <c r="BR45" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS45" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT45" s="26"/>
       <c r="BU45" s="26"/>
       <c r="BV45" s="26"/>
@@ -10884,8 +11053,12 @@
       <c r="BQ46" s="26">
         <v>112.04</v>
       </c>
-      <c r="BR46" s="26"/>
-      <c r="BS46" s="26"/>
+      <c r="BR46" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS46" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT46" s="26"/>
       <c r="BU46" s="26"/>
       <c r="BV46" s="26"/>
@@ -11103,8 +11276,12 @@
       <c r="BQ47" s="26">
         <v>102.87</v>
       </c>
-      <c r="BR47" s="26"/>
-      <c r="BS47" s="26"/>
+      <c r="BR47" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS47" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT47" s="26"/>
       <c r="BU47" s="26"/>
       <c r="BV47" s="26"/>
@@ -11322,8 +11499,12 @@
       <c r="BQ48" s="26">
         <v>95.95</v>
       </c>
-      <c r="BR48" s="26"/>
-      <c r="BS48" s="26"/>
+      <c r="BR48" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS48" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT48" s="26"/>
       <c r="BU48" s="26"/>
       <c r="BV48" s="26"/>
@@ -11541,8 +11722,12 @@
       <c r="BQ49" s="26">
         <v>106.66</v>
       </c>
-      <c r="BR49" s="26"/>
-      <c r="BS49" s="26"/>
+      <c r="BR49" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS49" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT49" s="26"/>
       <c r="BU49" s="26"/>
       <c r="BV49" s="26"/>
@@ -11760,8 +11945,12 @@
       <c r="BQ50" s="26">
         <v>87.2</v>
       </c>
-      <c r="BR50" s="26"/>
-      <c r="BS50" s="26"/>
+      <c r="BR50" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS50" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT50" s="26"/>
       <c r="BU50" s="26"/>
       <c r="BV50" s="26"/>
@@ -11979,8 +12168,12 @@
       <c r="BQ51" s="26">
         <v>88.97</v>
       </c>
-      <c r="BR51" s="26"/>
-      <c r="BS51" s="26"/>
+      <c r="BR51" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS51" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT51" s="26"/>
       <c r="BU51" s="26"/>
       <c r="BV51" s="26"/>
@@ -12198,8 +12391,12 @@
       <c r="BQ52" s="26">
         <v>96.37</v>
       </c>
-      <c r="BR52" s="26"/>
-      <c r="BS52" s="26"/>
+      <c r="BR52" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS52" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT52" s="26"/>
       <c r="BU52" s="26"/>
       <c r="BV52" s="26"/>
@@ -12417,8 +12614,12 @@
       <c r="BQ53" s="26">
         <v>104.38</v>
       </c>
-      <c r="BR53" s="26"/>
-      <c r="BS53" s="26"/>
+      <c r="BR53" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS53" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT53" s="26"/>
       <c r="BU53" s="26"/>
       <c r="BV53" s="26"/>
@@ -12636,8 +12837,12 @@
       <c r="BQ54" s="26">
         <v>86.93</v>
       </c>
-      <c r="BR54" s="26"/>
-      <c r="BS54" s="26"/>
+      <c r="BR54" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS54" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT54" s="26"/>
       <c r="BU54" s="26"/>
       <c r="BV54" s="26"/>
@@ -12855,8 +13060,12 @@
       <c r="BQ55" s="26">
         <v>69.27</v>
       </c>
-      <c r="BR55" s="26"/>
-      <c r="BS55" s="26"/>
+      <c r="BR55" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS55" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT55" s="26"/>
       <c r="BU55" s="26"/>
       <c r="BV55" s="26"/>
@@ -13074,8 +13283,12 @@
       <c r="BQ56" s="26">
         <v>87.65</v>
       </c>
-      <c r="BR56" s="26"/>
-      <c r="BS56" s="26"/>
+      <c r="BR56" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS56" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT56" s="26"/>
       <c r="BU56" s="26"/>
       <c r="BV56" s="26"/>
@@ -13293,8 +13506,12 @@
       <c r="BQ57" s="26">
         <v>98.25</v>
       </c>
-      <c r="BR57" s="26"/>
-      <c r="BS57" s="26"/>
+      <c r="BR57" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS57" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT57" s="26"/>
       <c r="BU57" s="26"/>
       <c r="BV57" s="26"/>
@@ -13512,8 +13729,12 @@
       <c r="BQ58" s="26">
         <v>92.96</v>
       </c>
-      <c r="BR58" s="26"/>
-      <c r="BS58" s="26"/>
+      <c r="BR58" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS58" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT58" s="26"/>
       <c r="BU58" s="26"/>
       <c r="BV58" s="26"/>
@@ -13731,8 +13952,12 @@
       <c r="BQ59" s="26">
         <v>99.17</v>
       </c>
-      <c r="BR59" s="26"/>
-      <c r="BS59" s="26"/>
+      <c r="BR59" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS59" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT59" s="26"/>
       <c r="BU59" s="26"/>
       <c r="BV59" s="26"/>
@@ -13950,8 +14175,12 @@
       <c r="BQ60" s="26">
         <v>85.63</v>
       </c>
-      <c r="BR60" s="26"/>
-      <c r="BS60" s="26"/>
+      <c r="BR60" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS60" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT60" s="26"/>
       <c r="BU60" s="26"/>
       <c r="BV60" s="26"/>
@@ -14169,8 +14398,12 @@
       <c r="BQ61" s="26">
         <v>88.32</v>
       </c>
-      <c r="BR61" s="26"/>
-      <c r="BS61" s="26"/>
+      <c r="BR61" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS61" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT61" s="26"/>
       <c r="BU61" s="26"/>
       <c r="BV61" s="26"/>
@@ -14388,8 +14621,12 @@
       <c r="BQ62" s="26">
         <v>86.03</v>
       </c>
-      <c r="BR62" s="26"/>
-      <c r="BS62" s="26"/>
+      <c r="BR62" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS62" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT62" s="26"/>
       <c r="BU62" s="26"/>
       <c r="BV62" s="26"/>
@@ -14607,8 +14844,12 @@
       <c r="BQ63" s="26">
         <v>103.42</v>
       </c>
-      <c r="BR63" s="26"/>
-      <c r="BS63" s="26"/>
+      <c r="BR63" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS63" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT63" s="26"/>
       <c r="BU63" s="26"/>
       <c r="BV63" s="26"/>
@@ -14826,8 +15067,12 @@
       <c r="BQ64" s="26">
         <v>90.42</v>
       </c>
-      <c r="BR64" s="26"/>
-      <c r="BS64" s="26"/>
+      <c r="BR64" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS64" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT64" s="26"/>
       <c r="BU64" s="26"/>
       <c r="BV64" s="26"/>
@@ -15045,8 +15290,12 @@
       <c r="BQ65" s="26">
         <v>102.93</v>
       </c>
-      <c r="BR65" s="26"/>
-      <c r="BS65" s="26"/>
+      <c r="BR65" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS65" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT65" s="26"/>
       <c r="BU65" s="26"/>
       <c r="BV65" s="26"/>
@@ -15264,8 +15513,12 @@
       <c r="BQ66" s="26">
         <v>103.71</v>
       </c>
-      <c r="BR66" s="26"/>
-      <c r="BS66" s="26"/>
+      <c r="BR66" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS66" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT66" s="26"/>
       <c r="BU66" s="26"/>
       <c r="BV66" s="26"/>
@@ -15483,8 +15736,12 @@
       <c r="BQ67" s="26">
         <v>110.66</v>
       </c>
-      <c r="BR67" s="26"/>
-      <c r="BS67" s="26"/>
+      <c r="BR67" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS67" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT67" s="26"/>
       <c r="BU67" s="26"/>
       <c r="BV67" s="26"/>
@@ -15702,8 +15959,12 @@
       <c r="BQ68" s="26">
         <v>96.03</v>
       </c>
-      <c r="BR68" s="26"/>
-      <c r="BS68" s="26"/>
+      <c r="BR68" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS68" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT68" s="26"/>
       <c r="BU68" s="26"/>
       <c r="BV68" s="26"/>
@@ -15921,8 +16182,12 @@
       <c r="BQ69" s="26">
         <v>107.41</v>
       </c>
-      <c r="BR69" s="26"/>
-      <c r="BS69" s="26"/>
+      <c r="BR69" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS69" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT69" s="26"/>
       <c r="BU69" s="26"/>
       <c r="BV69" s="26"/>
@@ -16140,8 +16405,12 @@
       <c r="BQ70" s="26">
         <v>103.17</v>
       </c>
-      <c r="BR70" s="26"/>
-      <c r="BS70" s="26"/>
+      <c r="BR70" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS70" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT70" s="26"/>
       <c r="BU70" s="26"/>
       <c r="BV70" s="26"/>
@@ -16359,8 +16628,12 @@
       <c r="BQ71" s="26">
         <v>95.12</v>
       </c>
-      <c r="BR71" s="26"/>
-      <c r="BS71" s="26"/>
+      <c r="BR71" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS71" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT71" s="26"/>
       <c r="BU71" s="26"/>
       <c r="BV71" s="26"/>
@@ -16578,8 +16851,12 @@
       <c r="BQ72" s="26">
         <v>98.97</v>
       </c>
-      <c r="BR72" s="26"/>
-      <c r="BS72" s="26"/>
+      <c r="BR72" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS72" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT72" s="26"/>
       <c r="BU72" s="26"/>
       <c r="BV72" s="26"/>
@@ -16797,8 +17074,12 @@
       <c r="BQ73" s="26">
         <v>96.97</v>
       </c>
-      <c r="BR73" s="26"/>
-      <c r="BS73" s="26"/>
+      <c r="BR73" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS73" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT73" s="26"/>
       <c r="BU73" s="26"/>
       <c r="BV73" s="26"/>
@@ -17016,8 +17297,12 @@
       <c r="BQ74" s="26">
         <v>103.14</v>
       </c>
-      <c r="BR74" s="26"/>
-      <c r="BS74" s="26"/>
+      <c r="BR74" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS74" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT74" s="26"/>
       <c r="BU74" s="26"/>
       <c r="BV74" s="26"/>
@@ -17235,8 +17520,12 @@
       <c r="BQ75" s="26">
         <v>89.67</v>
       </c>
-      <c r="BR75" s="26"/>
-      <c r="BS75" s="26"/>
+      <c r="BR75" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS75" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT75" s="26"/>
       <c r="BU75" s="26"/>
       <c r="BV75" s="26"/>
@@ -17454,8 +17743,12 @@
       <c r="BQ76" s="26">
         <v>114.37</v>
       </c>
-      <c r="BR76" s="26"/>
-      <c r="BS76" s="26"/>
+      <c r="BR76" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS76" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT76" s="26"/>
       <c r="BU76" s="26"/>
       <c r="BV76" s="26"/>
@@ -17673,8 +17966,12 @@
       <c r="BQ77" s="26">
         <v>102.13</v>
       </c>
-      <c r="BR77" s="26"/>
-      <c r="BS77" s="26"/>
+      <c r="BR77" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS77" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT77" s="26"/>
       <c r="BU77" s="26"/>
       <c r="BV77" s="26"/>
@@ -17892,8 +18189,12 @@
       <c r="BQ78" s="26">
         <v>100.15</v>
       </c>
-      <c r="BR78" s="26"/>
-      <c r="BS78" s="26"/>
+      <c r="BR78" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS78" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT78" s="26"/>
       <c r="BU78" s="26"/>
       <c r="BV78" s="26"/>
@@ -18111,8 +18412,12 @@
       <c r="BQ79" s="26">
         <v>100.03</v>
       </c>
-      <c r="BR79" s="26"/>
-      <c r="BS79" s="26"/>
+      <c r="BR79" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS79" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT79" s="26"/>
       <c r="BU79" s="26"/>
       <c r="BV79" s="26"/>
@@ -18330,8 +18635,12 @@
       <c r="BQ80" s="26">
         <v>97.85</v>
       </c>
-      <c r="BR80" s="26"/>
-      <c r="BS80" s="26"/>
+      <c r="BR80" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS80" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT80" s="26"/>
       <c r="BU80" s="26"/>
       <c r="BV80" s="26"/>
@@ -18549,8 +18858,12 @@
       <c r="BQ81" s="26">
         <v>104.75</v>
       </c>
-      <c r="BR81" s="26"/>
-      <c r="BS81" s="26"/>
+      <c r="BR81" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS81" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT81" s="26"/>
       <c r="BU81" s="26"/>
       <c r="BV81" s="26"/>
@@ -18768,8 +19081,12 @@
       <c r="BQ82" s="26">
         <v>103.64</v>
       </c>
-      <c r="BR82" s="26"/>
-      <c r="BS82" s="26"/>
+      <c r="BR82" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS82" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT82" s="26"/>
       <c r="BU82" s="26"/>
       <c r="BV82" s="26"/>
@@ -18987,8 +19304,12 @@
       <c r="BQ83" s="26">
         <v>99.64</v>
       </c>
-      <c r="BR83" s="26"/>
-      <c r="BS83" s="26"/>
+      <c r="BR83" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS83" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT83" s="26"/>
       <c r="BU83" s="26"/>
       <c r="BV83" s="26"/>
@@ -19206,8 +19527,12 @@
       <c r="BQ84" s="26">
         <v>107.5</v>
       </c>
-      <c r="BR84" s="26"/>
-      <c r="BS84" s="26"/>
+      <c r="BR84" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS84" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT84" s="26"/>
       <c r="BU84" s="26"/>
       <c r="BV84" s="26"/>
@@ -19425,8 +19750,12 @@
       <c r="BQ85" s="26">
         <v>101.75</v>
       </c>
-      <c r="BR85" s="26"/>
-      <c r="BS85" s="26"/>
+      <c r="BR85" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS85" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT85" s="26"/>
       <c r="BU85" s="26"/>
       <c r="BV85" s="26"/>
@@ -19644,8 +19973,12 @@
       <c r="BQ86" s="26">
         <v>94.54</v>
       </c>
-      <c r="BR86" s="26"/>
-      <c r="BS86" s="26"/>
+      <c r="BR86" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS86" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT86" s="26"/>
       <c r="BU86" s="26"/>
       <c r="BV86" s="26"/>
@@ -19863,8 +20196,12 @@
       <c r="BQ87" s="26">
         <v>100</v>
       </c>
-      <c r="BR87" s="26"/>
-      <c r="BS87" s="26"/>
+      <c r="BR87" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS87" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT87" s="26"/>
       <c r="BU87" s="26"/>
       <c r="BV87" s="26"/>
@@ -20082,8 +20419,12 @@
       <c r="BQ88" s="26">
         <v>92.2</v>
       </c>
-      <c r="BR88" s="26"/>
-      <c r="BS88" s="26"/>
+      <c r="BR88" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS88" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT88" s="26"/>
       <c r="BU88" s="26"/>
       <c r="BV88" s="26"/>
@@ -20301,8 +20642,12 @@
       <c r="BQ89" s="26">
         <v>97.91</v>
       </c>
-      <c r="BR89" s="26"/>
-      <c r="BS89" s="26"/>
+      <c r="BR89" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS89" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT89" s="26"/>
       <c r="BU89" s="26"/>
       <c r="BV89" s="26"/>
@@ -20520,8 +20865,12 @@
       <c r="BQ90" s="26">
         <v>98.93</v>
       </c>
-      <c r="BR90" s="26"/>
-      <c r="BS90" s="26"/>
+      <c r="BR90" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS90" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT90" s="26"/>
       <c r="BU90" s="26"/>
       <c r="BV90" s="26"/>
@@ -20739,8 +21088,12 @@
       <c r="BQ91" s="26">
         <v>105.74</v>
       </c>
-      <c r="BR91" s="26"/>
-      <c r="BS91" s="26"/>
+      <c r="BR91" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="BS91" s="27" t="s">
+        <v>119</v>
+      </c>
       <c r="BT91" s="26"/>
       <c r="BU91" s="26"/>
       <c r="BV91" s="26"/>
@@ -20749,6 +21102,11 @@
       <c r="BY91" s="26"/>
       <c r="BZ91" s="26"/>
       <c r="CA91" s="26"/>
+    </row>
+    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D2D74-1B82-46FB-81ED-75087E5AC24F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B99D81-A8EA-4CF6-B051-D9D5EA80229C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
@@ -19,12 +19,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -390,16 +398,16 @@
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 11 May 2021</t>
-  </si>
-  <si>
-    <t>Week ending Saturday 24 April 2021</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>NA = Not available</t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 25 May 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 8 May 2021</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1408,7 @@
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1690,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -2140,8 +2148,12 @@
       <c r="BS6" s="25">
         <v>44310</v>
       </c>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
+      <c r="BT6" s="25">
+        <v>44317</v>
+      </c>
+      <c r="BU6" s="25">
+        <v>44324</v>
+      </c>
       <c r="BV6" s="25"/>
       <c r="BW6" s="25"/>
       <c r="BX6" s="25"/>
@@ -2357,13 +2369,17 @@
         <v>95.11</v>
       </c>
       <c r="BR7" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS7" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT7" s="26"/>
-      <c r="BU7" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT7" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU7" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV7" s="26"/>
       <c r="BW7" s="26"/>
       <c r="BX7" s="26"/>
@@ -2580,13 +2596,17 @@
         <v>99.71</v>
       </c>
       <c r="BR8" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS8" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT8" s="26"/>
-      <c r="BU8" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT8" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU8" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV8" s="26"/>
       <c r="BW8" s="26"/>
       <c r="BX8" s="26"/>
@@ -2803,13 +2823,17 @@
         <v>87.42</v>
       </c>
       <c r="BR9" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS9" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT9" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU9" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV9" s="26"/>
       <c r="BW9" s="26"/>
       <c r="BX9" s="26"/>
@@ -3026,13 +3050,17 @@
         <v>88.19</v>
       </c>
       <c r="BR10" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS10" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT10" s="26"/>
-      <c r="BU10" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU10" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV10" s="26"/>
       <c r="BW10" s="26"/>
       <c r="BX10" s="26"/>
@@ -3249,13 +3277,17 @@
         <v>96.8</v>
       </c>
       <c r="BR11" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS11" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT11" s="26"/>
-      <c r="BU11" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT11" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU11" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV11" s="26"/>
       <c r="BW11" s="26"/>
       <c r="BX11" s="26"/>
@@ -3472,13 +3504,17 @@
         <v>96.36</v>
       </c>
       <c r="BR12" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT12" s="26"/>
-      <c r="BU12" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU12" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV12" s="26"/>
       <c r="BW12" s="26"/>
       <c r="BX12" s="26"/>
@@ -3695,13 +3731,17 @@
         <v>91.49</v>
       </c>
       <c r="BR13" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS13" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT13" s="26"/>
-      <c r="BU13" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT13" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU13" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV13" s="26"/>
       <c r="BW13" s="26"/>
       <c r="BX13" s="26"/>
@@ -3918,13 +3958,17 @@
         <v>97.13</v>
       </c>
       <c r="BR14" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS14" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT14" s="26"/>
-      <c r="BU14" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT14" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU14" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV14" s="26"/>
       <c r="BW14" s="26"/>
       <c r="BX14" s="26"/>
@@ -4141,13 +4185,17 @@
         <v>105.12</v>
       </c>
       <c r="BR15" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS15" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT15" s="26"/>
-      <c r="BU15" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT15" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU15" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV15" s="26"/>
       <c r="BW15" s="26"/>
       <c r="BX15" s="26"/>
@@ -4364,13 +4412,17 @@
         <v>110.49</v>
       </c>
       <c r="BR16" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS16" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT16" s="26"/>
-      <c r="BU16" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU16" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV16" s="26"/>
       <c r="BW16" s="26"/>
       <c r="BX16" s="26"/>
@@ -4587,13 +4639,17 @@
         <v>96.04</v>
       </c>
       <c r="BR17" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS17" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT17" s="26"/>
-      <c r="BU17" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT17" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU17" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV17" s="26"/>
       <c r="BW17" s="26"/>
       <c r="BX17" s="26"/>
@@ -4810,13 +4866,17 @@
         <v>100.73</v>
       </c>
       <c r="BR18" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS18" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT18" s="26"/>
-      <c r="BU18" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT18" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU18" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV18" s="26"/>
       <c r="BW18" s="26"/>
       <c r="BX18" s="26"/>
@@ -5033,13 +5093,17 @@
         <v>99.21</v>
       </c>
       <c r="BR19" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS19" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT19" s="26"/>
-      <c r="BU19" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU19" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV19" s="26"/>
       <c r="BW19" s="26"/>
       <c r="BX19" s="26"/>
@@ -5256,13 +5320,17 @@
         <v>97.48</v>
       </c>
       <c r="BR20" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS20" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT20" s="26"/>
-      <c r="BU20" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT20" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU20" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV20" s="26"/>
       <c r="BW20" s="26"/>
       <c r="BX20" s="26"/>
@@ -5479,13 +5547,17 @@
         <v>92.28</v>
       </c>
       <c r="BR21" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT21" s="26"/>
-      <c r="BU21" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT21" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU21" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV21" s="26"/>
       <c r="BW21" s="26"/>
       <c r="BX21" s="26"/>
@@ -5702,13 +5774,17 @@
         <v>91.78</v>
       </c>
       <c r="BR22" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS22" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT22" s="26"/>
-      <c r="BU22" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT22" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU22" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV22" s="26"/>
       <c r="BW22" s="26"/>
       <c r="BX22" s="26"/>
@@ -5925,13 +6001,17 @@
         <v>92.58</v>
       </c>
       <c r="BR23" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS23" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT23" s="26"/>
-      <c r="BU23" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU23" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV23" s="26"/>
       <c r="BW23" s="26"/>
       <c r="BX23" s="26"/>
@@ -6148,13 +6228,17 @@
         <v>105.87</v>
       </c>
       <c r="BR24" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS24" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT24" s="26"/>
-      <c r="BU24" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT24" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU24" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV24" s="26"/>
       <c r="BW24" s="26"/>
       <c r="BX24" s="26"/>
@@ -6371,13 +6455,17 @@
         <v>100.66</v>
       </c>
       <c r="BR25" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS25" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT25" s="26"/>
-      <c r="BU25" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU25" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV25" s="26"/>
       <c r="BW25" s="26"/>
       <c r="BX25" s="26"/>
@@ -6594,13 +6682,17 @@
         <v>89.92</v>
       </c>
       <c r="BR26" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS26" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT26" s="26"/>
-      <c r="BU26" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT26" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU26" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV26" s="26"/>
       <c r="BW26" s="26"/>
       <c r="BX26" s="26"/>
@@ -6817,13 +6909,17 @@
         <v>101.16</v>
       </c>
       <c r="BR27" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS27" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT27" s="26"/>
-      <c r="BU27" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT27" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU27" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV27" s="26"/>
       <c r="BW27" s="26"/>
       <c r="BX27" s="26"/>
@@ -7040,13 +7136,17 @@
         <v>95.83</v>
       </c>
       <c r="BR28" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS28" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT28" s="26"/>
-      <c r="BU28" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU28" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV28" s="26"/>
       <c r="BW28" s="26"/>
       <c r="BX28" s="26"/>
@@ -7263,13 +7363,17 @@
         <v>98.6</v>
       </c>
       <c r="BR29" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS29" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT29" s="26"/>
-      <c r="BU29" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT29" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU29" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV29" s="26"/>
       <c r="BW29" s="26"/>
       <c r="BX29" s="26"/>
@@ -7486,13 +7590,17 @@
         <v>98.84</v>
       </c>
       <c r="BR30" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS30" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT30" s="26"/>
-      <c r="BU30" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT30" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU30" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV30" s="26"/>
       <c r="BW30" s="26"/>
       <c r="BX30" s="26"/>
@@ -7709,13 +7817,17 @@
         <v>96.11</v>
       </c>
       <c r="BR31" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS31" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT31" s="26"/>
-      <c r="BU31" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU31" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV31" s="26"/>
       <c r="BW31" s="26"/>
       <c r="BX31" s="26"/>
@@ -7932,13 +8044,17 @@
         <v>105.31</v>
       </c>
       <c r="BR32" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS32" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT32" s="26"/>
-      <c r="BU32" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT32" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU32" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV32" s="26"/>
       <c r="BW32" s="26"/>
       <c r="BX32" s="26"/>
@@ -8155,13 +8271,17 @@
         <v>119.31</v>
       </c>
       <c r="BR33" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS33" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT33" s="26"/>
-      <c r="BU33" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT33" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU33" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV33" s="26"/>
       <c r="BW33" s="26"/>
       <c r="BX33" s="26"/>
@@ -8378,13 +8498,17 @@
         <v>101.32</v>
       </c>
       <c r="BR34" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS34" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT34" s="26"/>
-      <c r="BU34" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT34" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU34" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV34" s="26"/>
       <c r="BW34" s="26"/>
       <c r="BX34" s="26"/>
@@ -8601,13 +8725,17 @@
         <v>100.48</v>
       </c>
       <c r="BR35" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS35" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT35" s="26"/>
-      <c r="BU35" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT35" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU35" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV35" s="26"/>
       <c r="BW35" s="26"/>
       <c r="BX35" s="26"/>
@@ -8824,13 +8952,17 @@
         <v>103.1</v>
       </c>
       <c r="BR36" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS36" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT36" s="26"/>
-      <c r="BU36" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT36" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU36" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV36" s="26"/>
       <c r="BW36" s="26"/>
       <c r="BX36" s="26"/>
@@ -9047,13 +9179,17 @@
         <v>89.31</v>
       </c>
       <c r="BR37" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS37" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT37" s="26"/>
-      <c r="BU37" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT37" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU37" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV37" s="26"/>
       <c r="BW37" s="26"/>
       <c r="BX37" s="26"/>
@@ -9270,13 +9406,17 @@
         <v>97.09</v>
       </c>
       <c r="BR38" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS38" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT38" s="26"/>
-      <c r="BU38" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU38" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV38" s="26"/>
       <c r="BW38" s="26"/>
       <c r="BX38" s="26"/>
@@ -9493,13 +9633,17 @@
         <v>95.73</v>
       </c>
       <c r="BR39" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS39" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT39" s="26"/>
-      <c r="BU39" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT39" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU39" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV39" s="26"/>
       <c r="BW39" s="26"/>
       <c r="BX39" s="26"/>
@@ -9716,13 +9860,17 @@
         <v>96.48</v>
       </c>
       <c r="BR40" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS40" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT40" s="26"/>
-      <c r="BU40" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT40" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU40" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV40" s="26"/>
       <c r="BW40" s="26"/>
       <c r="BX40" s="26"/>
@@ -9939,13 +10087,17 @@
         <v>92.99</v>
       </c>
       <c r="BR41" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS41" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT41" s="26"/>
-      <c r="BU41" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT41" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU41" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV41" s="26"/>
       <c r="BW41" s="26"/>
       <c r="BX41" s="26"/>
@@ -10162,13 +10314,17 @@
         <v>94.56</v>
       </c>
       <c r="BR42" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS42" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT42" s="26"/>
-      <c r="BU42" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT42" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU42" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV42" s="26"/>
       <c r="BW42" s="26"/>
       <c r="BX42" s="26"/>
@@ -10385,13 +10541,17 @@
         <v>95.23</v>
       </c>
       <c r="BR43" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS43" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT43" s="26"/>
-      <c r="BU43" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT43" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU43" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV43" s="26"/>
       <c r="BW43" s="26"/>
       <c r="BX43" s="26"/>
@@ -10608,13 +10768,17 @@
         <v>100.62</v>
       </c>
       <c r="BR44" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS44" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT44" s="26"/>
-      <c r="BU44" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU44" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV44" s="26"/>
       <c r="BW44" s="26"/>
       <c r="BX44" s="26"/>
@@ -10831,13 +10995,17 @@
         <v>103.75</v>
       </c>
       <c r="BR45" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS45" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT45" s="26"/>
-      <c r="BU45" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT45" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU45" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV45" s="26"/>
       <c r="BW45" s="26"/>
       <c r="BX45" s="26"/>
@@ -11054,13 +11222,17 @@
         <v>112.04</v>
       </c>
       <c r="BR46" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS46" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT46" s="26"/>
-      <c r="BU46" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT46" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU46" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV46" s="26"/>
       <c r="BW46" s="26"/>
       <c r="BX46" s="26"/>
@@ -11277,13 +11449,17 @@
         <v>102.87</v>
       </c>
       <c r="BR47" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS47" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT47" s="26"/>
-      <c r="BU47" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT47" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU47" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV47" s="26"/>
       <c r="BW47" s="26"/>
       <c r="BX47" s="26"/>
@@ -11500,13 +11676,17 @@
         <v>95.95</v>
       </c>
       <c r="BR48" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS48" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT48" s="26"/>
-      <c r="BU48" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT48" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU48" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV48" s="26"/>
       <c r="BW48" s="26"/>
       <c r="BX48" s="26"/>
@@ -11723,13 +11903,17 @@
         <v>106.66</v>
       </c>
       <c r="BR49" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS49" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT49" s="26"/>
-      <c r="BU49" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT49" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU49" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV49" s="26"/>
       <c r="BW49" s="26"/>
       <c r="BX49" s="26"/>
@@ -11946,13 +12130,17 @@
         <v>87.2</v>
       </c>
       <c r="BR50" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS50" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT50" s="26"/>
-      <c r="BU50" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT50" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU50" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV50" s="26"/>
       <c r="BW50" s="26"/>
       <c r="BX50" s="26"/>
@@ -12169,13 +12357,17 @@
         <v>88.97</v>
       </c>
       <c r="BR51" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS51" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT51" s="26"/>
-      <c r="BU51" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT51" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU51" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV51" s="26"/>
       <c r="BW51" s="26"/>
       <c r="BX51" s="26"/>
@@ -12392,13 +12584,17 @@
         <v>96.37</v>
       </c>
       <c r="BR52" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS52" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT52" s="26"/>
-      <c r="BU52" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT52" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU52" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV52" s="26"/>
       <c r="BW52" s="26"/>
       <c r="BX52" s="26"/>
@@ -12615,13 +12811,17 @@
         <v>104.38</v>
       </c>
       <c r="BR53" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS53" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT53" s="26"/>
-      <c r="BU53" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT53" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU53" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV53" s="26"/>
       <c r="BW53" s="26"/>
       <c r="BX53" s="26"/>
@@ -12838,13 +13038,17 @@
         <v>86.93</v>
       </c>
       <c r="BR54" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS54" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT54" s="26"/>
-      <c r="BU54" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT54" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU54" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV54" s="26"/>
       <c r="BW54" s="26"/>
       <c r="BX54" s="26"/>
@@ -13061,13 +13265,17 @@
         <v>69.27</v>
       </c>
       <c r="BR55" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS55" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT55" s="26"/>
-      <c r="BU55" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT55" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU55" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV55" s="26"/>
       <c r="BW55" s="26"/>
       <c r="BX55" s="26"/>
@@ -13284,13 +13492,17 @@
         <v>87.65</v>
       </c>
       <c r="BR56" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS56" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT56" s="26"/>
-      <c r="BU56" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT56" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU56" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV56" s="26"/>
       <c r="BW56" s="26"/>
       <c r="BX56" s="26"/>
@@ -13507,13 +13719,17 @@
         <v>98.25</v>
       </c>
       <c r="BR57" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS57" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT57" s="26"/>
-      <c r="BU57" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU57" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV57" s="26"/>
       <c r="BW57" s="26"/>
       <c r="BX57" s="26"/>
@@ -13730,13 +13946,17 @@
         <v>92.96</v>
       </c>
       <c r="BR58" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS58" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT58" s="26"/>
-      <c r="BU58" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT58" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU58" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV58" s="26"/>
       <c r="BW58" s="26"/>
       <c r="BX58" s="26"/>
@@ -13953,13 +14173,17 @@
         <v>99.17</v>
       </c>
       <c r="BR59" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS59" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT59" s="26"/>
-      <c r="BU59" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT59" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU59" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV59" s="26"/>
       <c r="BW59" s="26"/>
       <c r="BX59" s="26"/>
@@ -14176,13 +14400,17 @@
         <v>85.63</v>
       </c>
       <c r="BR60" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS60" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT60" s="26"/>
-      <c r="BU60" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT60" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU60" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV60" s="26"/>
       <c r="BW60" s="26"/>
       <c r="BX60" s="26"/>
@@ -14399,13 +14627,17 @@
         <v>88.32</v>
       </c>
       <c r="BR61" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS61" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT61" s="26"/>
-      <c r="BU61" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT61" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU61" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV61" s="26"/>
       <c r="BW61" s="26"/>
       <c r="BX61" s="26"/>
@@ -14622,13 +14854,17 @@
         <v>86.03</v>
       </c>
       <c r="BR62" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS62" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT62" s="26"/>
-      <c r="BU62" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT62" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU62" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV62" s="26"/>
       <c r="BW62" s="26"/>
       <c r="BX62" s="26"/>
@@ -14845,13 +15081,17 @@
         <v>103.42</v>
       </c>
       <c r="BR63" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS63" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT63" s="26"/>
-      <c r="BU63" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT63" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU63" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV63" s="26"/>
       <c r="BW63" s="26"/>
       <c r="BX63" s="26"/>
@@ -15068,13 +15308,17 @@
         <v>90.42</v>
       </c>
       <c r="BR64" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS64" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT64" s="26"/>
-      <c r="BU64" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT64" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU64" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV64" s="26"/>
       <c r="BW64" s="26"/>
       <c r="BX64" s="26"/>
@@ -15291,13 +15535,17 @@
         <v>102.93</v>
       </c>
       <c r="BR65" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS65" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT65" s="26"/>
-      <c r="BU65" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT65" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU65" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV65" s="26"/>
       <c r="BW65" s="26"/>
       <c r="BX65" s="26"/>
@@ -15514,13 +15762,17 @@
         <v>103.71</v>
       </c>
       <c r="BR66" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS66" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT66" s="26"/>
-      <c r="BU66" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT66" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU66" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV66" s="26"/>
       <c r="BW66" s="26"/>
       <c r="BX66" s="26"/>
@@ -15737,13 +15989,17 @@
         <v>110.66</v>
       </c>
       <c r="BR67" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS67" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT67" s="26"/>
-      <c r="BU67" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT67" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU67" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV67" s="26"/>
       <c r="BW67" s="26"/>
       <c r="BX67" s="26"/>
@@ -15960,13 +16216,17 @@
         <v>96.03</v>
       </c>
       <c r="BR68" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS68" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT68" s="26"/>
-      <c r="BU68" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT68" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU68" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV68" s="26"/>
       <c r="BW68" s="26"/>
       <c r="BX68" s="26"/>
@@ -16183,13 +16443,17 @@
         <v>107.41</v>
       </c>
       <c r="BR69" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS69" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT69" s="26"/>
-      <c r="BU69" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT69" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU69" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV69" s="26"/>
       <c r="BW69" s="26"/>
       <c r="BX69" s="26"/>
@@ -16406,13 +16670,17 @@
         <v>103.17</v>
       </c>
       <c r="BR70" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS70" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT70" s="26"/>
-      <c r="BU70" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT70" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU70" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV70" s="26"/>
       <c r="BW70" s="26"/>
       <c r="BX70" s="26"/>
@@ -16629,13 +16897,17 @@
         <v>95.12</v>
       </c>
       <c r="BR71" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS71" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT71" s="26"/>
-      <c r="BU71" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT71" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU71" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV71" s="26"/>
       <c r="BW71" s="26"/>
       <c r="BX71" s="26"/>
@@ -16852,13 +17124,17 @@
         <v>98.97</v>
       </c>
       <c r="BR72" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS72" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT72" s="26"/>
-      <c r="BU72" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT72" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU72" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV72" s="26"/>
       <c r="BW72" s="26"/>
       <c r="BX72" s="26"/>
@@ -17075,13 +17351,17 @@
         <v>96.97</v>
       </c>
       <c r="BR73" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS73" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT73" s="26"/>
-      <c r="BU73" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT73" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU73" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV73" s="26"/>
       <c r="BW73" s="26"/>
       <c r="BX73" s="26"/>
@@ -17298,13 +17578,17 @@
         <v>103.14</v>
       </c>
       <c r="BR74" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS74" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT74" s="26"/>
-      <c r="BU74" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT74" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU74" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV74" s="26"/>
       <c r="BW74" s="26"/>
       <c r="BX74" s="26"/>
@@ -17521,13 +17805,17 @@
         <v>89.67</v>
       </c>
       <c r="BR75" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS75" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT75" s="26"/>
-      <c r="BU75" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT75" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU75" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV75" s="26"/>
       <c r="BW75" s="26"/>
       <c r="BX75" s="26"/>
@@ -17744,13 +18032,17 @@
         <v>114.37</v>
       </c>
       <c r="BR76" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS76" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT76" s="26"/>
-      <c r="BU76" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT76" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU76" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV76" s="26"/>
       <c r="BW76" s="26"/>
       <c r="BX76" s="26"/>
@@ -17967,13 +18259,17 @@
         <v>102.13</v>
       </c>
       <c r="BR77" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS77" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT77" s="26"/>
-      <c r="BU77" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT77" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU77" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV77" s="26"/>
       <c r="BW77" s="26"/>
       <c r="BX77" s="26"/>
@@ -18190,13 +18486,17 @@
         <v>100.15</v>
       </c>
       <c r="BR78" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS78" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT78" s="26"/>
-      <c r="BU78" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT78" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU78" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV78" s="26"/>
       <c r="BW78" s="26"/>
       <c r="BX78" s="26"/>
@@ -18413,13 +18713,17 @@
         <v>100.03</v>
       </c>
       <c r="BR79" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS79" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT79" s="26"/>
-      <c r="BU79" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT79" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU79" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV79" s="26"/>
       <c r="BW79" s="26"/>
       <c r="BX79" s="26"/>
@@ -18636,13 +18940,17 @@
         <v>97.85</v>
       </c>
       <c r="BR80" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS80" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT80" s="26"/>
-      <c r="BU80" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT80" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU80" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV80" s="26"/>
       <c r="BW80" s="26"/>
       <c r="BX80" s="26"/>
@@ -18859,13 +19167,17 @@
         <v>104.75</v>
       </c>
       <c r="BR81" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS81" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT81" s="26"/>
-      <c r="BU81" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT81" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU81" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV81" s="26"/>
       <c r="BW81" s="26"/>
       <c r="BX81" s="26"/>
@@ -19082,13 +19394,17 @@
         <v>103.64</v>
       </c>
       <c r="BR82" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS82" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT82" s="26"/>
-      <c r="BU82" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT82" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU82" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV82" s="26"/>
       <c r="BW82" s="26"/>
       <c r="BX82" s="26"/>
@@ -19305,13 +19621,17 @@
         <v>99.64</v>
       </c>
       <c r="BR83" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS83" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT83" s="26"/>
-      <c r="BU83" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT83" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU83" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV83" s="26"/>
       <c r="BW83" s="26"/>
       <c r="BX83" s="26"/>
@@ -19528,13 +19848,17 @@
         <v>107.5</v>
       </c>
       <c r="BR84" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS84" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT84" s="26"/>
-      <c r="BU84" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT84" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU84" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV84" s="26"/>
       <c r="BW84" s="26"/>
       <c r="BX84" s="26"/>
@@ -19751,13 +20075,17 @@
         <v>101.75</v>
       </c>
       <c r="BR85" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS85" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT85" s="26"/>
-      <c r="BU85" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT85" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU85" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV85" s="26"/>
       <c r="BW85" s="26"/>
       <c r="BX85" s="26"/>
@@ -19974,13 +20302,17 @@
         <v>94.54</v>
       </c>
       <c r="BR86" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS86" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT86" s="26"/>
-      <c r="BU86" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT86" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU86" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV86" s="26"/>
       <c r="BW86" s="26"/>
       <c r="BX86" s="26"/>
@@ -20197,13 +20529,17 @@
         <v>100</v>
       </c>
       <c r="BR87" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS87" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT87" s="26"/>
-      <c r="BU87" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT87" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU87" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV87" s="26"/>
       <c r="BW87" s="26"/>
       <c r="BX87" s="26"/>
@@ -20420,13 +20756,17 @@
         <v>92.2</v>
       </c>
       <c r="BR88" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS88" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT88" s="26"/>
-      <c r="BU88" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT88" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU88" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV88" s="26"/>
       <c r="BW88" s="26"/>
       <c r="BX88" s="26"/>
@@ -20643,13 +20983,17 @@
         <v>97.91</v>
       </c>
       <c r="BR89" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS89" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT89" s="26"/>
-      <c r="BU89" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT89" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU89" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV89" s="26"/>
       <c r="BW89" s="26"/>
       <c r="BX89" s="26"/>
@@ -20866,13 +21210,17 @@
         <v>98.93</v>
       </c>
       <c r="BR90" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS90" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT90" s="26"/>
-      <c r="BU90" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT90" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU90" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV90" s="26"/>
       <c r="BW90" s="26"/>
       <c r="BX90" s="26"/>
@@ -21089,13 +21437,17 @@
         <v>105.74</v>
       </c>
       <c r="BR91" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BS91" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT91" s="26"/>
-      <c r="BU91" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="BT91" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU91" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="BV91" s="26"/>
       <c r="BW91" s="26"/>
       <c r="BX91" s="26"/>
@@ -21105,7 +21457,7 @@
     </row>
     <row r="93" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0DD6CE-5C1E-4710-8710-6346CE724D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52375B-C019-4A50-AB08-5F20CF7A8068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -392,16 +392,25 @@
     <t>38. Commission-Based Wholesaling</t>
   </si>
   <si>
-    <t>Week ending Saturday 08 May 2021</t>
-  </si>
-  <si>
-    <t>Released at 11.30am (Canberra time) 26 May 2021</t>
-  </si>
-  <si>
     <t>Subdivision</t>
   </si>
   <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
+  </si>
+  <si>
+    <t>Week ending Saturday 22 May 2021</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NA = Not available</t>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 09 June 2021</t>
+  </si>
+  <si>
+    <t>Weekly Payroll Jobs and Wages in Australia - Payroll jobs Index by Industry Subdivision</t>
   </si>
 </sst>
 </file>
@@ -561,7 +570,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -626,6 +635,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1394,12 +1406,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,24 +1471,24 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1498,7 +1510,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4094C99-52A4-42B0-93AC-5A2FCEEC722B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:CA91"/>
+  <dimension ref="A1:CA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -1681,7 +1693,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1844,10 +1856,10 @@
       <c r="BZ4" s="5"/>
     </row>
     <row r="5" spans="1:79" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="A5" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1930,7 +1942,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2145,8 +2157,12 @@
       <c r="BU6" s="25">
         <v>44324</v>
       </c>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="25"/>
+      <c r="BV6" s="25">
+        <v>44331</v>
+      </c>
+      <c r="BW6" s="25">
+        <v>44338</v>
+      </c>
       <c r="BX6" s="25"/>
       <c r="BY6" s="25"/>
       <c r="BZ6" s="25"/>
@@ -2371,8 +2387,12 @@
       <c r="BU7" s="26">
         <v>96.4</v>
       </c>
-      <c r="BV7" s="26"/>
-      <c r="BW7" s="26"/>
+      <c r="BV7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW7" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX7" s="26"/>
       <c r="BY7" s="26"/>
       <c r="BZ7" s="26"/>
@@ -2598,8 +2618,12 @@
       <c r="BU8" s="26">
         <v>103.93</v>
       </c>
-      <c r="BV8" s="26"/>
-      <c r="BW8" s="26"/>
+      <c r="BV8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW8" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX8" s="26"/>
       <c r="BY8" s="26"/>
       <c r="BZ8" s="26"/>
@@ -2825,8 +2849,12 @@
       <c r="BU9" s="26">
         <v>89.74</v>
       </c>
-      <c r="BV9" s="26"/>
-      <c r="BW9" s="26"/>
+      <c r="BV9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW9" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX9" s="26"/>
       <c r="BY9" s="26"/>
       <c r="BZ9" s="26"/>
@@ -3052,8 +3080,12 @@
       <c r="BU10" s="26">
         <v>86.37</v>
       </c>
-      <c r="BV10" s="26"/>
-      <c r="BW10" s="26"/>
+      <c r="BV10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW10" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX10" s="26"/>
       <c r="BY10" s="26"/>
       <c r="BZ10" s="26"/>
@@ -3279,8 +3311,12 @@
       <c r="BU11" s="26">
         <v>98</v>
       </c>
-      <c r="BV11" s="26"/>
-      <c r="BW11" s="26"/>
+      <c r="BV11" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW11" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX11" s="26"/>
       <c r="BY11" s="26"/>
       <c r="BZ11" s="26"/>
@@ -3506,8 +3542,12 @@
       <c r="BU12" s="26">
         <v>96.33</v>
       </c>
-      <c r="BV12" s="26"/>
-      <c r="BW12" s="26"/>
+      <c r="BV12" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW12" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX12" s="26"/>
       <c r="BY12" s="26"/>
       <c r="BZ12" s="26"/>
@@ -3733,8 +3773,12 @@
       <c r="BU13" s="26">
         <v>91.41</v>
       </c>
-      <c r="BV13" s="26"/>
-      <c r="BW13" s="26"/>
+      <c r="BV13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW13" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX13" s="26"/>
       <c r="BY13" s="26"/>
       <c r="BZ13" s="26"/>
@@ -3960,8 +4004,12 @@
       <c r="BU14" s="26">
         <v>96.89</v>
       </c>
-      <c r="BV14" s="26"/>
-      <c r="BW14" s="26"/>
+      <c r="BV14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW14" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX14" s="26"/>
       <c r="BY14" s="26"/>
       <c r="BZ14" s="26"/>
@@ -4187,8 +4235,12 @@
       <c r="BU15" s="26">
         <v>106.73</v>
       </c>
-      <c r="BV15" s="26"/>
-      <c r="BW15" s="26"/>
+      <c r="BV15" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW15" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX15" s="26"/>
       <c r="BY15" s="26"/>
       <c r="BZ15" s="26"/>
@@ -4414,8 +4466,12 @@
       <c r="BU16" s="26">
         <v>115.54</v>
       </c>
-      <c r="BV16" s="26"/>
-      <c r="BW16" s="26"/>
+      <c r="BV16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW16" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX16" s="26"/>
       <c r="BY16" s="26"/>
       <c r="BZ16" s="26"/>
@@ -4641,8 +4697,12 @@
       <c r="BU17" s="26">
         <v>94.54</v>
       </c>
-      <c r="BV17" s="26"/>
-      <c r="BW17" s="26"/>
+      <c r="BV17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW17" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX17" s="26"/>
       <c r="BY17" s="26"/>
       <c r="BZ17" s="26"/>
@@ -4868,8 +4928,12 @@
       <c r="BU18" s="26">
         <v>97.38</v>
       </c>
-      <c r="BV18" s="26"/>
-      <c r="BW18" s="26"/>
+      <c r="BV18" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW18" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX18" s="26"/>
       <c r="BY18" s="26"/>
       <c r="BZ18" s="26"/>
@@ -5095,8 +5159,12 @@
       <c r="BU19" s="26">
         <v>98.25</v>
       </c>
-      <c r="BV19" s="26"/>
-      <c r="BW19" s="26"/>
+      <c r="BV19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW19" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX19" s="26"/>
       <c r="BY19" s="26"/>
       <c r="BZ19" s="26"/>
@@ -5322,8 +5390,12 @@
       <c r="BU20" s="26">
         <v>96.98</v>
       </c>
-      <c r="BV20" s="26"/>
-      <c r="BW20" s="26"/>
+      <c r="BV20" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW20" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX20" s="26"/>
       <c r="BY20" s="26"/>
       <c r="BZ20" s="26"/>
@@ -5549,8 +5621,12 @@
       <c r="BU21" s="26">
         <v>90.96</v>
       </c>
-      <c r="BV21" s="26"/>
-      <c r="BW21" s="26"/>
+      <c r="BV21" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW21" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX21" s="26"/>
       <c r="BY21" s="26"/>
       <c r="BZ21" s="26"/>
@@ -5776,8 +5852,12 @@
       <c r="BU22" s="26">
         <v>89.5</v>
       </c>
-      <c r="BV22" s="26"/>
-      <c r="BW22" s="26"/>
+      <c r="BV22" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW22" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX22" s="26"/>
       <c r="BY22" s="26"/>
       <c r="BZ22" s="26"/>
@@ -6003,8 +6083,12 @@
       <c r="BU23" s="26">
         <v>88.78</v>
       </c>
-      <c r="BV23" s="26"/>
-      <c r="BW23" s="26"/>
+      <c r="BV23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW23" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX23" s="26"/>
       <c r="BY23" s="26"/>
       <c r="BZ23" s="26"/>
@@ -6230,8 +6314,12 @@
       <c r="BU24" s="26">
         <v>104.88</v>
       </c>
-      <c r="BV24" s="26"/>
-      <c r="BW24" s="26"/>
+      <c r="BV24" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW24" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX24" s="26"/>
       <c r="BY24" s="26"/>
       <c r="BZ24" s="26"/>
@@ -6457,8 +6545,12 @@
       <c r="BU25" s="26">
         <v>100.21</v>
       </c>
-      <c r="BV25" s="26"/>
-      <c r="BW25" s="26"/>
+      <c r="BV25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW25" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX25" s="26"/>
       <c r="BY25" s="26"/>
       <c r="BZ25" s="26"/>
@@ -6684,8 +6776,12 @@
       <c r="BU26" s="26">
         <v>91.48</v>
       </c>
-      <c r="BV26" s="26"/>
-      <c r="BW26" s="26"/>
+      <c r="BV26" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW26" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX26" s="26"/>
       <c r="BY26" s="26"/>
       <c r="BZ26" s="26"/>
@@ -6911,8 +7007,12 @@
       <c r="BU27" s="26">
         <v>101.04</v>
       </c>
-      <c r="BV27" s="26"/>
-      <c r="BW27" s="26"/>
+      <c r="BV27" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW27" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX27" s="26"/>
       <c r="BY27" s="26"/>
       <c r="BZ27" s="26"/>
@@ -7138,8 +7238,12 @@
       <c r="BU28" s="26">
         <v>96.41</v>
       </c>
-      <c r="BV28" s="26"/>
-      <c r="BW28" s="26"/>
+      <c r="BV28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW28" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX28" s="26"/>
       <c r="BY28" s="26"/>
       <c r="BZ28" s="26"/>
@@ -7365,8 +7469,12 @@
       <c r="BU29" s="26">
         <v>97.64</v>
       </c>
-      <c r="BV29" s="26"/>
-      <c r="BW29" s="26"/>
+      <c r="BV29" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW29" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX29" s="26"/>
       <c r="BY29" s="26"/>
       <c r="BZ29" s="26"/>
@@ -7592,8 +7700,12 @@
       <c r="BU30" s="26">
         <v>98.32</v>
       </c>
-      <c r="BV30" s="26"/>
-      <c r="BW30" s="26"/>
+      <c r="BV30" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW30" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX30" s="26"/>
       <c r="BY30" s="26"/>
       <c r="BZ30" s="26"/>
@@ -7819,8 +7931,12 @@
       <c r="BU31" s="26">
         <v>97.47</v>
       </c>
-      <c r="BV31" s="26"/>
-      <c r="BW31" s="26"/>
+      <c r="BV31" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW31" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX31" s="26"/>
       <c r="BY31" s="26"/>
       <c r="BZ31" s="26"/>
@@ -8046,8 +8162,12 @@
       <c r="BU32" s="26">
         <v>99.75</v>
       </c>
-      <c r="BV32" s="26"/>
-      <c r="BW32" s="26"/>
+      <c r="BV32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW32" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX32" s="26"/>
       <c r="BY32" s="26"/>
       <c r="BZ32" s="26"/>
@@ -8273,8 +8393,12 @@
       <c r="BU33" s="26">
         <v>124.98</v>
       </c>
-      <c r="BV33" s="26"/>
-      <c r="BW33" s="26"/>
+      <c r="BV33" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW33" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX33" s="26"/>
       <c r="BY33" s="26"/>
       <c r="BZ33" s="26"/>
@@ -8500,8 +8624,12 @@
       <c r="BU34" s="26">
         <v>104.23</v>
       </c>
-      <c r="BV34" s="26"/>
-      <c r="BW34" s="26"/>
+      <c r="BV34" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW34" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX34" s="26"/>
       <c r="BY34" s="26"/>
       <c r="BZ34" s="26"/>
@@ -8727,8 +8855,12 @@
       <c r="BU35" s="26">
         <v>102.99</v>
       </c>
-      <c r="BV35" s="26"/>
-      <c r="BW35" s="26"/>
+      <c r="BV35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW35" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX35" s="26"/>
       <c r="BY35" s="26"/>
       <c r="BZ35" s="26"/>
@@ -8954,8 +9086,12 @@
       <c r="BU36" s="26">
         <v>104.56</v>
       </c>
-      <c r="BV36" s="26"/>
-      <c r="BW36" s="26"/>
+      <c r="BV36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW36" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX36" s="26"/>
       <c r="BY36" s="26"/>
       <c r="BZ36" s="26"/>
@@ -9181,8 +9317,12 @@
       <c r="BU37" s="26">
         <v>88.79</v>
       </c>
-      <c r="BV37" s="26"/>
-      <c r="BW37" s="26"/>
+      <c r="BV37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW37" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX37" s="26"/>
       <c r="BY37" s="26"/>
       <c r="BZ37" s="26"/>
@@ -9408,8 +9548,12 @@
       <c r="BU38" s="26">
         <v>99.3</v>
       </c>
-      <c r="BV38" s="26"/>
-      <c r="BW38" s="26"/>
+      <c r="BV38" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW38" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX38" s="26"/>
       <c r="BY38" s="26"/>
       <c r="BZ38" s="26"/>
@@ -9635,8 +9779,12 @@
       <c r="BU39" s="26">
         <v>96.11</v>
       </c>
-      <c r="BV39" s="26"/>
-      <c r="BW39" s="26"/>
+      <c r="BV39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW39" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX39" s="26"/>
       <c r="BY39" s="26"/>
       <c r="BZ39" s="26"/>
@@ -9862,8 +10010,12 @@
       <c r="BU40" s="26">
         <v>98.15</v>
       </c>
-      <c r="BV40" s="26"/>
-      <c r="BW40" s="26"/>
+      <c r="BV40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW40" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX40" s="26"/>
       <c r="BY40" s="26"/>
       <c r="BZ40" s="26"/>
@@ -10089,8 +10241,12 @@
       <c r="BU41" s="26">
         <v>92.32</v>
       </c>
-      <c r="BV41" s="26"/>
-      <c r="BW41" s="26"/>
+      <c r="BV41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW41" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX41" s="26"/>
       <c r="BY41" s="26"/>
       <c r="BZ41" s="26"/>
@@ -10316,8 +10472,12 @@
       <c r="BU42" s="26">
         <v>96.45</v>
       </c>
-      <c r="BV42" s="26"/>
-      <c r="BW42" s="26"/>
+      <c r="BV42" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW42" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX42" s="26"/>
       <c r="BY42" s="26"/>
       <c r="BZ42" s="26"/>
@@ -10543,8 +10703,12 @@
       <c r="BU43" s="26">
         <v>97.48</v>
       </c>
-      <c r="BV43" s="26"/>
-      <c r="BW43" s="26"/>
+      <c r="BV43" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW43" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX43" s="26"/>
       <c r="BY43" s="26"/>
       <c r="BZ43" s="26"/>
@@ -10770,8 +10934,12 @@
       <c r="BU44" s="26">
         <v>99.75</v>
       </c>
-      <c r="BV44" s="26"/>
-      <c r="BW44" s="26"/>
+      <c r="BV44" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW44" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX44" s="26"/>
       <c r="BY44" s="26"/>
       <c r="BZ44" s="26"/>
@@ -10997,8 +11165,12 @@
       <c r="BU45" s="26">
         <v>97.88</v>
       </c>
-      <c r="BV45" s="26"/>
-      <c r="BW45" s="26"/>
+      <c r="BV45" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW45" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX45" s="26"/>
       <c r="BY45" s="26"/>
       <c r="BZ45" s="26"/>
@@ -11224,8 +11396,12 @@
       <c r="BU46" s="26">
         <v>107.17</v>
       </c>
-      <c r="BV46" s="26"/>
-      <c r="BW46" s="26"/>
+      <c r="BV46" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW46" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX46" s="26"/>
       <c r="BY46" s="26"/>
       <c r="BZ46" s="26"/>
@@ -11451,8 +11627,12 @@
       <c r="BU47" s="26">
         <v>97.69</v>
       </c>
-      <c r="BV47" s="26"/>
-      <c r="BW47" s="26"/>
+      <c r="BV47" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW47" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX47" s="26"/>
       <c r="BY47" s="26"/>
       <c r="BZ47" s="26"/>
@@ -11678,8 +11858,12 @@
       <c r="BU48" s="26">
         <v>99.11</v>
       </c>
-      <c r="BV48" s="26"/>
-      <c r="BW48" s="26"/>
+      <c r="BV48" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW48" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX48" s="26"/>
       <c r="BY48" s="26"/>
       <c r="BZ48" s="26"/>
@@ -11905,8 +12089,12 @@
       <c r="BU49" s="26">
         <v>100.8</v>
       </c>
-      <c r="BV49" s="26"/>
-      <c r="BW49" s="26"/>
+      <c r="BV49" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW49" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX49" s="26"/>
       <c r="BY49" s="26"/>
       <c r="BZ49" s="26"/>
@@ -12132,8 +12320,12 @@
       <c r="BU50" s="26">
         <v>87.2</v>
       </c>
-      <c r="BV50" s="26"/>
-      <c r="BW50" s="26"/>
+      <c r="BV50" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW50" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX50" s="26"/>
       <c r="BY50" s="26"/>
       <c r="BZ50" s="26"/>
@@ -12359,8 +12551,12 @@
       <c r="BU51" s="26">
         <v>89.59</v>
       </c>
-      <c r="BV51" s="26"/>
-      <c r="BW51" s="26"/>
+      <c r="BV51" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW51" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX51" s="26"/>
       <c r="BY51" s="26"/>
       <c r="BZ51" s="26"/>
@@ -12586,8 +12782,12 @@
       <c r="BU52" s="26">
         <v>96.81</v>
       </c>
-      <c r="BV52" s="26"/>
-      <c r="BW52" s="26"/>
+      <c r="BV52" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW52" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX52" s="26"/>
       <c r="BY52" s="26"/>
       <c r="BZ52" s="26"/>
@@ -12813,8 +13013,12 @@
       <c r="BU53" s="26">
         <v>104.84</v>
       </c>
-      <c r="BV53" s="26"/>
-      <c r="BW53" s="26"/>
+      <c r="BV53" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW53" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX53" s="26"/>
       <c r="BY53" s="26"/>
       <c r="BZ53" s="26"/>
@@ -13040,8 +13244,12 @@
       <c r="BU54" s="26">
         <v>84.07</v>
       </c>
-      <c r="BV54" s="26"/>
-      <c r="BW54" s="26"/>
+      <c r="BV54" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW54" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX54" s="26"/>
       <c r="BY54" s="26"/>
       <c r="BZ54" s="26"/>
@@ -13267,8 +13475,12 @@
       <c r="BU55" s="26">
         <v>67</v>
       </c>
-      <c r="BV55" s="26"/>
-      <c r="BW55" s="26"/>
+      <c r="BV55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW55" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX55" s="26"/>
       <c r="BY55" s="26"/>
       <c r="BZ55" s="26"/>
@@ -13494,8 +13706,12 @@
       <c r="BU56" s="26">
         <v>86.45</v>
       </c>
-      <c r="BV56" s="26"/>
-      <c r="BW56" s="26"/>
+      <c r="BV56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW56" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX56" s="26"/>
       <c r="BY56" s="26"/>
       <c r="BZ56" s="26"/>
@@ -13721,8 +13937,12 @@
       <c r="BU57" s="26">
         <v>98.01</v>
       </c>
-      <c r="BV57" s="26"/>
-      <c r="BW57" s="26"/>
+      <c r="BV57" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW57" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX57" s="26"/>
       <c r="BY57" s="26"/>
       <c r="BZ57" s="26"/>
@@ -13948,8 +14168,12 @@
       <c r="BU58" s="26">
         <v>92.36</v>
       </c>
-      <c r="BV58" s="26"/>
-      <c r="BW58" s="26"/>
+      <c r="BV58" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW58" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX58" s="26"/>
       <c r="BY58" s="26"/>
       <c r="BZ58" s="26"/>
@@ -14175,8 +14399,12 @@
       <c r="BU59" s="26">
         <v>97.88</v>
       </c>
-      <c r="BV59" s="26"/>
-      <c r="BW59" s="26"/>
+      <c r="BV59" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW59" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX59" s="26"/>
       <c r="BY59" s="26"/>
       <c r="BZ59" s="26"/>
@@ -14402,8 +14630,12 @@
       <c r="BU60" s="26">
         <v>86.64</v>
       </c>
-      <c r="BV60" s="26"/>
-      <c r="BW60" s="26"/>
+      <c r="BV60" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW60" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX60" s="26"/>
       <c r="BY60" s="26"/>
       <c r="BZ60" s="26"/>
@@ -14629,8 +14861,12 @@
       <c r="BU61" s="26">
         <v>88.8</v>
       </c>
-      <c r="BV61" s="26"/>
-      <c r="BW61" s="26"/>
+      <c r="BV61" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW61" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX61" s="26"/>
       <c r="BY61" s="26"/>
       <c r="BZ61" s="26"/>
@@ -14856,8 +15092,12 @@
       <c r="BU62" s="26">
         <v>87.69</v>
       </c>
-      <c r="BV62" s="26"/>
-      <c r="BW62" s="26"/>
+      <c r="BV62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW62" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX62" s="26"/>
       <c r="BY62" s="26"/>
       <c r="BZ62" s="26"/>
@@ -15083,8 +15323,12 @@
       <c r="BU63" s="26">
         <v>102.92</v>
       </c>
-      <c r="BV63" s="26"/>
-      <c r="BW63" s="26"/>
+      <c r="BV63" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW63" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX63" s="26"/>
       <c r="BY63" s="26"/>
       <c r="BZ63" s="26"/>
@@ -15310,8 +15554,12 @@
       <c r="BU64" s="26">
         <v>92.3</v>
       </c>
-      <c r="BV64" s="26"/>
-      <c r="BW64" s="26"/>
+      <c r="BV64" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW64" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX64" s="26"/>
       <c r="BY64" s="26"/>
       <c r="BZ64" s="26"/>
@@ -15537,8 +15785,12 @@
       <c r="BU65" s="26">
         <v>99.53</v>
       </c>
-      <c r="BV65" s="26"/>
-      <c r="BW65" s="26"/>
+      <c r="BV65" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW65" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX65" s="26"/>
       <c r="BY65" s="26"/>
       <c r="BZ65" s="26"/>
@@ -15764,8 +16016,12 @@
       <c r="BU66" s="26">
         <v>101.8</v>
       </c>
-      <c r="BV66" s="26"/>
-      <c r="BW66" s="26"/>
+      <c r="BV66" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW66" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX66" s="26"/>
       <c r="BY66" s="26"/>
       <c r="BZ66" s="26"/>
@@ -15991,8 +16247,12 @@
       <c r="BU67" s="26">
         <v>111.04</v>
       </c>
-      <c r="BV67" s="26"/>
-      <c r="BW67" s="26"/>
+      <c r="BV67" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW67" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX67" s="26"/>
       <c r="BY67" s="26"/>
       <c r="BZ67" s="26"/>
@@ -16218,8 +16478,12 @@
       <c r="BU68" s="26">
         <v>95.9</v>
       </c>
-      <c r="BV68" s="26"/>
-      <c r="BW68" s="26"/>
+      <c r="BV68" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW68" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX68" s="26"/>
       <c r="BY68" s="26"/>
       <c r="BZ68" s="26"/>
@@ -16445,8 +16709,12 @@
       <c r="BU69" s="26">
         <v>106.43</v>
       </c>
-      <c r="BV69" s="26"/>
-      <c r="BW69" s="26"/>
+      <c r="BV69" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW69" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX69" s="26"/>
       <c r="BY69" s="26"/>
       <c r="BZ69" s="26"/>
@@ -16672,8 +16940,12 @@
       <c r="BU70" s="26">
         <v>104.04</v>
       </c>
-      <c r="BV70" s="26"/>
-      <c r="BW70" s="26"/>
+      <c r="BV70" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW70" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX70" s="26"/>
       <c r="BY70" s="26"/>
       <c r="BZ70" s="26"/>
@@ -16899,8 +17171,12 @@
       <c r="BU71" s="26">
         <v>95.77</v>
       </c>
-      <c r="BV71" s="26"/>
-      <c r="BW71" s="26"/>
+      <c r="BV71" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW71" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX71" s="26"/>
       <c r="BY71" s="26"/>
       <c r="BZ71" s="26"/>
@@ -17126,8 +17402,12 @@
       <c r="BU72" s="26">
         <v>99.68</v>
       </c>
-      <c r="BV72" s="26"/>
-      <c r="BW72" s="26"/>
+      <c r="BV72" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW72" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX72" s="26"/>
       <c r="BY72" s="26"/>
       <c r="BZ72" s="26"/>
@@ -17353,8 +17633,12 @@
       <c r="BU73" s="26">
         <v>95.86</v>
       </c>
-      <c r="BV73" s="26"/>
-      <c r="BW73" s="26"/>
+      <c r="BV73" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW73" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX73" s="26"/>
       <c r="BY73" s="26"/>
       <c r="BZ73" s="26"/>
@@ -17580,8 +17864,12 @@
       <c r="BU74" s="26">
         <v>103.92</v>
       </c>
-      <c r="BV74" s="26"/>
-      <c r="BW74" s="26"/>
+      <c r="BV74" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW74" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX74" s="26"/>
       <c r="BY74" s="26"/>
       <c r="BZ74" s="26"/>
@@ -17807,8 +18095,12 @@
       <c r="BU75" s="26">
         <v>94.55</v>
       </c>
-      <c r="BV75" s="26"/>
-      <c r="BW75" s="26"/>
+      <c r="BV75" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW75" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX75" s="26"/>
       <c r="BY75" s="26"/>
       <c r="BZ75" s="26"/>
@@ -18034,8 +18326,12 @@
       <c r="BU76" s="26">
         <v>114.28</v>
       </c>
-      <c r="BV76" s="26"/>
-      <c r="BW76" s="26"/>
+      <c r="BV76" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW76" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX76" s="26"/>
       <c r="BY76" s="26"/>
       <c r="BZ76" s="26"/>
@@ -18261,8 +18557,12 @@
       <c r="BU77" s="26">
         <v>102.51</v>
       </c>
-      <c r="BV77" s="26"/>
-      <c r="BW77" s="26"/>
+      <c r="BV77" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW77" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX77" s="26"/>
       <c r="BY77" s="26"/>
       <c r="BZ77" s="26"/>
@@ -18488,8 +18788,12 @@
       <c r="BU78" s="26">
         <v>98.86</v>
       </c>
-      <c r="BV78" s="26"/>
-      <c r="BW78" s="26"/>
+      <c r="BV78" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW78" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX78" s="26"/>
       <c r="BY78" s="26"/>
       <c r="BZ78" s="26"/>
@@ -18715,8 +19019,12 @@
       <c r="BU79" s="26">
         <v>101.7</v>
       </c>
-      <c r="BV79" s="26"/>
-      <c r="BW79" s="26"/>
+      <c r="BV79" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW79" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX79" s="26"/>
       <c r="BY79" s="26"/>
       <c r="BZ79" s="26"/>
@@ -18942,8 +19250,12 @@
       <c r="BU80" s="26">
         <v>100.81</v>
       </c>
-      <c r="BV80" s="26"/>
-      <c r="BW80" s="26"/>
+      <c r="BV80" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW80" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX80" s="26"/>
       <c r="BY80" s="26"/>
       <c r="BZ80" s="26"/>
@@ -19169,8 +19481,12 @@
       <c r="BU81" s="26">
         <v>102.67</v>
       </c>
-      <c r="BV81" s="26"/>
-      <c r="BW81" s="26"/>
+      <c r="BV81" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW81" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX81" s="26"/>
       <c r="BY81" s="26"/>
       <c r="BZ81" s="26"/>
@@ -19396,8 +19712,12 @@
       <c r="BU82" s="26">
         <v>104.45</v>
       </c>
-      <c r="BV82" s="26"/>
-      <c r="BW82" s="26"/>
+      <c r="BV82" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW82" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX82" s="26"/>
       <c r="BY82" s="26"/>
       <c r="BZ82" s="26"/>
@@ -19623,8 +19943,12 @@
       <c r="BU83" s="26">
         <v>98.25</v>
       </c>
-      <c r="BV83" s="26"/>
-      <c r="BW83" s="26"/>
+      <c r="BV83" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW83" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX83" s="26"/>
       <c r="BY83" s="26"/>
       <c r="BZ83" s="26"/>
@@ -19850,8 +20174,12 @@
       <c r="BU84" s="26">
         <v>108.79</v>
       </c>
-      <c r="BV84" s="26"/>
-      <c r="BW84" s="26"/>
+      <c r="BV84" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW84" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX84" s="26"/>
       <c r="BY84" s="26"/>
       <c r="BZ84" s="26"/>
@@ -20077,8 +20405,12 @@
       <c r="BU85" s="26">
         <v>101.35</v>
       </c>
-      <c r="BV85" s="26"/>
-      <c r="BW85" s="26"/>
+      <c r="BV85" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW85" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX85" s="26"/>
       <c r="BY85" s="26"/>
       <c r="BZ85" s="26"/>
@@ -20304,8 +20636,12 @@
       <c r="BU86" s="26">
         <v>94.52</v>
       </c>
-      <c r="BV86" s="26"/>
-      <c r="BW86" s="26"/>
+      <c r="BV86" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW86" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX86" s="26"/>
       <c r="BY86" s="26"/>
       <c r="BZ86" s="26"/>
@@ -20531,8 +20867,12 @@
       <c r="BU87" s="26">
         <v>99.23</v>
       </c>
-      <c r="BV87" s="26"/>
-      <c r="BW87" s="26"/>
+      <c r="BV87" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW87" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX87" s="26"/>
       <c r="BY87" s="26"/>
       <c r="BZ87" s="26"/>
@@ -20758,8 +21098,12 @@
       <c r="BU88" s="26">
         <v>92.7</v>
       </c>
-      <c r="BV88" s="26"/>
-      <c r="BW88" s="26"/>
+      <c r="BV88" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW88" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX88" s="26"/>
       <c r="BY88" s="26"/>
       <c r="BZ88" s="26"/>
@@ -20985,8 +21329,12 @@
       <c r="BU89" s="26">
         <v>99.24</v>
       </c>
-      <c r="BV89" s="26"/>
-      <c r="BW89" s="26"/>
+      <c r="BV89" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW89" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX89" s="26"/>
       <c r="BY89" s="26"/>
       <c r="BZ89" s="26"/>
@@ -21212,8 +21560,12 @@
       <c r="BU90" s="26">
         <v>99.11</v>
       </c>
-      <c r="BV90" s="26"/>
-      <c r="BW90" s="26"/>
+      <c r="BV90" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW90" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX90" s="26"/>
       <c r="BY90" s="26"/>
       <c r="BZ90" s="26"/>
@@ -21439,12 +21791,21 @@
       <c r="BU91" s="26">
         <v>107.96</v>
       </c>
-      <c r="BV91" s="26"/>
-      <c r="BW91" s="26"/>
+      <c r="BV91" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW91" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="BX91" s="26"/>
       <c r="BY91" s="26"/>
       <c r="BZ91" s="26"/>
       <c r="CA91" s="26"/>
+    </row>
+    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data-raw/abs/payrolls/6160055001_DO006.xlsx
+++ b/data-raw/abs/payrolls/6160055001_DO006.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F93943-C51A-4D4E-A503-ABFE8133DDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE748A5-363E-436E-9228-DD3AA4097EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="121">
   <si>
     <t>10. J-Information media &amp; telecommunications</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Inquiries</t>
-  </si>
-  <si>
-    <t>Further information about these and related statistics is available from the ABS website www.abs.gov.au, or contact the National Information and Referral Service on 1300 135 070.</t>
   </si>
   <si>
     <t>Industry</t>
@@ -392,12 +389,6 @@
     <t>38. Commission-Based Wholesaling</t>
   </si>
   <si>
-    <t>Released at 11.30am (Canberra time) 22 June 2021</t>
-  </si>
-  <si>
-    <t>Week ending Saturday 05 June 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">** Lower level indexes can move independently from higher level indexes due to data included in totals which could not be classified to the component characteristic. </t>
   </si>
   <si>
@@ -405,6 +396,38 @@
   </si>
   <si>
     <t>NA = Not available</t>
+  </si>
+  <si>
+    <r>
+      <t>For inquiries about these and related statistics, contact the Customer Assistance Service via the ABS website </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contact Us</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> page. The ABS Privacy Policy outlines how the ABS will handle any personal information that you provide to us.</t>
+    </r>
+  </si>
+  <si>
+    <t>Released at 11.30am (Canberra time) 06 July 2021</t>
+  </si>
+  <si>
+    <t>Week ending Saturday 19 June 2021</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -415,7 +438,7 @@
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +546,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -564,7 +594,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -629,10 +659,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -645,6 +678,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1397,12 +1435,12 @@
     </row>
     <row r="2" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1462,14 +1500,14 @@
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:55" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="27"/>
+      <c r="B16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
@@ -1477,31 +1515,31 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="2">
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10:C10" r:id="rId1" display="More information available from the ABS web site" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B19:C19" r:id="rId2" display="© Commonwealth of Australia &lt;&lt;yyyy&gt;&gt;" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B7" location="'Payroll jobs index-Subdivision'!A1" display="'Payroll jobs index-Subdivision'!A1" xr:uid="{AAF367CF-895D-477C-A498-735D9D37E703}"/>
+    <hyperlink ref="B16:C17" r:id="rId3" display="For inquiries about these and related statistics, contact the Customer Assistance Service via the ABS website Contact Us page. The ABS Privacy Policy outlines how the ABS will handle any personal information that you provide to us." xr:uid="{013CE2DD-E57B-403B-83D6-727BA3CA2E0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4094C99-52A4-42B0-93AC-5A2FCEEC722B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:CA93"/>
+  <dimension ref="A1:CE93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
@@ -1515,10 +1553,10 @@
     <col min="1" max="2" width="30" customWidth="1"/>
     <col min="3" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="22" width="14.7109375" style="24" customWidth="1"/>
-    <col min="23" max="78" width="14.7109375" customWidth="1"/>
+    <col min="23" max="79" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
@@ -1599,10 +1637,15 @@
       <c r="BX1" s="22"/>
       <c r="BY1" s="22"/>
       <c r="BZ1" s="22"/>
+      <c r="CA1" s="22"/>
+      <c r="CB1" s="22"/>
+      <c r="CC1" s="22"/>
+      <c r="CD1" s="22"/>
+      <c r="CE1" s="22"/>
     </row>
-    <row r="2" spans="1:79" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1682,9 +1725,9 @@
       <c r="BY2" s="2"/>
       <c r="BZ2" s="2"/>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1764,7 +1807,7 @@
       <c r="BY3" s="3"/>
       <c r="BZ3" s="3"/>
     </row>
-    <row r="4" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1846,11 +1889,11 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
     </row>
-    <row r="5" spans="1:79" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="29"/>
+    <row r="5" spans="1:83" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1928,12 +1971,12 @@
       <c r="BY5" s="5"/>
       <c r="BZ5" s="5"/>
     </row>
-    <row r="6" spans="1:79" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="25">
         <v>43834</v>
@@ -2160,14 +2203,19 @@
       <c r="BY6" s="25">
         <v>44352</v>
       </c>
-      <c r="BZ6" s="25"/>
+      <c r="BZ6" s="25">
+        <v>44359</v>
+      </c>
+      <c r="CA6" s="25">
+        <v>44366</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="26">
         <v>93.05</v>
@@ -2394,15 +2442,19 @@
       <c r="BY7" s="26">
         <v>96.99</v>
       </c>
-      <c r="BZ7" s="26"/>
-      <c r="CA7" s="26"/>
+      <c r="BZ7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA7" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="26">
         <v>93.39</v>
@@ -2629,15 +2681,19 @@
       <c r="BY8" s="26">
         <v>100.65</v>
       </c>
-      <c r="BZ8" s="26"/>
-      <c r="CA8" s="26"/>
+      <c r="BZ8" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA8" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="26">
         <v>91.69</v>
@@ -2864,15 +2920,19 @@
       <c r="BY9" s="26">
         <v>89.9</v>
       </c>
-      <c r="BZ9" s="26"/>
-      <c r="CA9" s="26"/>
+      <c r="BZ9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA9" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="26">
         <v>92.19</v>
@@ -3099,15 +3159,19 @@
       <c r="BY10" s="26">
         <v>86.24</v>
       </c>
-      <c r="BZ10" s="26"/>
-      <c r="CA10" s="26"/>
+      <c r="BZ10" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA10" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="26">
         <v>82.6</v>
@@ -3334,15 +3398,19 @@
       <c r="BY11" s="26">
         <v>96.79</v>
       </c>
-      <c r="BZ11" s="26"/>
-      <c r="CA11" s="26"/>
+      <c r="BZ11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA11" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="26">
         <v>100.16</v>
@@ -3569,15 +3637,19 @@
       <c r="BY12" s="26">
         <v>95.82</v>
       </c>
-      <c r="BZ12" s="26"/>
-      <c r="CA12" s="26"/>
+      <c r="BZ12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA12" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="26">
         <v>95.92</v>
@@ -3804,15 +3876,19 @@
       <c r="BY13" s="26">
         <v>88.37</v>
       </c>
-      <c r="BZ13" s="26"/>
-      <c r="CA13" s="26"/>
+      <c r="BZ13" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA13" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="26">
         <v>96.01</v>
@@ -4039,15 +4115,19 @@
       <c r="BY14" s="26">
         <v>92.97</v>
       </c>
-      <c r="BZ14" s="26"/>
-      <c r="CA14" s="26"/>
+      <c r="BZ14" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA14" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="26">
         <v>90.34</v>
@@ -4274,15 +4354,19 @@
       <c r="BY15" s="26">
         <v>106.45</v>
       </c>
-      <c r="BZ15" s="26"/>
-      <c r="CA15" s="26"/>
+      <c r="BZ15" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA15" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="26">
         <v>94.48</v>
@@ -4509,15 +4593,19 @@
       <c r="BY16" s="26">
         <v>116.58</v>
       </c>
-      <c r="BZ16" s="26"/>
-      <c r="CA16" s="26"/>
+      <c r="BZ16" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA16" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="26">
         <v>93.84</v>
@@ -4744,15 +4832,19 @@
       <c r="BY17" s="26">
         <v>95.78</v>
       </c>
-      <c r="BZ17" s="26"/>
-      <c r="CA17" s="26"/>
+      <c r="BZ17" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA17" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="26">
         <v>93.2</v>
@@ -4979,15 +5071,19 @@
       <c r="BY18" s="26">
         <v>94.76</v>
       </c>
-      <c r="BZ18" s="26"/>
-      <c r="CA18" s="26"/>
+      <c r="BZ18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA18" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="26">
         <v>82.09</v>
@@ -5214,15 +5310,19 @@
       <c r="BY19" s="26">
         <v>100.75</v>
       </c>
-      <c r="BZ19" s="26"/>
-      <c r="CA19" s="26"/>
+      <c r="BZ19" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA19" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="26">
         <v>81.84</v>
@@ -5449,15 +5549,19 @@
       <c r="BY20" s="26">
         <v>97.23</v>
       </c>
-      <c r="BZ20" s="26"/>
-      <c r="CA20" s="26"/>
+      <c r="BZ20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA20" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="26">
         <v>95.37</v>
@@ -5684,15 +5788,19 @@
       <c r="BY21" s="26">
         <v>92.22</v>
       </c>
-      <c r="BZ21" s="26"/>
-      <c r="CA21" s="26"/>
+      <c r="BZ21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA21" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="26">
         <v>91.49</v>
@@ -5919,15 +6027,19 @@
       <c r="BY22" s="26">
         <v>91.8</v>
       </c>
-      <c r="BZ22" s="26"/>
-      <c r="CA22" s="26"/>
+      <c r="BZ22" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA22" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="26">
         <v>94.5</v>
@@ -6154,15 +6266,19 @@
       <c r="BY23" s="26">
         <v>89.82</v>
       </c>
-      <c r="BZ23" s="26"/>
-      <c r="CA23" s="26"/>
+      <c r="BZ23" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA23" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="26">
         <v>97.26</v>
@@ -6389,15 +6505,19 @@
       <c r="BY24" s="26">
         <v>106.06</v>
       </c>
-      <c r="BZ24" s="26"/>
-      <c r="CA24" s="26"/>
+      <c r="BZ24" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA24" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="26">
         <v>88.57</v>
@@ -6624,15 +6744,19 @@
       <c r="BY25" s="26">
         <v>101.72</v>
       </c>
-      <c r="BZ25" s="26"/>
-      <c r="CA25" s="26"/>
+      <c r="BZ25" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA25" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="26">
         <v>91.15</v>
@@ -6859,15 +6983,19 @@
       <c r="BY26" s="26">
         <v>91.96</v>
       </c>
-      <c r="BZ26" s="26"/>
-      <c r="CA26" s="26"/>
+      <c r="BZ26" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA26" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="26">
         <v>93.24</v>
@@ -7094,15 +7222,19 @@
       <c r="BY27" s="26">
         <v>101.14</v>
       </c>
-      <c r="BZ27" s="26"/>
-      <c r="CA27" s="26"/>
+      <c r="BZ27" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA27" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="26">
         <v>84.98</v>
@@ -7329,15 +7461,19 @@
       <c r="BY28" s="26">
         <v>96.4</v>
       </c>
-      <c r="BZ28" s="26"/>
-      <c r="CA28" s="26"/>
+      <c r="BZ28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA28" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="26">
         <v>91.67</v>
@@ -7564,15 +7700,19 @@
       <c r="BY29" s="26">
         <v>98.52</v>
       </c>
-      <c r="BZ29" s="26"/>
-      <c r="CA29" s="26"/>
+      <c r="BZ29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA29" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="26">
         <v>92.41</v>
@@ -7799,15 +7939,19 @@
       <c r="BY30" s="26">
         <v>99.54</v>
       </c>
-      <c r="BZ30" s="26"/>
-      <c r="CA30" s="26"/>
+      <c r="BZ30" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA30" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="26">
         <v>84.38</v>
@@ -8034,15 +8178,19 @@
       <c r="BY31" s="26">
         <v>99.29</v>
       </c>
-      <c r="BZ31" s="26"/>
-      <c r="CA31" s="26"/>
+      <c r="BZ31" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA31" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="26">
         <v>95.28</v>
@@ -8269,15 +8417,19 @@
       <c r="BY32" s="26">
         <v>103.05</v>
       </c>
-      <c r="BZ32" s="26"/>
-      <c r="CA32" s="26"/>
+      <c r="BZ32" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA32" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="26">
         <v>83.57</v>
@@ -8504,15 +8656,19 @@
       <c r="BY33" s="26">
         <v>121.27</v>
       </c>
-      <c r="BZ33" s="26"/>
-      <c r="CA33" s="26"/>
+      <c r="BZ33" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA33" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="26">
         <v>96.22</v>
@@ -8739,15 +8895,19 @@
       <c r="BY34" s="26">
         <v>101.82</v>
       </c>
-      <c r="BZ34" s="26"/>
-      <c r="CA34" s="26"/>
+      <c r="BZ34" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA34" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="26">
         <v>89.18</v>
@@ -8974,15 +9134,19 @@
       <c r="BY35" s="26">
         <v>100.76</v>
       </c>
-      <c r="BZ35" s="26"/>
-      <c r="CA35" s="26"/>
+      <c r="BZ35" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA35" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="26">
         <v>86.9</v>
@@ -9209,15 +9373,19 @@
       <c r="BY36" s="26">
         <v>105.26</v>
       </c>
-      <c r="BZ36" s="26"/>
-      <c r="CA36" s="26"/>
+      <c r="BZ36" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA36" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="26">
         <v>89.73</v>
@@ -9444,15 +9612,19 @@
       <c r="BY37" s="26">
         <v>88.63</v>
       </c>
-      <c r="BZ37" s="26"/>
-      <c r="CA37" s="26"/>
+      <c r="BZ37" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA37" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="26">
         <v>84.35</v>
@@ -9679,15 +9851,19 @@
       <c r="BY38" s="26">
         <v>99.47</v>
       </c>
-      <c r="BZ38" s="26"/>
-      <c r="CA38" s="26"/>
+      <c r="BZ38" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA38" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="26">
         <v>93.5</v>
@@ -9914,15 +10090,19 @@
       <c r="BY39" s="26">
         <v>96.96</v>
       </c>
-      <c r="BZ39" s="26"/>
-      <c r="CA39" s="26"/>
+      <c r="BZ39" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA39" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="26">
         <v>96.28</v>
@@ -10149,15 +10329,19 @@
       <c r="BY40" s="26">
         <v>98.52</v>
       </c>
-      <c r="BZ40" s="26"/>
-      <c r="CA40" s="26"/>
+      <c r="BZ40" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA40" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="26">
         <v>96.66</v>
@@ -10384,15 +10568,19 @@
       <c r="BY41" s="26">
         <v>95.33</v>
       </c>
-      <c r="BZ41" s="26"/>
-      <c r="CA41" s="26"/>
+      <c r="BZ41" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA41" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="26">
         <v>94.92</v>
@@ -10619,15 +10807,19 @@
       <c r="BY42" s="26">
         <v>97.34</v>
       </c>
-      <c r="BZ42" s="26"/>
-      <c r="CA42" s="26"/>
+      <c r="BZ42" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA42" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="26">
         <v>96</v>
@@ -10854,15 +11046,19 @@
       <c r="BY43" s="26">
         <v>97.01</v>
       </c>
-      <c r="BZ43" s="26"/>
-      <c r="CA43" s="26"/>
+      <c r="BZ43" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA43" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="44" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="26">
         <v>86.69</v>
@@ -11089,15 +11285,19 @@
       <c r="BY44" s="26">
         <v>100.57</v>
       </c>
-      <c r="BZ44" s="26"/>
-      <c r="CA44" s="26"/>
+      <c r="BZ44" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA44" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="45" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="26">
         <v>102</v>
@@ -11324,15 +11524,19 @@
       <c r="BY45" s="26">
         <v>100.37</v>
       </c>
-      <c r="BZ45" s="26"/>
-      <c r="CA45" s="26"/>
+      <c r="BZ45" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA45" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="46" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="26">
         <v>97.73</v>
@@ -11559,15 +11763,19 @@
       <c r="BY46" s="26">
         <v>108.14</v>
       </c>
-      <c r="BZ46" s="26"/>
-      <c r="CA46" s="26"/>
+      <c r="BZ46" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA46" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="26">
         <v>97.07</v>
@@ -11794,15 +12002,19 @@
       <c r="BY47" s="26">
         <v>99.22</v>
       </c>
-      <c r="BZ47" s="26"/>
-      <c r="CA47" s="26"/>
+      <c r="BZ47" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA47" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="48" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="26">
         <v>102.73</v>
@@ -12029,15 +12241,19 @@
       <c r="BY48" s="26">
         <v>98.67</v>
       </c>
-      <c r="BZ48" s="26"/>
-      <c r="CA48" s="26"/>
+      <c r="BZ48" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA48" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="49" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="26">
         <v>92.87</v>
@@ -12264,15 +12480,19 @@
       <c r="BY49" s="26">
         <v>100.51</v>
       </c>
-      <c r="BZ49" s="26"/>
-      <c r="CA49" s="26"/>
+      <c r="BZ49" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA49" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="50" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="26">
         <v>96.65</v>
@@ -12499,15 +12719,19 @@
       <c r="BY50" s="26">
         <v>85.76</v>
       </c>
-      <c r="BZ50" s="26"/>
-      <c r="CA50" s="26"/>
+      <c r="BZ50" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA50" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="51" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="26">
         <v>93.35</v>
@@ -12734,15 +12958,19 @@
       <c r="BY51" s="26">
         <v>88.02</v>
       </c>
-      <c r="BZ51" s="26"/>
-      <c r="CA51" s="26"/>
+      <c r="BZ51" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA51" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="52" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="26">
         <v>90.65</v>
@@ -12969,15 +13197,19 @@
       <c r="BY52" s="26">
         <v>97.45</v>
       </c>
-      <c r="BZ52" s="26"/>
-      <c r="CA52" s="26"/>
+      <c r="BZ52" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA52" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="53" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="26">
         <v>99</v>
@@ -13204,15 +13436,19 @@
       <c r="BY53" s="26">
         <v>105.08</v>
       </c>
-      <c r="BZ53" s="26"/>
-      <c r="CA53" s="26"/>
+      <c r="BZ53" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA53" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="54" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="26">
         <v>97.83</v>
@@ -13439,15 +13675,19 @@
       <c r="BY54" s="26">
         <v>87.93</v>
       </c>
-      <c r="BZ54" s="26"/>
-      <c r="CA54" s="26"/>
+      <c r="BZ54" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA54" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="55" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="26">
         <v>99.4</v>
@@ -13674,15 +13914,19 @@
       <c r="BY55" s="26">
         <v>66.69</v>
       </c>
-      <c r="BZ55" s="26"/>
-      <c r="CA55" s="26"/>
+      <c r="BZ55" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA55" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="56" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="26">
         <v>98.54</v>
@@ -13909,15 +14153,19 @@
       <c r="BY56" s="26">
         <v>85.64</v>
       </c>
-      <c r="BZ56" s="26"/>
-      <c r="CA56" s="26"/>
+      <c r="BZ56" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA56" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="26">
         <v>99.29</v>
@@ -14144,15 +14392,19 @@
       <c r="BY57" s="26">
         <v>97.46</v>
       </c>
-      <c r="BZ57" s="26"/>
-      <c r="CA57" s="26"/>
+      <c r="BZ57" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA57" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="58" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="26">
         <v>96.91</v>
@@ -14379,15 +14631,19 @@
       <c r="BY58" s="26">
         <v>93</v>
       </c>
-      <c r="BZ58" s="26"/>
-      <c r="CA58" s="26"/>
+      <c r="BZ58" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA58" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="59" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="26">
         <v>101.12</v>
@@ -14614,15 +14870,19 @@
       <c r="BY59" s="26">
         <v>94.17</v>
       </c>
-      <c r="BZ59" s="26"/>
-      <c r="CA59" s="26"/>
+      <c r="BZ59" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA59" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="60" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="26">
         <v>94.87</v>
@@ -14849,15 +15109,19 @@
       <c r="BY60" s="26">
         <v>84.54</v>
       </c>
-      <c r="BZ60" s="26"/>
-      <c r="CA60" s="26"/>
+      <c r="BZ60" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA60" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="61" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="26">
         <v>93.03</v>
@@ -15084,15 +15348,19 @@
       <c r="BY61" s="26">
         <v>83.29</v>
       </c>
-      <c r="BZ61" s="26"/>
-      <c r="CA61" s="26"/>
+      <c r="BZ61" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA61" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="62" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="26">
         <v>99.71</v>
@@ -15319,15 +15587,19 @@
       <c r="BY62" s="26">
         <v>84.64</v>
       </c>
-      <c r="BZ62" s="26"/>
-      <c r="CA62" s="26"/>
+      <c r="BZ62" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA62" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="63" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="26">
         <v>95.21</v>
@@ -15554,15 +15826,19 @@
       <c r="BY63" s="26">
         <v>97.06</v>
       </c>
-      <c r="BZ63" s="26"/>
-      <c r="CA63" s="26"/>
+      <c r="BZ63" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA63" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="64" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="26">
         <v>99.21</v>
@@ -15789,15 +16065,19 @@
       <c r="BY64" s="26">
         <v>95.94</v>
       </c>
-      <c r="BZ64" s="26"/>
-      <c r="CA64" s="26"/>
+      <c r="BZ64" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA64" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="65" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="26">
         <v>96</v>
@@ -16024,15 +16304,19 @@
       <c r="BY65" s="26">
         <v>97.04</v>
       </c>
-      <c r="BZ65" s="26"/>
-      <c r="CA65" s="26"/>
+      <c r="BZ65" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA65" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="66" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="26">
         <v>96.54</v>
@@ -16259,15 +16543,19 @@
       <c r="BY66" s="26">
         <v>101.55</v>
       </c>
-      <c r="BZ66" s="26"/>
-      <c r="CA66" s="26"/>
+      <c r="BZ66" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA66" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="67" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="26">
         <v>97.88</v>
@@ -16494,15 +16782,19 @@
       <c r="BY67" s="26">
         <v>111.68</v>
       </c>
-      <c r="BZ67" s="26"/>
-      <c r="CA67" s="26"/>
+      <c r="BZ67" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA67" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="68" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="26">
         <v>97.27</v>
@@ -16729,15 +17021,19 @@
       <c r="BY68" s="26">
         <v>96.65</v>
       </c>
-      <c r="BZ68" s="26"/>
-      <c r="CA68" s="26"/>
+      <c r="BZ68" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA68" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="69" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="26">
         <v>97.12</v>
@@ -16964,15 +17260,19 @@
       <c r="BY69" s="26">
         <v>106.42</v>
       </c>
-      <c r="BZ69" s="26"/>
-      <c r="CA69" s="26"/>
+      <c r="BZ69" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA69" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="70" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="26">
         <v>92.53</v>
@@ -17199,15 +17499,19 @@
       <c r="BY70" s="26">
         <v>104.91</v>
       </c>
-      <c r="BZ70" s="26"/>
-      <c r="CA70" s="26"/>
+      <c r="BZ70" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA70" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="71" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="26">
         <v>93.15</v>
@@ -17434,15 +17738,19 @@
       <c r="BY71" s="26">
         <v>96.05</v>
       </c>
-      <c r="BZ71" s="26"/>
-      <c r="CA71" s="26"/>
+      <c r="BZ71" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA71" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="72" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="26">
         <v>91.48</v>
@@ -17669,15 +17977,19 @@
       <c r="BY72" s="26">
         <v>100.87</v>
       </c>
-      <c r="BZ72" s="26"/>
-      <c r="CA72" s="26"/>
+      <c r="BZ72" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA72" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="73" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="26">
         <v>96.36</v>
@@ -17904,15 +18216,19 @@
       <c r="BY73" s="26">
         <v>95.23</v>
       </c>
-      <c r="BZ73" s="26"/>
-      <c r="CA73" s="26"/>
+      <c r="BZ73" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA73" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="74" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="26">
         <v>87.99</v>
@@ -18139,15 +18455,19 @@
       <c r="BY74" s="26">
         <v>106.48</v>
       </c>
-      <c r="BZ74" s="26"/>
-      <c r="CA74" s="26"/>
+      <c r="BZ74" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA74" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="75" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="26">
         <v>88.97</v>
@@ -18374,15 +18694,19 @@
       <c r="BY75" s="26">
         <v>96.24</v>
       </c>
-      <c r="BZ75" s="26"/>
-      <c r="CA75" s="26"/>
+      <c r="BZ75" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA75" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="76" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" s="26">
         <v>95.98</v>
@@ -18609,15 +18933,19 @@
       <c r="BY76" s="26">
         <v>116.37</v>
       </c>
-      <c r="BZ76" s="26"/>
-      <c r="CA76" s="26"/>
+      <c r="BZ76" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA76" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="77" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="26">
         <v>97.46</v>
@@ -18844,15 +19172,19 @@
       <c r="BY77" s="26">
         <v>102.64</v>
       </c>
-      <c r="BZ77" s="26"/>
-      <c r="CA77" s="26"/>
+      <c r="BZ77" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA77" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="78" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="26">
         <v>86.24</v>
@@ -19079,15 +19411,19 @@
       <c r="BY78" s="26">
         <v>100.49</v>
       </c>
-      <c r="BZ78" s="26"/>
-      <c r="CA78" s="26"/>
+      <c r="BZ78" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA78" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="79" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="26">
         <v>83.59</v>
@@ -19314,15 +19650,19 @@
       <c r="BY79" s="26">
         <v>104.33</v>
       </c>
-      <c r="BZ79" s="26"/>
-      <c r="CA79" s="26"/>
+      <c r="BZ79" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA79" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="80" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" s="26">
         <v>61.63</v>
@@ -19549,15 +19889,19 @@
       <c r="BY80" s="26">
         <v>97.33</v>
       </c>
-      <c r="BZ80" s="26"/>
-      <c r="CA80" s="26"/>
+      <c r="BZ80" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA80" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="81" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" s="26">
         <v>96.1</v>
@@ -19784,15 +20128,19 @@
       <c r="BY81" s="26">
         <v>105.25</v>
       </c>
-      <c r="BZ81" s="26"/>
-      <c r="CA81" s="26"/>
+      <c r="BZ81" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA81" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="82" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="26">
         <v>92.35</v>
@@ -20019,15 +20367,19 @@
       <c r="BY82" s="26">
         <v>105.9</v>
       </c>
-      <c r="BZ82" s="26"/>
-      <c r="CA82" s="26"/>
+      <c r="BZ82" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA82" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="83" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="26">
         <v>99.91</v>
@@ -20254,15 +20606,19 @@
       <c r="BY83" s="26">
         <v>97.92</v>
       </c>
-      <c r="BZ83" s="26"/>
-      <c r="CA83" s="26"/>
+      <c r="BZ83" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA83" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="84" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" s="26">
         <v>92.55</v>
@@ -20489,15 +20845,19 @@
       <c r="BY84" s="26">
         <v>110.06</v>
       </c>
-      <c r="BZ84" s="26"/>
-      <c r="CA84" s="26"/>
+      <c r="BZ84" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA84" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="85" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" s="26">
         <v>103.93</v>
@@ -20724,15 +21084,19 @@
       <c r="BY85" s="26">
         <v>104.71</v>
       </c>
-      <c r="BZ85" s="26"/>
-      <c r="CA85" s="26"/>
+      <c r="BZ85" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA85" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="86" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" s="26">
         <v>83.72</v>
@@ -20959,15 +21323,19 @@
       <c r="BY86" s="26">
         <v>95.6</v>
       </c>
-      <c r="BZ86" s="26"/>
-      <c r="CA86" s="26"/>
+      <c r="BZ86" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA86" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="87" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="26">
         <v>91.01</v>
@@ -21194,15 +21562,19 @@
       <c r="BY87" s="26">
         <v>96.54</v>
       </c>
-      <c r="BZ87" s="26"/>
-      <c r="CA87" s="26"/>
+      <c r="BZ87" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA87" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="88" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" s="26">
         <v>99.4</v>
@@ -21429,15 +21801,19 @@
       <c r="BY88" s="26">
         <v>92.62</v>
       </c>
-      <c r="BZ88" s="26"/>
-      <c r="CA88" s="26"/>
+      <c r="BZ88" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA88" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="89" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="26">
         <v>91.03</v>
@@ -21664,15 +22040,19 @@
       <c r="BY89" s="26">
         <v>98.84</v>
       </c>
-      <c r="BZ89" s="26"/>
-      <c r="CA89" s="26"/>
+      <c r="BZ89" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA89" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="90" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" s="26">
         <v>91.5</v>
@@ -21899,15 +22279,19 @@
       <c r="BY90" s="26">
         <v>99.96</v>
       </c>
-      <c r="BZ90" s="26"/>
-      <c r="CA90" s="26"/>
+      <c r="BZ90" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA90" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="91" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="26">
         <v>89.78</v>
@@ -22134,12 +22518,16 @@
       <c r="BY91" s="26">
         <v>108.88</v>
       </c>
-      <c r="BZ91" s="26"/>
-      <c r="CA91" s="26"/>
+      <c r="BZ91" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA91" s="27" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="93" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
